--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -34,12 +34,18 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>비아이매트릭스</t>
+  </si>
+  <si>
     <t>유투바이오</t>
   </si>
   <si>
     <t>퀄리타스반도체</t>
   </si>
   <si>
+    <t>컨텍</t>
+  </si>
+  <si>
     <t>신성에스티</t>
   </si>
   <si>
@@ -88,10 +94,7 @@
     <t>유안타스팩11호</t>
   </si>
   <si>
-    <t>대신밸런스스팩15호</t>
-  </si>
-  <si>
-    <t>시큐레터</t>
+    <t>2023.10.19~10.25</t>
   </si>
   <si>
     <t>2023.10.18~10.19</t>
@@ -139,10 +142,7 @@
     <t>2023.08.16~08.17</t>
   </si>
   <si>
-    <t>2023.08.14~08.16</t>
-  </si>
-  <si>
-    <t>2023.08.08~08.09</t>
+    <t>9,100~11,000</t>
   </si>
   <si>
     <t>3,300~3,900</t>
@@ -151,6 +151,9 @@
     <t>13,000~15,000</t>
   </si>
   <si>
+    <t>20,300~22,500</t>
+  </si>
+  <si>
     <t>22,000~25,000</t>
   </si>
   <si>
@@ -181,16 +184,13 @@
     <t>10,500~12,000</t>
   </si>
   <si>
-    <t>9,200~10,600</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
-    <t>12000</t>
+    <t>IBK투자증권</t>
   </si>
   <si>
     <t>신한투자증권</t>
@@ -199,6 +199,9 @@
     <t>한국투자증권</t>
   </si>
   <si>
+    <t>대신증권</t>
+  </si>
+  <si>
     <t>미래에셋증권</t>
   </si>
   <si>
@@ -227,9 +230,6 @@
   </si>
   <si>
     <t>한화투자증권</t>
-  </si>
-  <si>
-    <t>대신증권</t>
   </si>
   <si>
     <t>유안타증권</t>
@@ -624,16 +624,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
       </c>
       <c r="E2">
-        <v>3724</v>
+        <v>10920</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -644,16 +644,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>56</v>
       </c>
       <c r="E3">
-        <v>23400</v>
+        <v>3724</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -664,16 +664,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
       </c>
       <c r="E4">
-        <v>44000</v>
+        <v>23400</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -681,16 +681,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>56</v>
       </c>
       <c r="E5">
-        <v>36405</v>
+        <v>41818</v>
       </c>
       <c r="F5" t="s">
         <v>61</v>
@@ -701,16 +701,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>56</v>
       </c>
       <c r="E6">
-        <v>8000</v>
+        <v>44000</v>
       </c>
       <c r="F6" t="s">
         <v>62</v>
@@ -721,19 +721,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
       </c>
       <c r="E7">
-        <v>6314</v>
+        <v>36405</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -741,19 +741,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
       </c>
       <c r="E8">
-        <v>36000</v>
+        <v>8000</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -761,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
@@ -770,7 +770,7 @@
         <v>56</v>
       </c>
       <c r="E9">
-        <v>25760</v>
+        <v>6314</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -784,16 +784,16 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
       </c>
       <c r="E10">
-        <v>340200</v>
+        <v>36000</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -804,16 +804,16 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
       </c>
       <c r="E11">
-        <v>13350</v>
+        <v>25760</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -821,19 +821,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>56</v>
       </c>
       <c r="E12">
-        <v>30000</v>
+        <v>340200</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -841,16 +841,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>56</v>
       </c>
       <c r="E13">
-        <v>22000</v>
+        <v>13350</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
@@ -864,16 +864,16 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
       </c>
       <c r="E14">
-        <v>16590</v>
+        <v>30000</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -884,16 +884,16 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -901,19 +901,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16">
-        <v>9500</v>
+        <v>16590</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,19 +921,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
       </c>
       <c r="E17">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,19 +941,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
         <v>57</v>
       </c>
       <c r="E18">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,16 +964,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
       </c>
       <c r="E19">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,16 +984,16 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
       </c>
       <c r="E20">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,19 +1001,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21">
-        <v>10671</v>
+        <v>10000</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>종목명</t>
   </si>
@@ -40,12 +40,21 @@
     <t>유투바이오</t>
   </si>
   <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
+    <t>서울보증보험</t>
+  </si>
+  <si>
     <t>퀄리타스반도체</t>
   </si>
   <si>
     <t>컨텍</t>
   </si>
   <si>
+    <t>워트</t>
+  </si>
+  <si>
     <t>신성에스티</t>
   </si>
   <si>
@@ -85,24 +94,24 @@
     <t>한화플러스스팩4호</t>
   </si>
   <si>
-    <t>대신밸런스스팩16호</t>
-  </si>
-  <si>
-    <t>한국스팩12호</t>
-  </si>
-  <si>
-    <t>유안타스팩11호</t>
-  </si>
-  <si>
     <t>2023.10.19~10.25</t>
   </si>
   <si>
     <t>2023.10.18~10.19</t>
   </si>
   <si>
+    <t>2023.10.18~10.24</t>
+  </si>
+  <si>
+    <t>2023.10.13~10.19</t>
+  </si>
+  <si>
     <t>2023.10.06~10.13</t>
   </si>
   <si>
+    <t>2023.10.05~10.12</t>
+  </si>
+  <si>
     <t>2023.09.22~10.04</t>
   </si>
   <si>
@@ -136,24 +145,27 @@
     <t>2023.08.24~08.25</t>
   </si>
   <si>
-    <t>2023.08.17~08.18</t>
-  </si>
-  <si>
-    <t>2023.08.16~08.17</t>
-  </si>
-  <si>
     <t>9,100~11,000</t>
   </si>
   <si>
     <t>3,300~3,900</t>
   </si>
   <si>
+    <t>29,800~33,500</t>
+  </si>
+  <si>
+    <t>39,500~51,800</t>
+  </si>
+  <si>
     <t>13,000~15,000</t>
   </si>
   <si>
     <t>20,300~22,500</t>
   </si>
   <si>
+    <t>5,000~5,600</t>
+  </si>
+  <si>
     <t>22,000~25,000</t>
   </si>
   <si>
@@ -187,6 +199,9 @@
     <t>-</t>
   </si>
   <si>
+    <t>24000</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
@@ -196,12 +211,18 @@
     <t>신한투자증권</t>
   </si>
   <si>
+    <t>미래에셋증권,삼성증권</t>
+  </si>
+  <si>
     <t>한국투자증권</t>
   </si>
   <si>
     <t>대신증권</t>
   </si>
   <si>
+    <t>키움증권</t>
+  </si>
+  <si>
     <t>미래에셋증권</t>
   </si>
   <si>
@@ -230,9 +251,6 @@
   </si>
   <si>
     <t>한화투자증권</t>
-  </si>
-  <si>
-    <t>유안타증권</t>
   </si>
 </sst>
 </file>
@@ -624,16 +642,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>10920</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -644,16 +662,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>3724</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -664,16 +682,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>23400</v>
+        <v>47680</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -681,19 +699,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>41818</v>
+        <v>275795</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -701,19 +719,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>44000</v>
+        <v>23400</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -724,16 +742,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>36405</v>
+        <v>41818</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -744,16 +762,16 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -764,16 +782,16 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E9">
-        <v>6314</v>
+        <v>44000</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -784,16 +802,16 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E10">
-        <v>36000</v>
+        <v>36405</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -804,16 +822,16 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>25760</v>
+        <v>8000</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -821,19 +839,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>340200</v>
+        <v>6314</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -841,19 +859,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>13350</v>
+        <v>36000</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -861,19 +879,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E14">
-        <v>30000</v>
+        <v>25760</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -884,16 +902,16 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E15">
-        <v>22000</v>
+        <v>340200</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -901,19 +919,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>16590</v>
+        <v>13350</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,19 +939,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E17">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,19 +959,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E18">
-        <v>9500</v>
+        <v>22000</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,16 +982,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E19">
-        <v>13000</v>
+        <v>16590</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,16 +1002,16 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E20">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,19 +1019,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E21">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>종목명</t>
   </si>
@@ -34,6 +34,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>에이직랜드</t>
+  </si>
+  <si>
     <t>비아이매트릭스</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>서울보증보험</t>
   </si>
   <si>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
     <t>퀄리타스반도체</t>
   </si>
   <si>
@@ -88,10 +94,7 @@
     <t>아이엠티</t>
   </si>
   <si>
-    <t>상상인스팩4호</t>
-  </si>
-  <si>
-    <t>한화플러스스팩4호</t>
+    <t>2023.10.23~10.27</t>
   </si>
   <si>
     <t>2023.10.19~10.25</t>
@@ -106,6 +109,9 @@
     <t>2023.10.13~10.19</t>
   </si>
   <si>
+    <t>2023.10.11~10.17</t>
+  </si>
+  <si>
     <t>2023.10.06~10.13</t>
   </si>
   <si>
@@ -139,10 +145,7 @@
     <t>2023.09.06~09.12</t>
   </si>
   <si>
-    <t>2023.08.28~08.29</t>
-  </si>
-  <si>
-    <t>2023.08.24~08.25</t>
+    <t>19,100~21,400</t>
   </si>
   <si>
     <t>9,100~11,000</t>
@@ -157,6 +160,9 @@
     <t>39,500~51,800</t>
   </si>
   <si>
+    <t>12,800~14,500</t>
+  </si>
+  <si>
     <t>13,000~15,000</t>
   </si>
   <si>
@@ -199,10 +205,16 @@
     <t>-</t>
   </si>
   <si>
+    <t>23000</t>
+  </si>
+  <si>
     <t>24000</t>
   </si>
   <si>
-    <t>2000</t>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>삼성증권</t>
   </si>
   <si>
     <t>IBK투자증권</t>
@@ -214,6 +226,9 @@
     <t>미래에셋증권,삼성증권</t>
   </si>
   <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
     <t>한국투자증권</t>
   </si>
   <si>
@@ -232,9 +247,6 @@
     <t>하나증권</t>
   </si>
   <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
     <t>한국투자증권,미래에셋증권,NH투자증권,KB증권,크레디트스위스증권</t>
   </si>
   <si>
@@ -245,12 +257,6 @@
   </si>
   <si>
     <t>유안타증권,유진투자증권</t>
-  </si>
-  <si>
-    <t>상상인증권</t>
-  </si>
-  <si>
-    <t>한화투자증권</t>
   </si>
 </sst>
 </file>
@@ -645,13 +651,13 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>10920</v>
+        <v>50353</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -665,13 +671,13 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>3724</v>
+        <v>10920</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -685,13 +691,13 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4">
-        <v>47680</v>
+        <v>3724</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -705,13 +711,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5">
-        <v>275795</v>
+        <v>47680</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -725,13 +731,13 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6">
-        <v>23400</v>
+        <v>275795</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -739,19 +745,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7">
-        <v>41818</v>
+        <v>13433</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -759,19 +765,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8">
-        <v>20000</v>
+        <v>23400</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -785,13 +791,13 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9">
-        <v>44000</v>
+        <v>41818</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -805,13 +811,13 @@
         <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10">
-        <v>36405</v>
+        <v>20000</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -825,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11">
-        <v>8000</v>
+        <v>44000</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -845,13 +851,13 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12">
-        <v>6314</v>
+        <v>36405</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -862,16 +868,16 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13">
-        <v>36000</v>
+        <v>8000</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -882,16 +888,16 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14">
-        <v>25760</v>
+        <v>6314</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -899,19 +905,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15">
-        <v>340200</v>
+        <v>36000</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -919,19 +925,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16">
-        <v>13350</v>
+        <v>25760</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -945,13 +951,13 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17">
-        <v>30000</v>
+        <v>340200</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -965,13 +971,13 @@
         <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18">
-        <v>22000</v>
+        <v>13350</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -979,19 +985,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E19">
-        <v>16590</v>
+        <v>30000</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -999,19 +1005,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E20">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1022,16 +1028,16 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E21">
-        <v>9500</v>
+        <v>16590</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -145,7 +145,7 @@
     <t>8,000~9,500</t>
   </si>
   <si>
-    <t>36,200~46,000</t>
+    <t>36,200~44,000</t>
   </si>
   <si>
     <t>3,200~3,600</t>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>종목명</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>3,300~3,900</t>
+  </si>
+  <si>
+    <t>5,000~7,000</t>
   </si>
   <si>
     <t>39,500~51,800</t>
@@ -630,7 +633,7 @@
         <v>13500</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -650,7 +653,7 @@
         <v>26800</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -670,7 +673,7 @@
         <v>524031</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -690,7 +693,7 @@
         <v>5107</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -710,7 +713,7 @@
         <v>14950</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -730,7 +733,7 @@
         <v>8000</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -750,7 +753,7 @@
         <v>18040</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -770,7 +773,7 @@
         <v>50353</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -790,7 +793,7 @@
         <v>8400</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -810,7 +813,7 @@
         <v>41818</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -830,7 +833,7 @@
         <v>47680</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -850,7 +853,7 @@
         <v>18200</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -870,7 +873,7 @@
         <v>10920</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -890,7 +893,7 @@
         <v>25000</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -910,7 +913,7 @@
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,7 +933,7 @@
         <v>3724</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +944,7 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>54</v>
@@ -950,7 +953,7 @@
         <v>18000</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +964,7 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
@@ -970,7 +973,7 @@
         <v>275795</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +984,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
@@ -990,7 +993,7 @@
         <v>13433</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1004,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -1010,7 +1013,7 @@
         <v>23400</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -37,9 +37,21 @@
     <t>와이바이오로직스</t>
   </si>
   <si>
+    <t>한선엔지니어링</t>
+  </si>
+  <si>
+    <t>에코아이</t>
+  </si>
+  <si>
+    <t>동인기연(유가)</t>
+  </si>
+  <si>
     <t>스톰테크</t>
   </si>
   <si>
+    <t>블루엠텍</t>
+  </si>
+  <si>
     <t>에코프로머티리얼즈</t>
   </si>
   <si>
@@ -76,27 +88,21 @@
     <t>KB스팩27호</t>
   </si>
   <si>
-    <t>에코아이</t>
-  </si>
-  <si>
     <t>유투바이오</t>
   </si>
   <si>
     <t>쏘닉스</t>
   </si>
   <si>
-    <t>서울보증보험</t>
-  </si>
-  <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
-    <t>퀄리타스반도체</t>
-  </si>
-  <si>
     <t>2023.11.10~11.16</t>
   </si>
   <si>
+    <t>2023.11.02~11.08</t>
+  </si>
+  <si>
+    <t>2023.11.01~11.07</t>
+  </si>
+  <si>
     <t>2023.10.31~11.06</t>
   </si>
   <si>
@@ -130,21 +136,24 @@
     <t>2023.10.17~10.23</t>
   </si>
   <si>
-    <t>2023.10.13~10.19</t>
-  </si>
-  <si>
-    <t>2023.10.11~10.17</t>
-  </si>
-  <si>
-    <t>2023.10.06~10.13</t>
-  </si>
-  <si>
     <t>9,000~11,000</t>
   </si>
   <si>
+    <t>5,200~6,000</t>
+  </si>
+  <si>
+    <t>28,500~34,700</t>
+  </si>
+  <si>
+    <t>33,000~37,000</t>
+  </si>
+  <si>
     <t>8,000~9,500</t>
   </si>
   <si>
+    <t>15,000~19,000</t>
+  </si>
+  <si>
     <t>36,200~44,000</t>
   </si>
   <si>
@@ -181,36 +190,33 @@
     <t>-</t>
   </si>
   <si>
-    <t>28,500~34,700</t>
-  </si>
-  <si>
     <t>3,300~3,900</t>
   </si>
   <si>
     <t>5,000~7,000</t>
   </si>
   <si>
-    <t>39,500~51,800</t>
-  </si>
-  <si>
-    <t>12,800~14,500</t>
-  </si>
-  <si>
-    <t>13,000~15,000</t>
-  </si>
-  <si>
     <t>유안타증권</t>
   </si>
   <si>
+    <t>대신증권</t>
+  </si>
+  <si>
+    <t>KB증권</t>
+  </si>
+  <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
     <t>하이투자증권</t>
   </si>
   <si>
+    <t>하나증권,키움증권</t>
+  </si>
+  <si>
     <t>미래에셋증권,NH투자증권,하이투자증권</t>
   </si>
   <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
     <t>하나증권</t>
   </si>
   <si>
@@ -218,12 +224,6 @@
   </si>
   <si>
     <t>삼성증권</t>
-  </si>
-  <si>
-    <t>KB증권</t>
-  </si>
-  <si>
-    <t>대신증권</t>
   </si>
   <si>
     <t>미래에셋증권,삼성증권</t>
@@ -624,16 +624,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>13500</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -644,16 +644,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>26800</v>
+        <v>22100</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -664,16 +664,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>524031</v>
+        <v>59251</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -681,19 +681,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>5107</v>
+        <v>60654</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -704,16 +704,16 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>14950</v>
+        <v>26800</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -721,19 +721,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -741,19 +741,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E8">
-        <v>18040</v>
+        <v>524031</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -761,19 +761,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E9">
-        <v>50353</v>
+        <v>5107</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -781,19 +781,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>8400</v>
+        <v>14950</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -801,19 +801,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E11">
-        <v>41818</v>
+        <v>8000</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -824,16 +824,16 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12">
-        <v>47680</v>
+        <v>18040</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -841,19 +841,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E13">
-        <v>18200</v>
+        <v>50353</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -864,16 +864,16 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E14">
-        <v>10920</v>
+        <v>8400</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -884,16 +884,16 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E15">
-        <v>25000</v>
+        <v>41818</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -901,19 +901,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E16">
-        <v>59251</v>
+        <v>47680</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,19 +921,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E17">
-        <v>3724</v>
+        <v>18200</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,19 +941,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E18">
-        <v>18000</v>
+        <v>10920</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,19 +961,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E19">
-        <v>275795</v>
+        <v>25000</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,19 +981,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E20">
-        <v>13433</v>
+        <v>3724</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,19 +1001,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E21">
-        <v>23400</v>
+        <v>18000</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -37,6 +37,9 @@
     <t>와이바이오로직스</t>
   </si>
   <si>
+    <t>그린리소스</t>
+  </si>
+  <si>
     <t>한선엔지니어링</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>한국스팩13호</t>
   </si>
   <si>
-    <t>그린리소스</t>
-  </si>
-  <si>
     <t>에이직랜드</t>
   </si>
   <si>
@@ -97,6 +97,9 @@
     <t>2023.11.10~11.16</t>
   </si>
   <si>
+    <t>2023.11.03~11.09</t>
+  </si>
+  <si>
     <t>2023.11.02~11.08</t>
   </si>
   <si>
@@ -115,9 +118,6 @@
     <t>2023.10.25~10.26</t>
   </si>
   <si>
-    <t>2023.10.25~10.31</t>
-  </si>
-  <si>
     <t>2023.10.23~10.27</t>
   </si>
   <si>
@@ -139,6 +139,9 @@
     <t>9,000~11,000</t>
   </si>
   <si>
+    <t>11,000~14,000</t>
+  </si>
+  <si>
     <t>5,200~6,000</t>
   </si>
   <si>
@@ -166,9 +169,6 @@
     <t>2,000~2,000</t>
   </si>
   <si>
-    <t>11,000~14,000</t>
-  </si>
-  <si>
     <t>19,100~21,400</t>
   </si>
   <si>
@@ -199,13 +199,13 @@
     <t>유안타증권</t>
   </si>
   <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
     <t>대신증권</t>
   </si>
   <si>
     <t>KB증권</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
   </si>
   <si>
     <t>하이투자증권</t>
@@ -650,7 +650,7 @@
         <v>57</v>
       </c>
       <c r="E3">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -670,7 +670,7 @@
         <v>57</v>
       </c>
       <c r="E4">
-        <v>59251</v>
+        <v>22100</v>
       </c>
       <c r="F4" t="s">
         <v>62</v>
@@ -681,7 +681,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -690,7 +690,7 @@
         <v>57</v>
       </c>
       <c r="E5">
-        <v>60654</v>
+        <v>59251</v>
       </c>
       <c r="F5" t="s">
         <v>63</v>
@@ -710,10 +710,10 @@
         <v>57</v>
       </c>
       <c r="E6">
-        <v>26800</v>
+        <v>60654</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -721,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -730,10 +730,10 @@
         <v>57</v>
       </c>
       <c r="E7">
-        <v>21000</v>
+        <v>26800</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -750,10 +750,10 @@
         <v>57</v>
       </c>
       <c r="E8">
-        <v>524031</v>
+        <v>21000</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -770,10 +770,10 @@
         <v>57</v>
       </c>
       <c r="E9">
-        <v>5107</v>
+        <v>524031</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -781,7 +781,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>48</v>
@@ -790,10 +790,10 @@
         <v>57</v>
       </c>
       <c r="E10">
-        <v>14950</v>
+        <v>5107</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -810,10 +810,10 @@
         <v>57</v>
       </c>
       <c r="E11">
-        <v>8000</v>
+        <v>14950</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -830,10 +830,10 @@
         <v>57</v>
       </c>
       <c r="E12">
-        <v>18040</v>
+        <v>8000</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -873,7 +873,7 @@
         <v>8400</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -893,7 +893,7 @@
         <v>41818</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -933,7 +933,7 @@
         <v>18200</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -973,7 +973,7 @@
         <v>25000</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1013,7 +1013,7 @@
         <v>18000</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>와이바이오로직스</t>
   </si>
   <si>
+    <t>에이에스텍</t>
+  </si>
+  <si>
     <t>그린리소스</t>
   </si>
   <si>
@@ -91,12 +94,12 @@
     <t>유투바이오</t>
   </si>
   <si>
-    <t>쏘닉스</t>
-  </si>
-  <si>
     <t>2023.11.10~11.16</t>
   </si>
   <si>
+    <t>2023.11.07~11.13</t>
+  </si>
+  <si>
     <t>2023.11.03~11.09</t>
   </si>
   <si>
@@ -133,12 +136,12 @@
     <t>2023.10.18~10.19</t>
   </si>
   <si>
-    <t>2023.10.17~10.23</t>
-  </si>
-  <si>
     <t>9,000~11,000</t>
   </si>
   <si>
+    <t>21,000~25,000</t>
+  </si>
+  <si>
     <t>11,000~14,000</t>
   </si>
   <si>
@@ -193,10 +196,10 @@
     <t>3,300~3,900</t>
   </si>
   <si>
-    <t>5,000~7,000</t>
-  </si>
-  <si>
     <t>유안타증권</t>
+  </si>
+  <si>
+    <t>미래에셋증권</t>
   </si>
   <si>
     <t>NH투자증권</t>
@@ -627,7 +630,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <v>13500</v>
@@ -647,10 +650,10 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>18040</v>
+        <v>29547</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -667,10 +670,10 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F4" t="s">
         <v>62</v>
@@ -687,10 +690,10 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>59251</v>
+        <v>22100</v>
       </c>
       <c r="F5" t="s">
         <v>63</v>
@@ -701,19 +704,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>60654</v>
+        <v>59251</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -727,13 +730,13 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>26800</v>
+        <v>60654</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -741,16 +744,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>21000</v>
+        <v>26800</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -767,10 +770,10 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9">
-        <v>524031</v>
+        <v>21000</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -787,13 +790,13 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10">
-        <v>5107</v>
+        <v>524031</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -801,19 +804,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>14950</v>
+        <v>5107</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -827,10 +830,10 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12">
-        <v>8000</v>
+        <v>14950</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -847,10 +850,10 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13">
-        <v>50353</v>
+        <v>8000</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>
@@ -861,19 +864,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14">
-        <v>8400</v>
+        <v>50353</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -887,13 +890,13 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15">
-        <v>41818</v>
+        <v>8400</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -901,19 +904,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16">
-        <v>47680</v>
+        <v>41818</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,19 +924,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17">
-        <v>18200</v>
+        <v>47680</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,13 +950,13 @@
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18">
-        <v>10920</v>
+        <v>18200</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,13 +970,13 @@
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19">
-        <v>25000</v>
+        <v>10920</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,13 +990,13 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20">
-        <v>3724</v>
+        <v>25000</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,13 +1010,13 @@
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21">
-        <v>18000</v>
+        <v>3724</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>종목명</t>
   </si>
@@ -34,9 +34,18 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>NH스팩30호</t>
+  </si>
+  <si>
     <t>와이바이오로직스</t>
   </si>
   <si>
+    <t>에이텀</t>
+  </si>
+  <si>
+    <t>LS머트리얼즈</t>
+  </si>
+  <si>
     <t>에이에스텍</t>
   </si>
   <si>
@@ -64,9 +73,6 @@
     <t>캡스톤파트너스</t>
   </si>
   <si>
-    <t>에이텀</t>
-  </si>
-  <si>
     <t>한국스팩13호</t>
   </si>
   <si>
@@ -88,15 +94,18 @@
     <t>비아이매트릭스</t>
   </si>
   <si>
-    <t>KB스팩27호</t>
-  </si>
-  <si>
-    <t>유투바이오</t>
+    <t>2023.11.15~11.16</t>
   </si>
   <si>
     <t>2023.11.10~11.16</t>
   </si>
   <si>
+    <t>2023.11.09~11.15</t>
+  </si>
+  <si>
+    <t>2023.11.08~11.14</t>
+  </si>
+  <si>
     <t>2023.11.07~11.13</t>
   </si>
   <si>
@@ -130,15 +139,18 @@
     <t>2023.10.19~10.25</t>
   </si>
   <si>
-    <t>2023.10.19~10.20</t>
-  </si>
-  <si>
-    <t>2023.10.18~10.19</t>
+    <t>2,000~2,000</t>
   </si>
   <si>
     <t>9,000~11,000</t>
   </si>
   <si>
+    <t>23,000~30,000</t>
+  </si>
+  <si>
+    <t>4,400~5,500</t>
+  </si>
+  <si>
     <t>21,000~25,000</t>
   </si>
   <si>
@@ -166,12 +178,6 @@
     <t>3,200~3,600</t>
   </si>
   <si>
-    <t>23,000~30,000</t>
-  </si>
-  <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>19,100~21,400</t>
   </si>
   <si>
@@ -193,18 +199,21 @@
     <t>-</t>
   </si>
   <si>
-    <t>3,300~3,900</t>
+    <t>NH투자증권</t>
   </si>
   <si>
     <t>유안타증권</t>
   </si>
   <si>
+    <t>하나증권</t>
+  </si>
+  <si>
+    <t>키움증권,KB증권,이베스트투자증권,하이투자증권,NH투자증권</t>
+  </si>
+  <si>
     <t>미래에셋증권</t>
   </si>
   <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
     <t>대신증권</t>
   </si>
   <si>
@@ -220,9 +229,6 @@
     <t>미래에셋증권,NH투자증권,하이투자증권</t>
   </si>
   <si>
-    <t>하나증권</t>
-  </si>
-  <si>
     <t>한국투자증권</t>
   </si>
   <si>
@@ -233,9 +239,6 @@
   </si>
   <si>
     <t>IBK투자증권</t>
-  </si>
-  <si>
-    <t>신한투자증권</t>
   </si>
 </sst>
 </file>
@@ -627,16 +630,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -647,16 +650,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>29547</v>
+        <v>13500</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -667,16 +670,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>18040</v>
+        <v>14950</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -687,16 +690,16 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>22100</v>
+        <v>64350</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -707,16 +710,16 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>59251</v>
+        <v>29547</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -724,19 +727,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>60654</v>
+        <v>18040</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -744,19 +747,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>26800</v>
+        <v>22100</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -764,19 +767,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9">
-        <v>21000</v>
+        <v>59251</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -784,19 +787,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10">
-        <v>524031</v>
+        <v>60654</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -804,19 +807,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>5107</v>
+        <v>26800</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -824,19 +827,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>14950</v>
+        <v>21000</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -844,19 +847,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>8000</v>
+        <v>524031</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -864,19 +867,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14">
-        <v>50353</v>
+        <v>5107</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -884,19 +887,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -904,19 +907,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>41818</v>
+        <v>50353</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,19 +927,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E17">
-        <v>47680</v>
+        <v>8400</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,19 +947,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E18">
-        <v>18200</v>
+        <v>41818</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,19 +967,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E19">
-        <v>10920</v>
+        <v>47680</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,19 +987,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20">
-        <v>25000</v>
+        <v>18200</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,19 +1007,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E21">
-        <v>3724</v>
+        <v>10920</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>종목명</t>
   </si>
@@ -34,6 +34,18 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>블루엠텍</t>
+  </si>
+  <si>
+    <t>삼성스팩9호</t>
+  </si>
+  <si>
+    <t>교보스팩15호</t>
+  </si>
+  <si>
+    <t>케이엔에스</t>
+  </si>
+  <si>
     <t>NH스팩30호</t>
   </si>
   <si>
@@ -64,10 +76,7 @@
     <t>스톰테크</t>
   </si>
   <si>
-    <t>블루엠텍</t>
-  </si>
-  <si>
-    <t>에코프로머티리얼즈</t>
+    <t>에코프로머티리얼즈(유가)</t>
   </si>
   <si>
     <t>캡스톤파트너스</t>
@@ -85,13 +94,13 @@
     <t>컨텍</t>
   </si>
   <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
-    <t>메가터치</t>
-  </si>
-  <si>
-    <t>비아이매트릭스</t>
+    <t>2023.11.22~11.28</t>
+  </si>
+  <si>
+    <t>2023.11.20~11.21</t>
+  </si>
+  <si>
+    <t>2023.11.16~11.22</t>
   </si>
   <si>
     <t>2023.11.15~11.16</t>
@@ -136,12 +145,15 @@
     <t>2023.10.20~10.26</t>
   </si>
   <si>
-    <t>2023.10.19~10.25</t>
+    <t>15,000~19,000</t>
   </si>
   <si>
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>19,000~22,000</t>
+  </si>
+  <si>
     <t>9,000~11,000</t>
   </si>
   <si>
@@ -169,9 +181,6 @@
     <t>8,000~9,500</t>
   </si>
   <si>
-    <t>15,000~19,000</t>
-  </si>
-  <si>
     <t>36,200~44,000</t>
   </si>
   <si>
@@ -187,18 +196,33 @@
     <t>20,300~22,500</t>
   </si>
   <si>
-    <t>29,800~33,500</t>
-  </si>
-  <si>
-    <t>3,500~4,000</t>
-  </si>
-  <si>
-    <t>9,100~11,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>22500</t>
+  </si>
+  <si>
+    <t>하나증권,키움증권</t>
+  </si>
+  <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
+    <t>교보증권</t>
+  </si>
+  <si>
+    <t>신영증권</t>
+  </si>
+  <si>
     <t>NH투자증권</t>
   </si>
   <si>
@@ -223,22 +247,10 @@
     <t>하이투자증권</t>
   </si>
   <si>
-    <t>하나증권,키움증권</t>
-  </si>
-  <si>
     <t>미래에셋증권,NH투자증권,하이투자증권</t>
   </si>
   <si>
     <t>한국투자증권</t>
-  </si>
-  <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
-    <t>미래에셋증권,삼성증권</t>
-  </si>
-  <si>
-    <t>IBK투자증권</t>
   </si>
 </sst>
 </file>
@@ -630,16 +642,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>60</v>
       </c>
       <c r="E2">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -650,16 +662,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
       <c r="E3">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -667,19 +679,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>
       </c>
       <c r="E4">
-        <v>14950</v>
+        <v>7000</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -687,19 +699,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
       </c>
       <c r="E5">
-        <v>64350</v>
+        <v>14250</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -707,19 +719,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
       </c>
       <c r="E6">
-        <v>29547</v>
+        <v>16000</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -727,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -736,10 +748,10 @@
         <v>60</v>
       </c>
       <c r="E7">
-        <v>18040</v>
+        <v>13500</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -747,7 +759,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -756,10 +768,10 @@
         <v>60</v>
       </c>
       <c r="E8">
-        <v>22100</v>
+        <v>14950</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -767,7 +779,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
@@ -776,10 +788,10 @@
         <v>60</v>
       </c>
       <c r="E9">
-        <v>59251</v>
+        <v>64350</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -796,10 +808,10 @@
         <v>60</v>
       </c>
       <c r="E10">
-        <v>60654</v>
+        <v>29547</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -816,10 +828,10 @@
         <v>60</v>
       </c>
       <c r="E11">
-        <v>26800</v>
+        <v>18040</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -827,7 +839,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
@@ -836,10 +848,10 @@
         <v>60</v>
       </c>
       <c r="E12">
-        <v>21000</v>
+        <v>22100</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -847,7 +859,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
@@ -856,10 +868,10 @@
         <v>60</v>
       </c>
       <c r="E13">
-        <v>524031</v>
+        <v>59251</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -876,10 +888,10 @@
         <v>60</v>
       </c>
       <c r="E14">
-        <v>5107</v>
+        <v>60654</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -890,16 +902,16 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
       </c>
       <c r="E15">
-        <v>8000</v>
+        <v>26800</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -910,16 +922,16 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
       </c>
       <c r="E16">
-        <v>50353</v>
+        <v>524031</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,19 +939,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
         <v>60</v>
       </c>
       <c r="E17">
-        <v>8400</v>
+        <v>5107</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,19 +959,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18">
-        <v>41818</v>
+        <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,19 +979,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E19">
-        <v>47680</v>
+        <v>50353</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,19 +999,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E20">
-        <v>18200</v>
+        <v>8400</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,16 +1019,16 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E21">
-        <v>10920</v>
+        <v>41818</v>
       </c>
       <c r="F21" t="s">
         <v>74</v>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>종목명</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>4000</t>
   </si>
   <si>
     <t>2000</t>
@@ -651,7 +654,7 @@
         <v>21000</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -671,7 +674,7 @@
         <v>20000</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -691,7 +694,7 @@
         <v>7000</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -711,7 +714,7 @@
         <v>14250</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -731,7 +734,7 @@
         <v>16000</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -751,7 +754,7 @@
         <v>13500</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -771,7 +774,7 @@
         <v>14950</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -791,7 +794,7 @@
         <v>64350</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -811,7 +814,7 @@
         <v>29547</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -831,7 +834,7 @@
         <v>18040</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -851,7 +854,7 @@
         <v>22100</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -871,7 +874,7 @@
         <v>59251</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -891,7 +894,7 @@
         <v>60654</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -911,7 +914,7 @@
         <v>26800</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -931,7 +934,7 @@
         <v>524031</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -945,13 +948,13 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17">
-        <v>5107</v>
+        <v>6384</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -965,13 +968,13 @@
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -985,13 +988,13 @@
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>50353</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1005,13 +1008,13 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>8400</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1025,13 +1028,13 @@
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <v>41818</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>블루엠텍</t>
   </si>
   <si>
+    <t>LS머트리얼즈</t>
+  </si>
+  <si>
     <t>삼성스팩9호</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>에이텀</t>
   </si>
   <si>
-    <t>LS머트리얼즈</t>
-  </si>
-  <si>
     <t>에이에스텍</t>
   </si>
   <si>
@@ -112,9 +112,6 @@
     <t>2023.11.09~11.15</t>
   </si>
   <si>
-    <t>2023.11.08~11.14</t>
-  </si>
-  <si>
     <t>2023.11.07~11.13</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
     <t>15,000~19,000</t>
   </si>
   <si>
+    <t>4,400~5,500</t>
+  </si>
+  <si>
     <t>2,000~2,000</t>
   </si>
   <si>
@@ -160,9 +160,6 @@
     <t>23,000~30,000</t>
   </si>
   <si>
-    <t>4,400~5,500</t>
-  </si>
-  <si>
     <t>21,000~25,000</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
     <t>하나증권,키움증권</t>
   </si>
   <si>
+    <t>키움증권,KB증권,이베스트투자증권,하이투자증권,NH투자증권</t>
+  </si>
+  <si>
     <t>삼성증권</t>
   </si>
   <si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>하나증권</t>
-  </si>
-  <si>
-    <t>키움증권,KB증권,이베스트투자증권,하이투자증권,NH투자증권</t>
   </si>
   <si>
     <t>미래에셋증권</t>
@@ -645,16 +642,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>21000</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -662,19 +659,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -688,13 +685,13 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -702,19 +699,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -722,19 +719,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -742,19 +739,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -762,19 +759,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -782,19 +779,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9">
-        <v>64350</v>
+        <v>14950</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -802,19 +799,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>29547</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -822,13 +819,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11">
         <v>18040</v>
@@ -842,19 +839,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12">
         <v>22100</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -862,19 +859,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <v>59251</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -882,13 +879,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14">
         <v>60654</v>
@@ -902,19 +899,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>26800</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -922,19 +919,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>524031</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -942,13 +939,13 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>6384</v>
@@ -962,19 +959,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -982,13 +979,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>50353</v>
@@ -1002,19 +999,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>8400</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1022,19 +1019,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>41818</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>종목명</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>34700</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>36200</t>
   </si>
   <si>
     <t>4000</t>
@@ -651,7 +663,7 @@
         <v>21000</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -671,7 +683,7 @@
         <v>64350</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -691,7 +703,7 @@
         <v>20000</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -711,7 +723,7 @@
         <v>7000</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -731,7 +743,7 @@
         <v>14250</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -751,7 +763,7 @@
         <v>16000</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -771,7 +783,7 @@
         <v>13500</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -791,7 +803,7 @@
         <v>14950</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -811,7 +823,7 @@
         <v>29547</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -831,7 +843,7 @@
         <v>18040</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -851,7 +863,7 @@
         <v>22100</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -865,13 +877,13 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>59251</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -885,13 +897,13 @@
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>60654</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -905,13 +917,13 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15">
         <v>26800</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -925,13 +937,13 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>524031</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -945,13 +957,13 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>6384</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -965,13 +977,13 @@
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -985,13 +997,13 @@
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>50353</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1005,13 +1017,13 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E20">
         <v>8400</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1025,13 +1037,13 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>41818</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>종목명</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>7000</t>
   </si>
   <si>
     <t>34700</t>
@@ -663,7 +669,7 @@
         <v>21000</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -683,7 +689,7 @@
         <v>64350</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -703,7 +709,7 @@
         <v>20000</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -723,7 +729,7 @@
         <v>7000</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -743,7 +749,7 @@
         <v>14250</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -763,7 +769,7 @@
         <v>16000</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -783,7 +789,7 @@
         <v>13500</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -803,7 +809,7 @@
         <v>14950</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -823,7 +829,7 @@
         <v>29547</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -837,13 +843,13 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>18040</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -857,13 +863,13 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>22100</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -877,13 +883,13 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <v>59251</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -897,13 +903,13 @@
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>60654</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -917,13 +923,13 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>26800</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -937,13 +943,13 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>524031</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -957,13 +963,13 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>6384</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -977,13 +983,13 @@
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -997,13 +1003,13 @@
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19">
         <v>50353</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1017,13 +1023,13 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E20">
         <v>8400</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1037,13 +1043,13 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>41818</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -34,6 +34,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>키움스팩9호</t>
+  </si>
+  <si>
     <t>블루엠텍</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>에스와이스틸텍</t>
   </si>
   <si>
-    <t>컨텍</t>
+    <t>2023.12.07~12.08</t>
   </si>
   <si>
     <t>2023.11.22~11.28</t>
@@ -139,7 +142,7 @@
     <t>2023.10.23~10.27</t>
   </si>
   <si>
-    <t>2023.10.20~10.26</t>
+    <t>2,000~2,000</t>
   </si>
   <si>
     <t>15,000~19,000</t>
@@ -148,9 +151,6 @@
     <t>4,400~5,500</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>19,000~22,000</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>1,200~1,500</t>
   </si>
   <si>
-    <t>20,300~22,500</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
+    <t>28000</t>
+  </si>
+  <si>
     <t>17000</t>
   </si>
   <si>
@@ -226,7 +226,7 @@
     <t>1800</t>
   </si>
   <si>
-    <t>22500</t>
+    <t>키움증권</t>
   </si>
   <si>
     <t>하나증권,키움증권</t>
@@ -663,13 +663,13 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -677,19 +677,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -703,13 +703,13 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -717,19 +717,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -740,16 +740,16 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -760,16 +760,16 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -780,16 +780,16 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -800,16 +800,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -820,16 +820,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10">
-        <v>29547</v>
+        <v>14950</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -840,16 +840,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11">
-        <v>18040</v>
+        <v>29547</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -860,16 +860,16 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -880,16 +880,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13">
-        <v>59251</v>
+        <v>22100</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -897,19 +897,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14">
-        <v>60654</v>
+        <v>59251</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -920,16 +920,16 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15">
-        <v>26800</v>
+        <v>60654</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -940,16 +940,16 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16">
-        <v>524031</v>
+        <v>26800</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -960,16 +960,16 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17">
-        <v>6384</v>
+        <v>524031</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -980,16 +980,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18">
-        <v>8000</v>
+        <v>6384</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1000,16 +1000,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19">
-        <v>50353</v>
+        <v>8000</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1017,19 +1017,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20">
-        <v>8400</v>
+        <v>50353</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1040,16 +1040,16 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21">
-        <v>41818</v>
+        <v>8400</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -34,9 +34,15 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>하나스팩30호</t>
+  </si>
+  <si>
     <t>키움스팩9호</t>
   </si>
   <si>
+    <t>디에스단석(구,단석산업)</t>
+  </si>
+  <si>
     <t>블루엠텍</t>
   </si>
   <si>
@@ -88,15 +94,15 @@
     <t>한국스팩13호</t>
   </si>
   <si>
-    <t>에이직랜드</t>
-  </si>
-  <si>
-    <t>에스와이스틸텍</t>
+    <t>2023.12.08~12.11</t>
   </si>
   <si>
     <t>2023.12.07~12.08</t>
   </si>
   <si>
+    <t>2023.12.05~12.11</t>
+  </si>
+  <si>
     <t>2023.11.22~11.28</t>
   </si>
   <si>
@@ -139,12 +145,12 @@
     <t>2023.10.25~10.26</t>
   </si>
   <si>
-    <t>2023.10.23~10.27</t>
-  </si>
-  <si>
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>79,000~89,000</t>
+  </si>
+  <si>
     <t>15,000~19,000</t>
   </si>
   <si>
@@ -184,15 +190,12 @@
     <t>3,200~3,600</t>
   </si>
   <si>
-    <t>19,100~21,400</t>
-  </si>
-  <si>
-    <t>1,200~1,500</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
+    <t>18000</t>
+  </si>
+  <si>
     <t>28000</t>
   </si>
   <si>
@@ -220,15 +223,15 @@
     <t>2000</t>
   </si>
   <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>1800</t>
+    <t>하나증권</t>
   </si>
   <si>
     <t>키움증권</t>
   </si>
   <si>
+    <t>KB증권,NH투자증권</t>
+  </si>
+  <si>
     <t>하나증권,키움증권</t>
   </si>
   <si>
@@ -248,9 +251,6 @@
   </si>
   <si>
     <t>유안타증권</t>
-  </si>
-  <si>
-    <t>하나증권</t>
   </si>
   <si>
     <t>미래에셋증권</t>
@@ -660,16 +660,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>58</v>
       </c>
       <c r="E2">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -686,10 +686,10 @@
         <v>58</v>
       </c>
       <c r="E3">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -697,7 +697,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -706,10 +706,10 @@
         <v>58</v>
       </c>
       <c r="E4">
-        <v>64350</v>
+        <v>96380</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -717,19 +717,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -737,19 +737,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>58</v>
       </c>
       <c r="E6">
-        <v>7000</v>
+        <v>64350</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -757,19 +757,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>58</v>
       </c>
       <c r="E7">
-        <v>14250</v>
+        <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -780,16 +780,16 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
       </c>
       <c r="E8">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -800,16 +800,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>58</v>
       </c>
       <c r="E9">
-        <v>13500</v>
+        <v>14250</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -820,16 +820,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>58</v>
       </c>
       <c r="E10">
-        <v>14950</v>
+        <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -843,13 +843,13 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>29547</v>
+        <v>13500</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -863,13 +863,13 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12">
-        <v>18040</v>
+        <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -883,13 +883,13 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>22100</v>
+        <v>29547</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -903,13 +903,13 @@
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14">
-        <v>59251</v>
+        <v>18040</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -917,19 +917,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15">
-        <v>60654</v>
+        <v>22100</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -937,19 +937,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16">
-        <v>26800</v>
+        <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -963,13 +963,13 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17">
-        <v>524031</v>
+        <v>60654</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -983,13 +983,13 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18">
-        <v>6384</v>
+        <v>26800</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1000,16 +1000,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19">
-        <v>8000</v>
+        <v>524031</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1020,16 +1020,16 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20">
-        <v>50353</v>
+        <v>6384</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1037,19 +1037,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -193,6 +193,9 @@
     <t>-</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>18000</t>
   </si>
   <si>
@@ -218,9 +221,6 @@
   </si>
   <si>
     <t>4000</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>하나증권</t>
@@ -823,7 +823,7 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>16000</v>
@@ -863,7 +863,7 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>14950</v>
@@ -883,7 +883,7 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <v>29547</v>
@@ -903,7 +903,7 @@
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14">
         <v>18040</v>
@@ -923,7 +923,7 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>22100</v>
@@ -943,7 +943,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>59251</v>
@@ -963,7 +963,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17">
         <v>60654</v>
@@ -983,7 +983,7 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>26800</v>
@@ -1003,7 +1003,7 @@
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19">
         <v>524031</v>
@@ -1023,7 +1023,7 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20">
         <v>6384</v>
@@ -1043,7 +1043,7 @@
         <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>8000</v>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>종목명</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>9000</t>
   </si>
   <si>
     <t>18000</t>
@@ -669,7 +672,7 @@
         <v>14000</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -689,7 +692,7 @@
         <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -709,7 +712,7 @@
         <v>96380</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -729,7 +732,7 @@
         <v>21000</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -749,7 +752,7 @@
         <v>64350</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -769,7 +772,7 @@
         <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -789,7 +792,7 @@
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -809,7 +812,7 @@
         <v>14250</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -829,7 +832,7 @@
         <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -843,13 +846,13 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>13500</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -863,13 +866,13 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -883,13 +886,13 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <v>29547</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -903,13 +906,13 @@
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>18040</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -923,13 +926,13 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>22100</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -943,13 +946,13 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -963,13 +966,13 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>60654</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -983,13 +986,13 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>26800</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1003,13 +1006,13 @@
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19">
         <v>524031</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1023,13 +1026,13 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20">
         <v>6384</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1049,7 +1052,7 @@
         <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -766,7 +766,7 @@
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>20000</v>
@@ -786,7 +786,7 @@
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>7000</v>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>종목명</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>23000</t>
   </si>
   <si>
     <t>9000</t>
@@ -672,7 +675,7 @@
         <v>14000</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -692,7 +695,7 @@
         <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -712,7 +715,7 @@
         <v>96380</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -732,7 +735,7 @@
         <v>21000</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -752,7 +755,7 @@
         <v>64350</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -772,7 +775,7 @@
         <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -792,7 +795,7 @@
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -806,13 +809,13 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>14250</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -832,7 +835,7 @@
         <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -846,13 +849,13 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>13500</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -866,13 +869,13 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -886,13 +889,13 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>29547</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -906,13 +909,13 @@
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>18040</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -926,13 +929,13 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <v>22100</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -946,13 +949,13 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -966,13 +969,13 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>60654</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -986,13 +989,13 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>26800</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1006,13 +1009,13 @@
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>524031</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1026,13 +1029,13 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>6384</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1052,7 +1055,7 @@
         <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -34,12 +34,12 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>포스뱅크</t>
+  </si>
+  <si>
     <t>하나스팩30호</t>
   </si>
   <si>
-    <t>키움스팩9호</t>
-  </si>
-  <si>
     <t>디에스단석(구,단석산업)</t>
   </si>
   <si>
@@ -94,12 +94,12 @@
     <t>한국스팩13호</t>
   </si>
   <si>
+    <t>2024.01.05~01.11</t>
+  </si>
+  <si>
     <t>2023.12.08~12.11</t>
   </si>
   <si>
-    <t>2023.12.07~12.08</t>
-  </si>
-  <si>
     <t>2023.12.05~12.11</t>
   </si>
   <si>
@@ -145,6 +145,9 @@
     <t>2023.10.25~10.26</t>
   </si>
   <si>
+    <t>13,000~15,000</t>
+  </si>
+  <si>
     <t>2,000~2,000</t>
   </si>
   <si>
@@ -230,9 +233,6 @@
   </si>
   <si>
     <t>하나증권</t>
-  </si>
-  <si>
-    <t>키움증권</t>
   </si>
   <si>
     <t>KB증권,NH투자증권</t>
@@ -669,13 +669,13 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -686,13 +686,13 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
@@ -706,10 +706,10 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>96380</v>
@@ -726,10 +726,10 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>21000</v>
@@ -746,10 +746,10 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>64350</v>
@@ -766,10 +766,10 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>20000</v>
@@ -786,10 +786,10 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>7000</v>
@@ -806,10 +806,10 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>14250</v>
@@ -826,10 +826,10 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>16000</v>
@@ -846,10 +846,10 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>13500</v>
@@ -866,16 +866,16 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -886,10 +886,10 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>29547</v>
@@ -906,10 +906,10 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14">
         <v>18040</v>
@@ -926,10 +926,10 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>22100</v>
@@ -946,10 +946,10 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16">
         <v>59251</v>
@@ -966,10 +966,10 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>60654</v>
@@ -986,10 +986,10 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18">
         <v>26800</v>
@@ -1006,10 +1006,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>524031</v>
@@ -1026,10 +1026,10 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20">
         <v>6384</v>
@@ -1046,10 +1046,10 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>8000</v>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>종목명</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>19000</t>
+  </si>
+  <si>
+    <t>6000</t>
   </si>
   <si>
     <t>2000</t>
@@ -675,7 +681,7 @@
         <v>19500</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -695,7 +701,7 @@
         <v>14000</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -715,7 +721,7 @@
         <v>96380</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -729,13 +735,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>21000</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -749,13 +755,13 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>64350</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -769,13 +775,13 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>20000</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -789,13 +795,13 @@
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -809,13 +815,13 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>14250</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -829,13 +835,13 @@
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -849,13 +855,13 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>13500</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -869,13 +875,13 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>14950</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -889,13 +895,13 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>29547</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -909,13 +915,13 @@
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>18040</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -929,13 +935,13 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>22100</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -949,13 +955,13 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>59251</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -969,13 +975,13 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>60654</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -989,13 +995,13 @@
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>26800</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1009,13 +1015,13 @@
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>524031</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1029,13 +1035,13 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <v>6384</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1049,13 +1055,13 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -34,6 +34,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>IBKS스팩23호</t>
+  </si>
+  <si>
     <t>포스뱅크</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>캡스톤파트너스</t>
   </si>
   <si>
-    <t>한국스팩13호</t>
+    <t>2024.01.08~01.12</t>
   </si>
   <si>
     <t>2024.01.05~01.11</t>
@@ -142,7 +145,7 @@
     <t>2023.10.26~11.01</t>
   </si>
   <si>
-    <t>2023.10.25~10.26</t>
+    <t>2,400~2,800</t>
   </si>
   <si>
     <t>13,000~15,000</t>
@@ -238,6 +241,9 @@
     <t>4000</t>
   </si>
   <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
     <t>하나증권</t>
   </si>
   <si>
@@ -259,9 +265,6 @@
     <t>신영증권</t>
   </si>
   <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
     <t>유안타증권</t>
   </si>
   <si>
@@ -278,9 +281,6 @@
   </si>
   <si>
     <t>미래에셋증권,NH투자증권,하이투자증권</t>
-  </si>
-  <si>
-    <t>한국투자증권</t>
   </si>
 </sst>
 </file>
@@ -675,13 +675,13 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -695,13 +695,13 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -715,13 +715,13 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>96380</v>
+        <v>14000</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -738,10 +738,10 @@
         <v>60</v>
       </c>
       <c r="E5">
-        <v>21000</v>
+        <v>96380</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -749,7 +749,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
@@ -758,10 +758,10 @@
         <v>61</v>
       </c>
       <c r="E6">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -772,16 +772,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>62</v>
       </c>
       <c r="E7">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -789,19 +789,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -812,16 +812,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
       </c>
       <c r="E9">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -832,16 +832,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -852,16 +852,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -878,10 +878,10 @@
         <v>65</v>
       </c>
       <c r="E12">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -898,10 +898,10 @@
         <v>66</v>
       </c>
       <c r="E13">
-        <v>29547</v>
+        <v>14950</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -918,10 +918,10 @@
         <v>67</v>
       </c>
       <c r="E14">
-        <v>18040</v>
+        <v>29547</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -938,10 +938,10 @@
         <v>68</v>
       </c>
       <c r="E15">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -958,7 +958,7 @@
         <v>69</v>
       </c>
       <c r="E16">
-        <v>59251</v>
+        <v>22100</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -969,7 +969,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -978,10 +978,10 @@
         <v>70</v>
       </c>
       <c r="E17">
-        <v>60654</v>
+        <v>59251</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -998,10 +998,10 @@
         <v>71</v>
       </c>
       <c r="E18">
-        <v>26800</v>
+        <v>60654</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1018,7 +1018,7 @@
         <v>72</v>
       </c>
       <c r="E19">
-        <v>524031</v>
+        <v>26800</v>
       </c>
       <c r="F19" t="s">
         <v>87</v>
@@ -1038,10 +1038,10 @@
         <v>73</v>
       </c>
       <c r="E20">
-        <v>6384</v>
+        <v>524031</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1052,16 +1052,16 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E21">
-        <v>8000</v>
+        <v>6384</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>종목명</t>
   </si>
@@ -34,18 +34,21 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>에이치비인베스트먼트</t>
+  </si>
+  <si>
+    <t>포스뱅크</t>
+  </si>
+  <si>
+    <t>하나스팩30호</t>
+  </si>
+  <si>
+    <t>디에스단석(구,단석산업)</t>
+  </si>
+  <si>
     <t>IBKS스팩23호</t>
   </si>
   <si>
-    <t>포스뱅크</t>
-  </si>
-  <si>
-    <t>하나스팩30호</t>
-  </si>
-  <si>
-    <t>디에스단석(구,단석산업)</t>
-  </si>
-  <si>
     <t>블루엠텍</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>에코프로머티리얼즈(유가)</t>
   </si>
   <si>
-    <t>캡스톤파트너스</t>
-  </si>
-  <si>
     <t>2024.01.08~01.12</t>
   </si>
   <si>
@@ -106,6 +106,9 @@
     <t>2023.12.05~12.11</t>
   </si>
   <si>
+    <t>2023.12.04~12.08</t>
+  </si>
+  <si>
     <t>2023.11.22~11.28</t>
   </si>
   <si>
@@ -142,9 +145,6 @@
     <t>2023.10.30~11.03</t>
   </si>
   <si>
-    <t>2023.10.26~11.01</t>
-  </si>
-  <si>
     <t>2,400~2,800</t>
   </si>
   <si>
@@ -193,9 +193,6 @@
     <t>36,200~44,000</t>
   </si>
   <si>
-    <t>3,200~3,600</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>36200</t>
   </si>
   <si>
-    <t>4000</t>
-  </si>
-  <si>
     <t>NH투자증권</t>
   </si>
   <si>
@@ -248,6 +242,9 @@
   </si>
   <si>
     <t>KB증권,NH투자증권</t>
+  </si>
+  <si>
+    <t>아이비케이투자증권</t>
   </si>
   <si>
     <t>하나증권,키움증권</t>
@@ -675,13 +672,13 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>16000</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -695,13 +692,13 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>19500</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -715,13 +712,13 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>14000</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -735,13 +732,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>96380</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -752,16 +749,16 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -769,19 +766,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -792,16 +789,16 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -809,19 +806,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -832,16 +829,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -852,16 +849,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>63</v>
       </c>
       <c r="E11">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -872,16 +869,16 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E12">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -892,16 +889,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -912,16 +909,16 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14">
-        <v>29547</v>
+        <v>14950</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -932,16 +929,16 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15">
-        <v>18040</v>
+        <v>29547</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -952,16 +949,16 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -972,16 +969,16 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17">
-        <v>59251</v>
+        <v>22100</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -989,19 +986,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E18">
-        <v>60654</v>
+        <v>59251</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1012,16 +1009,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19">
-        <v>26800</v>
+        <v>60654</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1032,16 +1029,16 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20">
-        <v>524031</v>
+        <v>26800</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1052,16 +1049,16 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E21">
-        <v>6384</v>
+        <v>524031</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>종목명</t>
   </si>
@@ -34,6 +34,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>이닉스(구.이닉스정호)</t>
+  </si>
+  <si>
     <t>에이치비인베스트먼트</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>스톰테크</t>
   </si>
   <si>
-    <t>에코프로머티리얼즈(유가)</t>
+    <t>2024.01.11~01.17</t>
   </si>
   <si>
     <t>2024.01.08~01.12</t>
@@ -142,7 +145,7 @@
     <t>2023.10.31~11.06</t>
   </si>
   <si>
-    <t>2023.10.30~11.03</t>
+    <t>9,200~11,000</t>
   </si>
   <si>
     <t>2,400~2,800</t>
@@ -190,9 +193,6 @@
     <t>8,000~9,500</t>
   </si>
   <si>
-    <t>36,200~44,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -232,7 +232,7 @@
     <t>11000</t>
   </si>
   <si>
-    <t>36200</t>
+    <t>삼성증권</t>
   </si>
   <si>
     <t>NH투자증권</t>
@@ -253,9 +253,6 @@
     <t>키움증권,KB증권,이베스트투자증권,하이투자증권,NH투자증권</t>
   </si>
   <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
     <t>교보증권</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
   </si>
   <si>
     <t>하이투자증권</t>
-  </si>
-  <si>
-    <t>미래에셋증권,NH투자증권,하이투자증권</t>
   </si>
 </sst>
 </file>
@@ -675,10 +669,10 @@
         <v>59</v>
       </c>
       <c r="E2">
-        <v>16000</v>
+        <v>27600</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -695,10 +689,10 @@
         <v>59</v>
       </c>
       <c r="E3">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -715,7 +709,7 @@
         <v>59</v>
       </c>
       <c r="E4">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="F4" t="s">
         <v>74</v>
@@ -735,10 +729,10 @@
         <v>59</v>
       </c>
       <c r="E5">
-        <v>96380</v>
+        <v>14000</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -749,16 +743,16 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
       </c>
       <c r="E6">
-        <v>8000</v>
+        <v>96380</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -769,16 +763,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -786,19 +780,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -809,16 +803,16 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -826,19 +820,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>62</v>
       </c>
       <c r="E10">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -849,16 +843,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -869,16 +863,16 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -889,16 +883,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -912,13 +906,13 @@
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -932,13 +926,13 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15">
-        <v>29547</v>
+        <v>14950</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -952,13 +946,13 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16">
-        <v>18040</v>
+        <v>29547</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -972,13 +966,13 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -992,13 +986,13 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18">
-        <v>59251</v>
+        <v>22100</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1006,19 +1000,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19">
-        <v>60654</v>
+        <v>59251</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1032,13 +1026,13 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20">
-        <v>26800</v>
+        <v>60654</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1052,13 +1046,13 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21">
-        <v>524031</v>
+        <v>26800</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>종목명</t>
   </si>
@@ -40,6 +40,9 @@
     <t>에이치비인베스트먼트</t>
   </si>
   <si>
+    <t>현대힘스</t>
+  </si>
+  <si>
     <t>포스뱅크</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>동인기연(유가)</t>
   </si>
   <si>
-    <t>스톰테크</t>
-  </si>
-  <si>
     <t>2024.01.11~01.17</t>
   </si>
   <si>
@@ -142,15 +142,15 @@
     <t>2023.11.01~11.07</t>
   </si>
   <si>
-    <t>2023.10.31~11.06</t>
-  </si>
-  <si>
     <t>9,200~11,000</t>
   </si>
   <si>
     <t>2,400~2,800</t>
   </si>
   <si>
+    <t>5,000~6,300</t>
+  </si>
+  <si>
     <t>13,000~15,000</t>
   </si>
   <si>
@@ -190,21 +190,18 @@
     <t>33,000~37,000</t>
   </si>
   <si>
-    <t>8,000~9,500</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>19000</t>
   </si>
   <si>
     <t>6000</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>23000</t>
   </si>
   <si>
@@ -229,15 +226,15 @@
     <t>30000</t>
   </si>
   <si>
-    <t>11000</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
     <t>하나증권</t>
   </si>
   <si>
@@ -262,16 +259,10 @@
     <t>유안타증권</t>
   </si>
   <si>
-    <t>미래에셋증권</t>
-  </si>
-  <si>
     <t>대신증권</t>
   </si>
   <si>
     <t>KB증권</t>
-  </si>
-  <si>
-    <t>하이투자증권</t>
   </si>
 </sst>
 </file>
@@ -663,16 +654,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <v>27600</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -683,16 +674,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>16000</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -700,19 +691,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4">
-        <v>19500</v>
+        <v>43535</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -720,19 +711,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -740,19 +731,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>96380</v>
+        <v>14000</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -760,19 +751,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>8000</v>
+        <v>96380</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -780,19 +771,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -803,16 +794,16 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -820,19 +811,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -846,13 +837,13 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E11">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -860,19 +851,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -880,19 +871,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>62</v>
       </c>
       <c r="E13">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -900,19 +891,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E14">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -920,19 +911,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -940,19 +931,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16">
-        <v>29547</v>
+        <v>14950</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -960,19 +951,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17">
-        <v>18040</v>
+        <v>29547</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -980,19 +971,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1000,19 +991,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19">
-        <v>59251</v>
+        <v>22100</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1023,16 +1014,16 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20">
-        <v>60654</v>
+        <v>59251</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1040,19 +1031,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21">
+        <v>60654</v>
+      </c>
+      <c r="F21" t="s">
         <v>71</v>
-      </c>
-      <c r="E21">
-        <v>26800</v>
-      </c>
-      <c r="F21" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
   <si>
     <t>종목명</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>100000</t>
   </si>
   <si>
     <t>19000</t>
@@ -663,7 +666,7 @@
         <v>27600</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -683,7 +686,7 @@
         <v>16000</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -703,7 +706,7 @@
         <v>43535</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -723,7 +726,7 @@
         <v>19500</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -737,13 +740,13 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>14000</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -757,13 +760,13 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>96380</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -783,7 +786,7 @@
         <v>8000</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -797,13 +800,13 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>21000</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -817,13 +820,13 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>64350</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -843,7 +846,7 @@
         <v>20000</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -863,7 +866,7 @@
         <v>7000</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -877,13 +880,13 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>14250</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -903,7 +906,7 @@
         <v>16000</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -917,13 +920,13 @@
         <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>13500</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -937,13 +940,13 @@
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>14950</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -957,13 +960,13 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>29547</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -977,13 +980,13 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>18040</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -997,13 +1000,13 @@
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19">
         <v>22100</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1017,13 +1020,13 @@
         <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20">
         <v>59251</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1037,13 +1040,13 @@
         <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>60654</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>이닉스(구.이닉스정호)</t>
   </si>
   <si>
+    <t>대신밸런스스팩17호</t>
+  </si>
+  <si>
     <t>에이치비인베스트먼트</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>포스뱅크</t>
   </si>
   <si>
+    <t>스튜디오삼익</t>
+  </si>
+  <si>
     <t>하나스팩30호</t>
   </si>
   <si>
@@ -88,15 +94,12 @@
     <t>한선엔지니어링</t>
   </si>
   <si>
-    <t>에코아이</t>
-  </si>
-  <si>
-    <t>동인기연(유가)</t>
-  </si>
-  <si>
     <t>2024.01.11~01.17</t>
   </si>
   <si>
+    <t>2024.01.09~01.10</t>
+  </si>
+  <si>
     <t>2024.01.08~01.12</t>
   </si>
   <si>
@@ -139,12 +142,12 @@
     <t>2023.11.02~11.08</t>
   </si>
   <si>
-    <t>2023.11.01~11.07</t>
-  </si>
-  <si>
     <t>9,200~11,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>2,400~2,800</t>
   </si>
   <si>
@@ -154,7 +157,7 @@
     <t>13,000~15,000</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
+    <t>14,500~16,500</t>
   </si>
   <si>
     <t>79,000~89,000</t>
@@ -184,12 +187,6 @@
     <t>5,200~6,000</t>
   </si>
   <si>
-    <t>28,500~34,700</t>
-  </si>
-  <si>
-    <t>33,000~37,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -223,15 +220,12 @@
     <t>7000</t>
   </si>
   <si>
-    <t>34700</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
+    <t>대신증권</t>
+  </si>
+  <si>
     <t>NH투자증권</t>
   </si>
   <si>
@@ -241,6 +235,9 @@
     <t>하나증권</t>
   </si>
   <si>
+    <t>DB금융투자</t>
+  </si>
+  <si>
     <t>KB증권,NH투자증권</t>
   </si>
   <si>
@@ -260,12 +257,6 @@
   </si>
   <si>
     <t>유안타증권</t>
-  </si>
-  <si>
-    <t>대신증권</t>
-  </si>
-  <si>
-    <t>KB증권</t>
   </si>
 </sst>
 </file>
@@ -660,13 +651,13 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>27600</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -680,13 +671,13 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -694,19 +685,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>43535</v>
+        <v>16000</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -720,13 +711,13 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>19500</v>
+        <v>43535</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -740,13 +731,13 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -754,19 +745,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>96380</v>
+        <v>12325</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -774,19 +765,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -794,19 +785,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9">
-        <v>21000</v>
+        <v>96380</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -817,16 +808,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E10">
-        <v>64350</v>
+        <v>8000</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -837,16 +828,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -857,16 +848,16 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12">
-        <v>7000</v>
+        <v>64350</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -877,16 +868,16 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E13">
-        <v>14250</v>
+        <v>20000</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -894,19 +885,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -914,19 +905,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15">
-        <v>13500</v>
+        <v>14250</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -934,19 +925,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E16">
-        <v>14950</v>
+        <v>16000</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -954,19 +945,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17">
-        <v>29547</v>
+        <v>13500</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -974,16 +965,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E18">
-        <v>18040</v>
+        <v>14950</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>
@@ -994,19 +985,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E19">
-        <v>22100</v>
+        <v>29547</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1014,19 +1005,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E20">
-        <v>59251</v>
+        <v>18040</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1037,16 +1028,16 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E21">
-        <v>60654</v>
+        <v>22100</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>종목명</t>
   </si>
@@ -46,6 +46,9 @@
     <t>현대힘스</t>
   </si>
   <si>
+    <t>우진엔텍</t>
+  </si>
+  <si>
     <t>포스뱅크</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>그린리소스</t>
   </si>
   <si>
-    <t>한선엔지니어링</t>
-  </si>
-  <si>
     <t>2024.01.11~01.17</t>
   </si>
   <si>
@@ -139,9 +139,6 @@
     <t>2023.11.03~11.09</t>
   </si>
   <si>
-    <t>2023.11.02~11.08</t>
-  </si>
-  <si>
     <t>9,200~11,000</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
     <t>5,000~6,300</t>
   </si>
   <si>
+    <t>4,300~4,900</t>
+  </si>
+  <si>
     <t>13,000~15,000</t>
   </si>
   <si>
@@ -184,9 +184,6 @@
     <t>11,000~14,000</t>
   </si>
   <si>
-    <t>5,200~6,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>17000</t>
   </si>
   <si>
-    <t>7000</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
@@ -230,6 +224,9 @@
   </si>
   <si>
     <t>미래에셋증권</t>
+  </si>
+  <si>
+    <t>케이비증권</t>
   </si>
   <si>
     <t>하나증권</t>
@@ -648,16 +645,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>27600</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -668,16 +665,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>11000</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -688,16 +685,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>16000</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -708,16 +705,16 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>43535</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -725,19 +722,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>19500</v>
+        <v>8858</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -748,16 +745,16 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7">
-        <v>12325</v>
+        <v>19500</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -765,16 +762,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8">
-        <v>14000</v>
+        <v>12325</v>
       </c>
       <c r="F8" t="s">
         <v>72</v>
@@ -785,19 +782,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9">
-        <v>96380</v>
+        <v>14000</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -805,19 +802,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>58</v>
       </c>
       <c r="E10">
-        <v>8000</v>
+        <v>96380</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -825,19 +822,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -848,16 +845,16 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -865,19 +862,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -888,16 +885,16 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -905,19 +902,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E15">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -925,19 +922,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E16">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -945,19 +942,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E17">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -965,19 +962,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -985,16 +982,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19">
-        <v>29547</v>
+        <v>14950</v>
       </c>
       <c r="F19" t="s">
         <v>71</v>
@@ -1005,19 +1002,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20">
-        <v>18040</v>
+        <v>29547</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1025,19 +1022,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21">
-        <v>22100</v>
+        <v>18040</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>종목명</t>
   </si>
@@ -34,6 +34,12 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>케이웨더</t>
+  </si>
+  <si>
+    <t>코셈</t>
+  </si>
+  <si>
     <t>이닉스(구.이닉스정호)</t>
   </si>
   <si>
@@ -88,10 +94,7 @@
     <t>에이텀</t>
   </si>
   <si>
-    <t>에이에스텍</t>
-  </si>
-  <si>
-    <t>그린리소스</t>
+    <t>2024.01.12~01.18</t>
   </si>
   <si>
     <t>2024.01.11~01.17</t>
@@ -133,10 +136,10 @@
     <t>2023.11.09~11.15</t>
   </si>
   <si>
-    <t>2023.11.07~11.13</t>
-  </si>
-  <si>
-    <t>2023.11.03~11.09</t>
+    <t>4,800~5,800</t>
+  </si>
+  <si>
+    <t>12,000~14,000</t>
   </si>
   <si>
     <t>9,200~11,000</t>
@@ -178,12 +181,6 @@
     <t>23,000~30,000</t>
   </si>
   <si>
-    <t>21,000~25,000</t>
-  </si>
-  <si>
-    <t>11,000~14,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -208,19 +205,16 @@
     <t>18000</t>
   </si>
   <si>
-    <t>28000</t>
-  </si>
-  <si>
-    <t>17000</t>
+    <t>NH투자증권</t>
+  </si>
+  <si>
+    <t>키움증권</t>
   </si>
   <si>
     <t>삼성증권</t>
   </si>
   <si>
     <t>대신증권</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
   </si>
   <si>
     <t>미래에셋증권</t>
@@ -645,16 +639,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2">
-        <v>27600</v>
+        <v>4800</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -662,19 +656,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -682,19 +676,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>16000</v>
+        <v>27600</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -705,16 +699,16 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>43535</v>
+        <v>11000</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -722,19 +716,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>8858</v>
+        <v>16000</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -745,16 +739,16 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>19500</v>
+        <v>43535</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -765,16 +759,16 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>12325</v>
+        <v>8858</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -785,16 +779,16 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -802,19 +796,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>96380</v>
+        <v>12325</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -822,19 +816,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -842,19 +836,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12">
-        <v>21000</v>
+        <v>96380</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -865,16 +859,16 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E13">
-        <v>64350</v>
+        <v>8000</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -885,16 +879,16 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -905,16 +899,16 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15">
-        <v>7000</v>
+        <v>64350</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -925,16 +919,16 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E16">
-        <v>14250</v>
+        <v>20000</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -942,19 +936,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -962,19 +956,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18">
-        <v>13500</v>
+        <v>14250</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -982,19 +976,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>16000</v>
+      </c>
+      <c r="F19" t="s">
         <v>63</v>
-      </c>
-      <c r="E19">
-        <v>14950</v>
-      </c>
-      <c r="F19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1002,19 +996,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E20">
-        <v>29547</v>
+        <v>13500</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1022,19 +1016,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E21">
-        <v>18040</v>
+        <v>14950</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -34,6 +34,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>에이피알</t>
+  </si>
+  <si>
     <t>케이웨더</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>와이바이오로직스</t>
   </si>
   <si>
-    <t>에이텀</t>
+    <t>2024.01.22~01.26</t>
   </si>
   <si>
     <t>2024.01.12~01.18</t>
@@ -133,7 +136,7 @@
     <t>2023.11.10~11.16</t>
   </si>
   <si>
-    <t>2023.11.09~11.15</t>
+    <t>147,000~200,000</t>
   </si>
   <si>
     <t>4,800~5,800</t>
@@ -178,9 +181,6 @@
     <t>9,000~11,000</t>
   </si>
   <si>
-    <t>23,000~30,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -202,7 +202,7 @@
     <t>9000</t>
   </si>
   <si>
-    <t>18000</t>
+    <t>신한투자증권,하나증권</t>
   </si>
   <si>
     <t>NH투자증권</t>
@@ -645,10 +645,10 @@
         <v>55</v>
       </c>
       <c r="E2">
-        <v>4800</v>
+        <v>55713</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -656,7 +656,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -665,10 +665,10 @@
         <v>55</v>
       </c>
       <c r="E3">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -685,10 +685,10 @@
         <v>55</v>
       </c>
       <c r="E4">
-        <v>27600</v>
+        <v>7200</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -705,10 +705,10 @@
         <v>55</v>
       </c>
       <c r="E5">
-        <v>11000</v>
+        <v>27600</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -725,10 +725,10 @@
         <v>55</v>
       </c>
       <c r="E6">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -736,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -745,10 +745,10 @@
         <v>55</v>
       </c>
       <c r="E7">
-        <v>43535</v>
+        <v>16000</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -756,7 +756,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -765,10 +765,10 @@
         <v>55</v>
       </c>
       <c r="E8">
-        <v>8858</v>
+        <v>43535</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -785,10 +785,10 @@
         <v>55</v>
       </c>
       <c r="E9">
-        <v>19500</v>
+        <v>8858</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -796,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>48</v>
@@ -805,10 +805,10 @@
         <v>55</v>
       </c>
       <c r="E10">
-        <v>12325</v>
+        <v>19500</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -819,16 +819,16 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11">
-        <v>14000</v>
+        <v>12325</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -839,16 +839,16 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12">
-        <v>96380</v>
+        <v>14000</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -859,16 +859,16 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13">
-        <v>8000</v>
+        <v>96380</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -879,16 +879,16 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -896,19 +896,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -919,16 +919,16 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E16">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -936,19 +936,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
       </c>
       <c r="E17">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -959,16 +959,16 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E18">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -979,16 +979,16 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E19">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -999,16 +999,16 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E20">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1022,13 +1022,13 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21">
-        <v>14950</v>
+        <v>13500</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>에이피알</t>
   </si>
   <si>
+    <t>IBKS스팩24호</t>
+  </si>
+  <si>
     <t>케이웨더</t>
   </si>
   <si>
@@ -91,12 +94,12 @@
     <t>NH스팩30호</t>
   </si>
   <si>
-    <t>와이바이오로직스</t>
-  </si>
-  <si>
     <t>2024.01.22~01.26</t>
   </si>
   <si>
+    <t>2024.01.17~01.18</t>
+  </si>
+  <si>
     <t>2024.01.12~01.18</t>
   </si>
   <si>
@@ -133,12 +136,12 @@
     <t>2023.11.15~11.16</t>
   </si>
   <si>
-    <t>2023.11.10~11.16</t>
-  </si>
-  <si>
     <t>147,000~200,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>4,800~5,800</t>
   </si>
   <si>
@@ -148,9 +151,6 @@
     <t>9,200~11,000</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>2,400~2,800</t>
   </si>
   <si>
@@ -178,9 +178,6 @@
     <t>19,000~22,000</t>
   </si>
   <si>
-    <t>9,000~11,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -199,12 +196,12 @@
     <t>23000</t>
   </si>
   <si>
-    <t>9000</t>
-  </si>
-  <si>
     <t>신한투자증권,하나증권</t>
   </si>
   <si>
+    <t>아이비케이투자증권</t>
+  </si>
+  <si>
     <t>NH투자증권</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>KB증권,NH투자증권</t>
   </si>
   <si>
-    <t>아이비케이투자증권</t>
-  </si>
-  <si>
     <t>하나증권,키움증권</t>
   </si>
   <si>
@@ -245,9 +239,6 @@
   </si>
   <si>
     <t>신영증권</t>
-  </si>
-  <si>
-    <t>유안타증권</t>
   </si>
 </sst>
 </file>
@@ -642,13 +633,13 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>55713</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -662,13 +653,13 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>4800</v>
+        <v>2147483647</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -676,19 +667,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -702,13 +693,13 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5">
-        <v>27600</v>
+        <v>7200</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -722,13 +713,13 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6">
-        <v>11000</v>
+        <v>27600</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -739,16 +730,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -756,19 +747,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8">
-        <v>43535</v>
+        <v>16000</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -776,19 +767,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9">
-        <v>8858</v>
+        <v>43535</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -799,16 +790,16 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10">
-        <v>19500</v>
+        <v>8858</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -816,19 +807,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11">
-        <v>12325</v>
+        <v>19500</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -839,13 +830,13 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12">
-        <v>14000</v>
+        <v>12325</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -859,16 +850,16 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13">
-        <v>96380</v>
+        <v>14000</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -879,16 +870,16 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
       </c>
       <c r="E14">
-        <v>8000</v>
+        <v>96380</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -899,16 +890,16 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -916,19 +907,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -939,16 +930,16 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -956,19 +947,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -979,16 +970,16 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E19">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -999,16 +990,16 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E20">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1019,16 +1010,16 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E21">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -37,6 +37,9 @@
     <t>에이피알</t>
   </si>
   <si>
+    <t>신영스팩10호</t>
+  </si>
+  <si>
     <t>IBKS스팩24호</t>
   </si>
   <si>
@@ -91,12 +94,12 @@
     <t>케이엔에스</t>
   </si>
   <si>
-    <t>NH스팩30호</t>
-  </si>
-  <si>
     <t>2024.01.22~01.26</t>
   </si>
   <si>
+    <t>2024.01.22~01.23</t>
+  </si>
+  <si>
     <t>2024.01.17~01.18</t>
   </si>
   <si>
@@ -133,9 +136,6 @@
     <t>2023.11.16~11.22</t>
   </si>
   <si>
-    <t>2023.11.15~11.16</t>
-  </si>
-  <si>
     <t>147,000~200,000</t>
   </si>
   <si>
@@ -199,6 +199,9 @@
     <t>신한투자증권,하나증권</t>
   </si>
   <si>
+    <t>신영증권</t>
+  </si>
+  <si>
     <t>아이비케이투자증권</t>
   </si>
   <si>
@@ -236,9 +239,6 @@
   </si>
   <si>
     <t>교보증권</t>
-  </si>
-  <si>
-    <t>신영증권</t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,7 @@
         <v>54</v>
       </c>
       <c r="E3">
-        <v>2147483647</v>
+        <v>9150</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -670,13 +670,13 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
       </c>
       <c r="E4">
-        <v>4800</v>
+        <v>2147483647</v>
       </c>
       <c r="F4" t="s">
         <v>62</v>
@@ -687,16 +687,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
       </c>
       <c r="E5">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="F5" t="s">
         <v>63</v>
@@ -710,13 +710,13 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
       </c>
       <c r="E6">
-        <v>27600</v>
+        <v>7200</v>
       </c>
       <c r="F6" t="s">
         <v>64</v>
@@ -730,13 +730,13 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
       <c r="E7">
-        <v>11000</v>
+        <v>27600</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
@@ -750,16 +750,16 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
       </c>
       <c r="E8">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -767,19 +767,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
       <c r="E9">
-        <v>43535</v>
+        <v>16000</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -787,16 +787,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
       </c>
       <c r="E10">
-        <v>8858</v>
+        <v>43535</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -810,13 +810,13 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
       </c>
       <c r="E11">
-        <v>19500</v>
+        <v>8858</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -827,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
       </c>
       <c r="E12">
-        <v>12325</v>
+        <v>19500</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -850,16 +850,16 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13">
-        <v>14000</v>
+        <v>12325</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -870,16 +870,16 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14">
-        <v>96380</v>
+        <v>14000</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -890,16 +890,16 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15">
-        <v>8000</v>
+        <v>96380</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -910,16 +910,16 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,16 +927,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17">
-        <v>64350</v>
+        <v>21000</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
@@ -950,16 +950,16 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18">
-        <v>20000</v>
+        <v>64350</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,7 +967,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -976,10 +976,10 @@
         <v>55</v>
       </c>
       <c r="E19">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,13 +990,13 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E20">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="F20" t="s">
         <v>74</v>
@@ -1010,16 +1010,16 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E21">
-        <v>16000</v>
+        <v>14250</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>종목명</t>
   </si>
@@ -40,6 +40,9 @@
     <t>신영스팩10호</t>
   </si>
   <si>
+    <t>스튜디오삼익</t>
+  </si>
+  <si>
     <t>IBKS스팩24호</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
     <t>포스뱅크</t>
   </si>
   <si>
-    <t>스튜디오삼익</t>
-  </si>
-  <si>
     <t>하나스팩30호</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
     <t>2024.01.22~01.23</t>
   </si>
   <si>
+    <t>2024.01.17~01.23</t>
+  </si>
+  <si>
     <t>2024.01.17~01.18</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>14,500~16,500</t>
+  </si>
+  <si>
     <t>4,800~5,800</t>
   </si>
   <si>
@@ -163,9 +169,6 @@
     <t>13,000~15,000</t>
   </si>
   <si>
-    <t>14,500~16,500</t>
-  </si>
-  <si>
     <t>79,000~89,000</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
     <t>신영증권</t>
   </si>
   <si>
+    <t>DB금융투자</t>
+  </si>
+  <si>
     <t>아이비케이투자증권</t>
   </si>
   <si>
@@ -224,9 +230,6 @@
   </si>
   <si>
     <t>하나증권</t>
-  </si>
-  <si>
-    <t>DB금융투자</t>
   </si>
   <si>
     <t>KB증권,NH투자증권</t>
@@ -630,16 +633,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>55713</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -650,16 +653,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>9150</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -670,16 +673,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>2147483647</v>
+        <v>12325</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -693,13 +696,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>4800</v>
+        <v>2147483647</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -707,19 +710,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -730,16 +733,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>27600</v>
+        <v>7200</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -750,16 +753,16 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>11000</v>
+        <v>27600</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -770,16 +773,16 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -787,19 +790,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>43535</v>
+        <v>16000</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -807,19 +810,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11">
-        <v>8858</v>
+        <v>43535</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -830,16 +833,16 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12">
-        <v>19500</v>
+        <v>8858</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -847,19 +850,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13">
-        <v>12325</v>
+        <v>19500</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -867,19 +870,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>14000</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -887,19 +890,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>96380</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -907,19 +910,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>8000</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,19 +930,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>21000</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,19 +950,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>64350</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,19 +970,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>20000</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,19 +990,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>7000</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,19 +1010,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>14250</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>종목명</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>30000</t>
   </si>
   <si>
     <t>20000</t>
@@ -654,7 +657,7 @@
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -674,7 +677,7 @@
         <v>16500</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -694,7 +697,7 @@
         <v>19500</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -714,7 +717,7 @@
         <v>10000</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -734,7 +737,7 @@
         <v>19250</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -754,7 +757,7 @@
         <v>6000</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -774,7 +777,7 @@
         <v>17400</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -794,7 +797,7 @@
         <v>17600</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -808,13 +811,13 @@
         <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>40000</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -828,13 +831,13 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>12870</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -848,13 +851,13 @@
         <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>10000</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -868,13 +871,13 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <v>18936</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -888,13 +891,13 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>8000</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -908,13 +911,13 @@
         <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>13000</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -928,13 +931,13 @@
         <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>8000</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -948,13 +951,13 @@
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17">
         <v>8000</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -968,13 +971,13 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>55713</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -988,13 +991,13 @@
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>4800</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1008,13 +1011,13 @@
         <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>7200</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1028,13 +1031,13 @@
         <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>16385</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>종목명</t>
   </si>
@@ -43,6 +43,9 @@
     <t>민테크</t>
   </si>
   <si>
+    <t>신한스팩13호</t>
+  </si>
+  <si>
     <t>신한스팩12호</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>코셈</t>
   </si>
   <si>
-    <t>이에이트</t>
-  </si>
-  <si>
     <t>2024.04.30~05.08</t>
   </si>
   <si>
@@ -103,6 +103,9 @@
     <t>2024.04.12~04.18</t>
   </si>
   <si>
+    <t>2024.04.04~04.05</t>
+  </si>
+  <si>
     <t>2024.03.27~03.28</t>
   </si>
   <si>
@@ -187,9 +190,6 @@
     <t>12,000~14,000</t>
   </si>
   <si>
-    <t>14,500~18,500</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>키움증권</t>
-  </si>
-  <si>
-    <t>한화투자증권</t>
   </si>
 </sst>
 </file>
@@ -648,7 +645,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>58</v>
@@ -668,7 +665,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -688,7 +685,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
@@ -708,13 +705,13 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>58</v>
       </c>
       <c r="E5">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F5" t="s">
         <v>69</v>
@@ -734,10 +731,10 @@
         <v>58</v>
       </c>
       <c r="E6">
-        <v>19250</v>
+        <v>10000</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -748,16 +745,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>58</v>
       </c>
       <c r="E7">
-        <v>6000</v>
+        <v>19250</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -768,16 +765,16 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
       </c>
       <c r="E8">
-        <v>17400</v>
+        <v>6000</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -794,10 +791,10 @@
         <v>58</v>
       </c>
       <c r="E9">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -811,13 +808,13 @@
         <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10">
-        <v>40000</v>
+        <v>17600</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -831,13 +828,13 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11">
-        <v>12870</v>
+        <v>40000</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -848,16 +845,16 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>10000</v>
+        <v>12870</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -868,16 +865,16 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13">
-        <v>18936</v>
+        <v>10000</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -888,16 +885,16 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14">
-        <v>8000</v>
+        <v>18936</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -908,16 +905,16 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
       </c>
       <c r="E15">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -928,16 +925,16 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
       </c>
       <c r="E16">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -945,10 +942,10 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
@@ -957,7 +954,7 @@
         <v>8000</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -968,16 +965,16 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18">
-        <v>55713</v>
+        <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -991,13 +988,13 @@
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19">
-        <v>4800</v>
+        <v>55713</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1011,13 +1008,13 @@
         <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1025,19 +1022,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E21">
-        <v>16385</v>
+        <v>7200</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -193,10 +193,10 @@
     <t>-</t>
   </si>
   <si>
+    <t>20000</t>
+  </si>
+  <si>
     <t>30000</t>
-  </si>
-  <si>
-    <t>20000</t>
   </si>
   <si>
     <t>2000</t>
@@ -808,7 +808,7 @@
         <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>17600</v>
@@ -828,7 +828,7 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>40000</v>
@@ -848,7 +848,7 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12">
         <v>12870</v>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>종목명</t>
   </si>
@@ -43,6 +43,9 @@
     <t>민테크</t>
   </si>
   <si>
+    <t>하나스팩33호</t>
+  </si>
+  <si>
     <t>신한스팩13호</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>케이웨더</t>
   </si>
   <si>
-    <t>코셈</t>
-  </si>
-  <si>
     <t>2024.04.30~05.08</t>
   </si>
   <si>
@@ -103,6 +103,9 @@
     <t>2024.04.12~04.18</t>
   </si>
   <si>
+    <t>2024.04.08~04.09</t>
+  </si>
+  <si>
     <t>2024.04.04~04.05</t>
   </si>
   <si>
@@ -148,9 +151,6 @@
     <t>2024.02.01~02.07</t>
   </si>
   <si>
-    <t>2024.01.29~02.02</t>
-  </si>
-  <si>
     <t>8,700~11,500</t>
   </si>
   <si>
@@ -187,21 +187,18 @@
     <t>4,800~5,800</t>
   </si>
   <si>
-    <t>12,000~14,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>20000</t>
   </si>
   <si>
     <t>30000</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>13500</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>7000</t>
   </si>
   <si>
-    <t>16000</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
@@ -223,15 +217,15 @@
     <t>KB증권</t>
   </si>
   <si>
+    <t>하나증권</t>
+  </si>
+  <si>
     <t>신한투자증권</t>
   </si>
   <si>
     <t>미래에셋증권</t>
   </si>
   <si>
-    <t>하나증권</t>
-  </si>
-  <si>
     <t>NH투자증권</t>
   </si>
   <si>
@@ -251,9 +245,6 @@
   </si>
   <si>
     <t>신한투자증권,하나증권</t>
-  </si>
-  <si>
-    <t>키움증권</t>
   </si>
 </sst>
 </file>
@@ -648,13 +639,13 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -668,13 +659,13 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>16500</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -688,13 +679,13 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>19500</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -708,13 +699,13 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -728,13 +719,13 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -745,16 +736,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>19250</v>
+        <v>10000</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -765,16 +756,16 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8">
-        <v>6000</v>
+        <v>19250</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -785,13 +776,13 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>58</v>
       </c>
       <c r="E9">
-        <v>17400</v>
+        <v>6000</v>
       </c>
       <c r="F9" t="s">
         <v>67</v>
@@ -805,16 +796,16 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -825,16 +816,16 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11">
-        <v>40000</v>
+        <v>17600</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -845,16 +836,16 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>12870</v>
+        <v>40000</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -865,16 +856,16 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13">
-        <v>10000</v>
+        <v>12870</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -885,16 +876,16 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E14">
-        <v>18936</v>
+        <v>10000</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -905,16 +896,16 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
       </c>
       <c r="E15">
-        <v>8000</v>
+        <v>18936</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -928,13 +919,13 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E16">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -948,13 +939,13 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E17">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -962,19 +953,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -985,16 +976,16 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E19">
-        <v>55713</v>
+        <v>8000</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1005,16 +996,16 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E20">
-        <v>4800</v>
+        <v>55713</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1025,16 +1016,16 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21">
-        <v>7200</v>
+        <v>4800</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -37,6 +37,9 @@
     <t>노브랜드</t>
   </si>
   <si>
+    <t>이노그리드</t>
+  </si>
+  <si>
     <t>코칩</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>하나스팩32호</t>
   </si>
   <si>
-    <t>이노그리드</t>
-  </si>
-  <si>
     <t>엔젤로보틱스</t>
   </si>
   <si>
@@ -97,6 +97,9 @@
     <t>2024.04.30~05.08</t>
   </si>
   <si>
+    <t>2024.04.18~04.24</t>
+  </si>
+  <si>
     <t>2024.04.15~04.19</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t>2024.03.12~03.13</t>
   </si>
   <si>
-    <t>2024.03.12~03.18</t>
-  </si>
-  <si>
     <t>2024.03.06~03.12</t>
   </si>
   <si>
@@ -154,6 +154,9 @@
     <t>8,700~11,500</t>
   </si>
   <si>
+    <t>29,000~35,000</t>
+  </si>
+  <si>
     <t>11,000~14,000</t>
   </si>
   <si>
@@ -164,9 +167,6 @@
   </si>
   <si>
     <t>7,700~9,900</t>
-  </si>
-  <si>
-    <t>29,000~35,000</t>
   </si>
   <si>
     <t>11,000~15,000</t>
@@ -662,7 +662,7 @@
         <v>57</v>
       </c>
       <c r="E3">
-        <v>16500</v>
+        <v>17400</v>
       </c>
       <c r="F3" t="s">
         <v>65</v>
@@ -682,10 +682,10 @@
         <v>57</v>
       </c>
       <c r="E4">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -702,10 +702,10 @@
         <v>57</v>
       </c>
       <c r="E5">
-        <v>7000</v>
+        <v>19500</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -716,16 +716,16 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
       </c>
       <c r="E6">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -736,13 +736,13 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
       </c>
       <c r="E7">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F7" t="s">
         <v>68</v>
@@ -762,10 +762,10 @@
         <v>57</v>
       </c>
       <c r="E8">
-        <v>19250</v>
+        <v>10000</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -776,16 +776,16 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9">
-        <v>6000</v>
+        <v>19250</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -796,16 +796,16 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10">
-        <v>17400</v>
+        <v>6000</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -876,7 +876,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>58</v>
@@ -916,7 +916,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>58</v>
@@ -936,7 +936,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>58</v>
@@ -956,7 +956,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>58</v>
@@ -976,7 +976,7 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>58</v>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -49,6 +49,9 @@
     <t>하나스팩33호</t>
   </si>
   <si>
+    <t>제일엠앤에스(구.제일기공)</t>
+  </si>
+  <si>
     <t>신한스팩13호</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>에이피알(유가)</t>
   </si>
   <si>
-    <t>케이웨더</t>
-  </si>
-  <si>
     <t>2024.04.30~05.08</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
     <t>2024.04.08~04.09</t>
   </si>
   <si>
+    <t>2024.04.05~04.12</t>
+  </si>
+  <si>
     <t>2024.04.04~04.05</t>
   </si>
   <si>
@@ -148,9 +151,6 @@
     <t>2024.02.02~02.08</t>
   </si>
   <si>
-    <t>2024.02.01~02.07</t>
-  </si>
-  <si>
     <t>8,700~11,500</t>
   </si>
   <si>
@@ -166,6 +166,9 @@
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>15,000~18,000</t>
+  </si>
+  <si>
     <t>7,700~9,900</t>
   </si>
   <si>
@@ -184,9 +187,6 @@
     <t>147,000~200,000</t>
   </si>
   <si>
-    <t>4,800~5,800</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -205,9 +205,6 @@
     <t>250000</t>
   </si>
   <si>
-    <t>7000</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>하나증권</t>
+  </si>
+  <si>
+    <t>케이비증권</t>
   </si>
   <si>
     <t>신한투자증권</t>
@@ -645,7 +645,7 @@
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -665,7 +665,7 @@
         <v>17400</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -685,7 +685,7 @@
         <v>16500</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -705,7 +705,7 @@
         <v>19500</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -725,7 +725,7 @@
         <v>7000</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -736,16 +736,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
       </c>
       <c r="E7">
-        <v>6000</v>
+        <v>36000</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -762,7 +762,7 @@
         <v>57</v>
       </c>
       <c r="E8">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -776,16 +776,16 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
       </c>
       <c r="E9">
-        <v>19250</v>
+        <v>10000</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -796,16 +796,16 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>6000</v>
+        <v>19250</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -816,16 +816,16 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>17600</v>
+        <v>6000</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -839,13 +839,13 @@
         <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12">
-        <v>40000</v>
+        <v>17600</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -859,13 +859,13 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>12870</v>
+        <v>40000</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -876,16 +876,16 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14">
-        <v>10000</v>
+        <v>12870</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -896,16 +896,16 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E15">
-        <v>18936</v>
+        <v>10000</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -916,16 +916,16 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E16">
-        <v>8000</v>
+        <v>18936</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -942,10 +942,10 @@
         <v>58</v>
       </c>
       <c r="E17">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -962,10 +962,10 @@
         <v>58</v>
       </c>
       <c r="E18">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -973,7 +973,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
@@ -985,7 +985,7 @@
         <v>8000</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -996,16 +996,16 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E20">
-        <v>55713</v>
+        <v>8000</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1019,13 +1019,13 @@
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21">
-        <v>4800</v>
+        <v>55713</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>종목명</t>
   </si>
@@ -37,12 +37,18 @@
     <t>노브랜드</t>
   </si>
   <si>
+    <t>아이씨티케이</t>
+  </si>
+  <si>
     <t>이노그리드</t>
   </si>
   <si>
     <t>코칩</t>
   </si>
   <si>
+    <t>유안타스팩16호</t>
+  </si>
+  <si>
     <t>민테크</t>
   </si>
   <si>
@@ -88,21 +94,21 @@
     <t>유진스팩10호</t>
   </si>
   <si>
-    <t>비엔케이스팩2호</t>
-  </si>
-  <si>
-    <t>에이피알(유가)</t>
-  </si>
-  <si>
     <t>2024.04.30~05.08</t>
   </si>
   <si>
+    <t>2024.04.24~04.30</t>
+  </si>
+  <si>
     <t>2024.04.18~04.24</t>
   </si>
   <si>
     <t>2024.04.15~04.19</t>
   </si>
   <si>
+    <t>2024.04.15~04.16</t>
+  </si>
+  <si>
     <t>2024.04.12~04.18</t>
   </si>
   <si>
@@ -148,24 +154,24 @@
     <t>2024.02.13~02.14</t>
   </si>
   <si>
-    <t>2024.02.02~02.08</t>
-  </si>
-  <si>
     <t>8,700~11,500</t>
   </si>
   <si>
+    <t>13,000~16,000</t>
+  </si>
+  <si>
     <t>29,000~35,000</t>
   </si>
   <si>
     <t>11,000~14,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>6,500~8,500</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>15,000~18,000</t>
   </si>
   <si>
@@ -184,9 +190,6 @@
     <t>9,000~11,000</t>
   </si>
   <si>
-    <t>147,000~200,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -202,15 +205,18 @@
     <t>13500</t>
   </si>
   <si>
-    <t>250000</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
     <t>한국투자증권</t>
   </si>
   <si>
+    <t>유안타증권</t>
+  </si>
+  <si>
     <t>KB증권</t>
   </si>
   <si>
@@ -226,25 +232,13 @@
     <t>미래에셋증권</t>
   </si>
   <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
     <t>DB금융투자,NH투자증권</t>
   </si>
   <si>
     <t>SK증권</t>
   </si>
   <si>
-    <t>유안타증권</t>
-  </si>
-  <si>
     <t>유진증권</t>
-  </si>
-  <si>
-    <t>BNK투자증권</t>
-  </si>
-  <si>
-    <t>신한투자증권,하나증권</t>
   </si>
 </sst>
 </file>
@@ -636,10 +630,10 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <v>10440</v>
@@ -656,13 +650,13 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>17400</v>
+        <v>25610</v>
       </c>
       <c r="F3" t="s">
         <v>64</v>
@@ -676,16 +670,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4">
-        <v>16500</v>
+        <v>17400</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -696,13 +690,13 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -716,13 +710,13 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>7000</v>
+        <v>10300</v>
       </c>
       <c r="F6" t="s">
         <v>66</v>
@@ -736,13 +730,13 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>36000</v>
+        <v>19500</v>
       </c>
       <c r="F7" t="s">
         <v>67</v>
@@ -756,13 +750,13 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -776,16 +770,16 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -796,16 +790,16 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10">
-        <v>19250</v>
+        <v>6000</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -816,16 +810,16 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
       </c>
       <c r="E11">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -836,16 +830,16 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12">
-        <v>17600</v>
+        <v>19250</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -856,16 +850,16 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13">
-        <v>40000</v>
+        <v>6000</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -879,13 +873,13 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14">
-        <v>12870</v>
+        <v>17600</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -896,16 +890,16 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E15">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -916,16 +910,16 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>18936</v>
+        <v>12870</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -936,16 +930,16 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -956,16 +950,16 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E18">
-        <v>13000</v>
+        <v>18936</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -976,16 +970,16 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>8000</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -993,19 +987,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1013,19 +1007,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E21">
-        <v>55713</v>
+        <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>종목명</t>
   </si>
@@ -43,6 +43,9 @@
     <t>이노그리드</t>
   </si>
   <si>
+    <t>SK증권스팩12호</t>
+  </si>
+  <si>
     <t>코칩</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>유안타스팩15호</t>
   </si>
   <si>
-    <t>유진스팩10호</t>
-  </si>
-  <si>
     <t>2024.04.30~05.08</t>
   </si>
   <si>
@@ -103,6 +103,9 @@
     <t>2024.04.18~04.24</t>
   </si>
   <si>
+    <t>2024.04.17~04.18</t>
+  </si>
+  <si>
     <t>2024.04.15~04.19</t>
   </si>
   <si>
@@ -151,9 +154,6 @@
     <t>2024.02.14~02.15</t>
   </si>
   <si>
-    <t>2024.02.13~02.14</t>
-  </si>
-  <si>
     <t>8,700~11,500</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>29,000~35,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>11,000~14,000</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>6,500~8,500</t>
   </si>
   <si>
@@ -193,6 +193,9 @@
     <t>-</t>
   </si>
   <si>
+    <t>13000</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
@@ -214,6 +217,9 @@
     <t>한국투자증권</t>
   </si>
   <si>
+    <t>SK증권</t>
+  </si>
+  <si>
     <t>유안타증권</t>
   </si>
   <si>
@@ -223,9 +229,6 @@
     <t>하나증권</t>
   </si>
   <si>
-    <t>케이비증권</t>
-  </si>
-  <si>
     <t>신한투자증권</t>
   </si>
   <si>
@@ -233,12 +236,6 @@
   </si>
   <si>
     <t>DB금융투자,NH투자증권</t>
-  </si>
-  <si>
-    <t>SK증권</t>
-  </si>
-  <si>
-    <t>유진증권</t>
   </si>
 </sst>
 </file>
@@ -639,7 +636,7 @@
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -659,7 +656,7 @@
         <v>25610</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -679,7 +676,7 @@
         <v>17400</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -696,10 +693,10 @@
         <v>58</v>
       </c>
       <c r="E5">
-        <v>16500</v>
+        <v>6000</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -716,7 +713,7 @@
         <v>58</v>
       </c>
       <c r="E6">
-        <v>10300</v>
+        <v>16500</v>
       </c>
       <c r="F6" t="s">
         <v>66</v>
@@ -730,16 +727,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>58</v>
       </c>
       <c r="E7">
-        <v>19500</v>
+        <v>10300</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -750,16 +747,16 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
       </c>
       <c r="E8">
-        <v>7000</v>
+        <v>19500</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -770,16 +767,16 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>58</v>
       </c>
       <c r="E9">
-        <v>36000</v>
+        <v>7000</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -790,16 +787,16 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>58</v>
       </c>
       <c r="E10">
-        <v>6000</v>
+        <v>36000</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -810,16 +807,16 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
       </c>
       <c r="E11">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -830,13 +827,13 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>58</v>
       </c>
       <c r="E12">
-        <v>19250</v>
+        <v>10000</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -850,16 +847,16 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13">
-        <v>6000</v>
+        <v>19250</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -870,16 +867,16 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>60</v>
       </c>
       <c r="E14">
-        <v>17600</v>
+        <v>6000</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -890,13 +887,13 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
       </c>
       <c r="E15">
-        <v>40000</v>
+        <v>17600</v>
       </c>
       <c r="F15" t="s">
         <v>65</v>
@@ -910,16 +907,16 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16">
-        <v>12870</v>
+        <v>40000</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,16 +927,16 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E17">
-        <v>10000</v>
+        <v>12870</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,16 +947,16 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18">
-        <v>18936</v>
+        <v>10000</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,13 +967,13 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E19">
-        <v>8000</v>
+        <v>18936</v>
       </c>
       <c r="F19" t="s">
         <v>73</v>
@@ -990,16 +987,16 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1010,16 +1007,16 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>종목명</t>
   </si>
@@ -46,6 +46,9 @@
     <t>SK증권스팩12호</t>
   </si>
   <si>
+    <t>HD현대마린솔루션(구.HD현대글로벌서비스)(유가)</t>
+  </si>
+  <si>
     <t>코칩</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>민테크</t>
   </si>
   <si>
+    <t>디앤디파마텍</t>
+  </si>
+  <si>
     <t>하나스팩33호</t>
   </si>
   <si>
@@ -88,12 +94,6 @@
     <t>케이엔알시스템</t>
   </si>
   <si>
-    <t>SK증권스팩11호</t>
-  </si>
-  <si>
-    <t>유안타스팩15호</t>
-  </si>
-  <si>
     <t>2024.04.30~05.08</t>
   </si>
   <si>
@@ -106,6 +106,9 @@
     <t>2024.04.17~04.18</t>
   </si>
   <si>
+    <t>2024.04.16~04.22</t>
+  </si>
+  <si>
     <t>2024.04.15~04.19</t>
   </si>
   <si>
@@ -148,12 +151,6 @@
     <t>2024.02.16~02.22</t>
   </si>
   <si>
-    <t>2024.02.15~02.16</t>
-  </si>
-  <si>
-    <t>2024.02.14~02.15</t>
-  </si>
-  <si>
     <t>8,700~11,500</t>
   </si>
   <si>
@@ -166,12 +163,18 @@
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>73,300~83,400</t>
+  </si>
+  <si>
     <t>11,000~14,000</t>
   </si>
   <si>
     <t>6,500~8,500</t>
   </si>
   <si>
+    <t>22,000~26,000</t>
+  </si>
+  <si>
     <t>15,000~18,000</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
   </si>
   <si>
     <t>SK증권</t>
+  </si>
+  <si>
+    <t>KB증권,신한투자증권,하나증권,대신증권,삼성증권</t>
   </si>
   <si>
     <t>유안타증권</t>
@@ -627,16 +633,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>10440</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -647,16 +653,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>25610</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -667,16 +673,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>17400</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -687,16 +693,16 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>6000</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -707,16 +713,16 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>16500</v>
+        <v>652370</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -727,16 +733,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7">
-        <v>10300</v>
+        <v>16500</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -747,16 +753,16 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8">
-        <v>19500</v>
+        <v>10300</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -767,16 +773,16 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9">
-        <v>7000</v>
+        <v>19500</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -784,19 +790,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10">
-        <v>36000</v>
+        <v>24200</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -804,19 +810,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -824,16 +830,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
@@ -844,19 +850,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13">
-        <v>19250</v>
+        <v>6000</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -864,19 +870,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -884,19 +890,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15">
-        <v>17600</v>
+        <v>19250</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -904,19 +910,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16">
-        <v>40000</v>
+        <v>6000</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,19 +930,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17">
-        <v>12870</v>
+        <v>17600</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,19 +950,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E18">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,19 +970,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19">
-        <v>18936</v>
+        <v>12870</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,19 +990,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,19 +1010,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E21">
-        <v>13000</v>
+        <v>18936</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -100,7 +100,7 @@
     <t>2024.04.24~04.30</t>
   </si>
   <si>
-    <t>2024.04.18~04.24</t>
+    <t>2024.04.22~04.26</t>
   </si>
   <si>
     <t>2024.04.17~04.18</t>
@@ -196,10 +196,10 @@
     <t>-</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>13000</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>20000</t>
@@ -876,7 +876,7 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>10000</v>
@@ -896,7 +896,7 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>19250</v>
@@ -916,7 +916,7 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>6000</v>
@@ -996,7 +996,7 @@
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>10000</v>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -151,7 +151,7 @@
     <t>2024.02.16~02.22</t>
   </si>
   <si>
-    <t>8,700~11,500</t>
+    <t>8,700~11,000</t>
   </si>
   <si>
     <t>13,000~16,000</t>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>종목명</t>
   </si>
@@ -34,9 +34,15 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>하스</t>
+  </si>
+  <si>
     <t>노브랜드</t>
   </si>
   <si>
+    <t>KB스팩28호</t>
+  </si>
+  <si>
     <t>아이씨티케이</t>
   </si>
   <si>
@@ -88,15 +94,15 @@
     <t>오상헬스케어</t>
   </si>
   <si>
-    <t>하나스팩31호</t>
-  </si>
-  <si>
-    <t>케이엔알시스템</t>
+    <t>2024.05.16~05.22</t>
   </si>
   <si>
     <t>2024.04.30~05.08</t>
   </si>
   <si>
+    <t>2024.04.29~04.30</t>
+  </si>
+  <si>
     <t>2024.04.24~04.30</t>
   </si>
   <si>
@@ -145,24 +151,21 @@
     <t>2024.02.21~02.27</t>
   </si>
   <si>
-    <t>2024.02.16~02.19</t>
-  </si>
-  <si>
-    <t>2024.02.16~02.22</t>
+    <t>9,000~12,000</t>
   </si>
   <si>
     <t>8,700~11,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>13,000~16,000</t>
   </si>
   <si>
     <t>29,000~35,000</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>73,300~83,400</t>
   </si>
   <si>
@@ -190,9 +193,6 @@
     <t>13,000~15,000</t>
   </si>
   <si>
-    <t>9,000~11,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>30000</t>
   </si>
   <si>
-    <t>13500</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
+    <t>KB증권</t>
+  </si>
+  <si>
     <t>NH투자증권</t>
   </si>
   <si>
@@ -229,9 +229,6 @@
     <t>유안타증권</t>
   </si>
   <si>
-    <t>KB증권</t>
-  </si>
-  <si>
     <t>하나증권</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
   </si>
   <si>
     <t>미래에셋증권</t>
-  </si>
-  <si>
-    <t>DB금융투자,NH투자증권</t>
   </si>
 </sst>
 </file>
@@ -639,10 +633,10 @@
         <v>59</v>
       </c>
       <c r="E2">
-        <v>10440</v>
+        <v>16290</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -659,10 +653,10 @@
         <v>59</v>
       </c>
       <c r="E3">
-        <v>25610</v>
+        <v>10440</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -679,10 +673,10 @@
         <v>59</v>
       </c>
       <c r="E4">
-        <v>17400</v>
+        <v>10000</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -699,10 +693,10 @@
         <v>59</v>
       </c>
       <c r="E5">
-        <v>6000</v>
+        <v>25610</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -719,10 +713,10 @@
         <v>59</v>
       </c>
       <c r="E6">
-        <v>652370</v>
+        <v>17400</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -733,16 +727,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
       </c>
       <c r="E7">
-        <v>16500</v>
+        <v>6000</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -753,16 +747,16 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
       </c>
       <c r="E8">
-        <v>10300</v>
+        <v>652370</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -779,10 +773,10 @@
         <v>59</v>
       </c>
       <c r="E9">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -790,19 +784,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
       </c>
       <c r="E10">
-        <v>24200</v>
+        <v>10300</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -810,19 +804,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
       </c>
       <c r="E11">
-        <v>7000</v>
+        <v>19500</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -839,10 +833,10 @@
         <v>59</v>
       </c>
       <c r="E12">
-        <v>36000</v>
+        <v>24200</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -853,16 +847,16 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -873,16 +867,16 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -893,16 +887,16 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15">
-        <v>19250</v>
+        <v>6000</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -913,13 +907,13 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
       </c>
       <c r="E16">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="F16" t="s">
         <v>72</v>
@@ -936,13 +930,13 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17">
-        <v>17600</v>
+        <v>19250</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -953,16 +947,16 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E18">
-        <v>40000</v>
+        <v>6000</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -973,13 +967,13 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>62</v>
       </c>
       <c r="E19">
-        <v>12870</v>
+        <v>17600</v>
       </c>
       <c r="F19" t="s">
         <v>66</v>
@@ -993,16 +987,16 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E20">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1016,13 +1010,13 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21">
-        <v>18936</v>
+        <v>12870</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -890,7 +890,7 @@
         <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>6000</v>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>종목명</t>
   </si>
@@ -40,6 +40,9 @@
     <t>노브랜드</t>
   </si>
   <si>
+    <t>에스오에스랩</t>
+  </si>
+  <si>
     <t>KB스팩28호</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>삼현</t>
   </si>
   <si>
-    <t>오상헬스케어</t>
-  </si>
-  <si>
     <t>2024.05.16~05.22</t>
   </si>
   <si>
@@ -148,15 +148,15 @@
     <t>2024.02.29~03.07</t>
   </si>
   <si>
-    <t>2024.02.21~02.27</t>
-  </si>
-  <si>
     <t>9,000~12,000</t>
   </si>
   <si>
     <t>8,700~11,000</t>
   </si>
   <si>
+    <t>7,500~9,000</t>
+  </si>
+  <si>
     <t>2,000~2,000</t>
   </si>
   <si>
@@ -190,9 +190,6 @@
     <t>20,000~25,000</t>
   </si>
   <si>
-    <t>13,000~15,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -211,13 +208,13 @@
     <t>삼성증권</t>
   </si>
   <si>
+    <t>한국투자증권</t>
+  </si>
+  <si>
     <t>KB증권</t>
   </si>
   <si>
     <t>NH투자증권</t>
-  </si>
-  <si>
-    <t>한국투자증권</t>
   </si>
   <si>
     <t>SK증권</t>
@@ -627,16 +624,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <v>16290</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -647,16 +644,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>10440</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -664,19 +661,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -684,19 +681,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>25610</v>
+        <v>10000</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -704,19 +701,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>17400</v>
+        <v>25610</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -724,19 +721,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>6000</v>
+        <v>17400</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -744,19 +741,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>652370</v>
+        <v>6000</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -764,19 +761,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9">
-        <v>16500</v>
+        <v>652370</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -784,19 +781,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10">
-        <v>10300</v>
+        <v>16500</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -804,19 +801,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>19500</v>
+        <v>10300</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -827,16 +824,16 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12">
-        <v>24200</v>
+        <v>19500</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -844,19 +841,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13">
-        <v>7000</v>
+        <v>24200</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -864,19 +861,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
       </c>
       <c r="E14">
-        <v>36000</v>
+        <v>7000</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -884,19 +881,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15">
-        <v>6000</v>
+        <v>36000</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -904,19 +901,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,19 +921,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17">
-        <v>19250</v>
+        <v>10000</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,19 +941,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
       </c>
       <c r="E18">
-        <v>6000</v>
+        <v>19250</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,19 +961,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E19">
-        <v>17600</v>
+        <v>6000</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,19 +981,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20">
-        <v>40000</v>
+        <v>17600</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,19 +1001,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>62</v>
       </c>
       <c r="E21">
-        <v>12870</v>
+        <v>40000</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>하스</t>
   </si>
   <si>
+    <t>미래에셋비전스팩4호</t>
+  </si>
+  <si>
     <t>노브랜드</t>
   </si>
   <si>
@@ -91,12 +94,12 @@
     <t>하나스팩32호</t>
   </si>
   <si>
-    <t>엔젤로보틱스</t>
-  </si>
-  <si>
     <t>2024.05.16~05.22</t>
   </si>
   <si>
+    <t>2024.05.13~05.14</t>
+  </si>
+  <si>
     <t>2024.04.30~05.08</t>
   </si>
   <si>
@@ -142,21 +145,18 @@
     <t>2024.03.12~03.13</t>
   </si>
   <si>
-    <t>2024.03.06~03.12</t>
-  </si>
-  <si>
     <t>9,000~12,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>8,700~11,000</t>
   </si>
   <si>
     <t>7,500~9,000</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>13,000~16,000</t>
   </si>
   <si>
@@ -184,27 +184,75 @@
     <t>7,700~9,900</t>
   </si>
   <si>
-    <t>11,000~15,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
+    <t>33000</t>
+  </si>
+  <si>
     <t>22000</t>
   </si>
   <si>
     <t>13000</t>
   </si>
   <si>
-    <t>20000</t>
+    <t>16290</t>
+  </si>
+  <si>
+    <t>10440</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>25610</t>
+  </si>
+  <si>
+    <t>13650</t>
+  </si>
+  <si>
+    <t>17400</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>652370</t>
+  </si>
+  <si>
+    <t>16500</t>
+  </si>
+  <si>
+    <t>10300</t>
+  </si>
+  <si>
+    <t>19500</t>
+  </si>
+  <si>
+    <t>24200</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>19250</t>
   </si>
   <si>
     <t>삼성증권</t>
   </si>
   <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
     <t>한국투자증권</t>
   </si>
   <si>
@@ -227,9 +275,6 @@
   </si>
   <si>
     <t>신한투자증권</t>
-  </si>
-  <si>
-    <t>미래에셋증권</t>
   </si>
 </sst>
 </file>
@@ -624,13 +669,13 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2">
-        <v>16290</v>
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -644,13 +689,13 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3">
-        <v>10440</v>
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -658,19 +703,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4">
-        <v>15000</v>
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -684,13 +729,13 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5">
-        <v>10000</v>
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -701,16 +746,16 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6">
-        <v>25610</v>
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -718,19 +763,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7">
-        <v>13650</v>
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -741,16 +786,16 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8">
-        <v>17400</v>
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -761,16 +806,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9">
-        <v>6000</v>
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -781,16 +826,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10">
-        <v>652370</v>
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -801,16 +846,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11">
-        <v>16500</v>
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -821,16 +866,16 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12">
-        <v>10300</v>
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -841,16 +886,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="E13">
-        <v>19500</v>
+      <c r="E13" t="s">
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -858,19 +903,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14">
-        <v>24200</v>
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -881,16 +926,16 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="E15">
-        <v>7000</v>
+      <c r="E15" t="s">
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -901,16 +946,16 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16">
-        <v>36000</v>
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,16 +966,16 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17">
-        <v>6000</v>
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,16 +986,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18">
-        <v>10000</v>
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,16 +1006,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19">
-        <v>19250</v>
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,16 +1026,16 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20">
-        <v>6000</v>
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,16 +1046,16 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21">
-        <v>17600</v>
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t>종목명</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>10500</t>
   </si>
   <si>
     <t>33000</t>
@@ -672,10 +675,10 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -695,7 +698,7 @@
         <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -712,10 +715,10 @@
         <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -732,10 +735,10 @@
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -752,10 +755,10 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -772,10 +775,10 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -792,10 +795,10 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -812,10 +815,10 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -829,13 +832,13 @@
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -852,10 +855,10 @@
         <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -872,10 +875,10 @@
         <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -892,10 +895,10 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -909,13 +912,13 @@
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -929,13 +932,13 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -952,10 +955,10 @@
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -969,13 +972,13 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -992,10 +995,10 @@
         <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1012,10 +1015,10 @@
         <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1029,13 +1032,13 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1052,10 +1055,10 @@
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
   <si>
     <t>종목명</t>
   </si>
@@ -34,6 +34,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>씨어스테크놀로지</t>
+  </si>
+  <si>
     <t>하스</t>
   </si>
   <si>
@@ -52,9 +55,6 @@
     <t>아이씨티케이</t>
   </si>
   <si>
-    <t>씨어스테크놀로지</t>
-  </si>
-  <si>
     <t>이노그리드</t>
   </si>
   <si>
@@ -94,6 +94,9 @@
     <t>하나스팩32호</t>
   </si>
   <si>
+    <t>2024.05.23~05.29</t>
+  </si>
+  <si>
     <t>2024.05.16~05.22</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>2024.03.12~03.13</t>
   </si>
   <si>
+    <t>10,500~14,000</t>
+  </si>
+  <si>
     <t>9,000~12,000</t>
   </si>
   <si>
@@ -160,9 +166,6 @@
     <t>13,000~16,000</t>
   </si>
   <si>
-    <t>10,500~14,000</t>
-  </si>
-  <si>
     <t>29,000~35,000</t>
   </si>
   <si>
@@ -190,6 +193,9 @@
     <t>2000</t>
   </si>
   <si>
+    <t>18000</t>
+  </si>
+  <si>
     <t>10500</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
     <t>13000</t>
   </si>
   <si>
+    <t>13650</t>
+  </si>
+  <si>
     <t>16290</t>
   </si>
   <si>
@@ -217,9 +226,6 @@
     <t>25610</t>
   </si>
   <si>
-    <t>13650</t>
-  </si>
-  <si>
     <t>17400</t>
   </si>
   <si>
@@ -250,13 +256,13 @@
     <t>19250</t>
   </si>
   <si>
+    <t>한국투자증권</t>
+  </si>
+  <si>
     <t>삼성증권</t>
   </si>
   <si>
     <t>미래에셋증권</t>
-  </si>
-  <si>
-    <t>한국투자증권</t>
   </si>
   <si>
     <t>KB증권</t>
@@ -669,16 +675,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -689,16 +695,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -709,16 +715,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -726,19 +732,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -749,16 +755,16 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -769,16 +775,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -786,19 +792,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -806,16 +812,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
         <v>80</v>
@@ -826,19 +832,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -846,19 +852,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -866,16 +872,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -886,19 +892,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -906,19 +912,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -926,16 +932,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
         <v>80</v>
@@ -946,19 +952,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -966,19 +972,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -986,19 +992,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1006,19 +1012,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1026,19 +1032,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1046,19 +1052,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
   <si>
     <t>종목명</t>
   </si>
@@ -34,6 +34,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>이노그리드</t>
+  </si>
+  <si>
     <t>씨어스테크놀로지</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>아이씨티케이</t>
   </si>
   <si>
-    <t>이노그리드</t>
-  </si>
-  <si>
     <t>SK증권스팩12호</t>
   </si>
   <si>
@@ -94,6 +94,9 @@
     <t>하나스팩32호</t>
   </si>
   <si>
+    <t>2024.05.31~06.07</t>
+  </si>
+  <si>
     <t>2024.05.23~05.29</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
     <t>2024.04.24~04.30</t>
   </si>
   <si>
-    <t>2024.04.22~04.26</t>
-  </si>
-  <si>
     <t>2024.04.17~04.18</t>
   </si>
   <si>
@@ -148,6 +148,9 @@
     <t>2024.03.12~03.13</t>
   </si>
   <si>
+    <t>29,000~35,000</t>
+  </si>
+  <si>
     <t>10,500~14,000</t>
   </si>
   <si>
@@ -166,9 +169,6 @@
     <t>13,000~16,000</t>
   </si>
   <si>
-    <t>29,000~35,000</t>
-  </si>
-  <si>
     <t>73,300~83,400</t>
   </si>
   <si>
@@ -193,6 +193,9 @@
     <t>2000</t>
   </si>
   <si>
+    <t>83400</t>
+  </si>
+  <si>
     <t>18000</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
     <t>13000</t>
   </si>
   <si>
+    <t>17400</t>
+  </si>
+  <si>
     <t>13650</t>
   </si>
   <si>
@@ -224,9 +230,6 @@
   </si>
   <si>
     <t>25610</t>
-  </si>
-  <si>
-    <t>17400</t>
   </si>
   <si>
     <t>6000</t>
@@ -681,10 +684,10 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -701,7 +704,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
         <v>81</v>
@@ -721,7 +724,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
         <v>82</v>
@@ -741,10 +744,10 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -752,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -761,10 +764,10 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -775,16 +778,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -795,13 +798,13 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -821,10 +824,10 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -835,16 +838,16 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -858,13 +861,13 @@
         <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -878,13 +881,13 @@
         <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -895,16 +898,16 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -918,13 +921,13 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -938,13 +941,13 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -955,16 +958,16 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -978,13 +981,13 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -995,16 +998,16 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1015,16 +1018,16 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1038,13 +1041,13 @@
         <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1055,16 +1058,16 @@
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
   <si>
     <t>종목명</t>
   </si>
@@ -40,6 +40,12 @@
     <t>씨어스테크놀로지</t>
   </si>
   <si>
+    <t>미래에셋비전스팩5호</t>
+  </si>
+  <si>
+    <t>에스오에스랩</t>
+  </si>
+  <si>
     <t>하스</t>
   </si>
   <si>
@@ -49,9 +55,6 @@
     <t>노브랜드</t>
   </si>
   <si>
-    <t>에스오에스랩</t>
-  </si>
-  <si>
     <t>KB스팩28호</t>
   </si>
   <si>
@@ -91,15 +94,18 @@
     <t>아이엠비디엑스</t>
   </si>
   <si>
-    <t>하나스팩32호</t>
-  </si>
-  <si>
     <t>2024.05.31~06.07</t>
   </si>
   <si>
     <t>2024.05.23~05.29</t>
   </si>
   <si>
+    <t>2024.05.23~05.24</t>
+  </si>
+  <si>
+    <t>2024.05.20~05.24</t>
+  </si>
+  <si>
     <t>2024.05.16~05.22</t>
   </si>
   <si>
@@ -145,27 +151,24 @@
     <t>2024.03.14~03.20</t>
   </si>
   <si>
-    <t>2024.03.12~03.13</t>
-  </si>
-  <si>
     <t>29,000~35,000</t>
   </si>
   <si>
     <t>10,500~14,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
+    <t>7,500~9,000</t>
+  </si>
+  <si>
     <t>9,000~12,000</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>8,700~11,000</t>
   </si>
   <si>
-    <t>7,500~9,000</t>
-  </si>
-  <si>
     <t>13,000~16,000</t>
   </si>
   <si>
@@ -217,15 +220,18 @@
     <t>13650</t>
   </si>
   <si>
+    <t>9500</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
     <t>16290</t>
   </si>
   <si>
     <t>10440</t>
   </si>
   <si>
-    <t>15000</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -262,10 +268,10 @@
     <t>한국투자증권</t>
   </si>
   <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
     <t>삼성증권</t>
-  </si>
-  <si>
-    <t>미래에셋증권</t>
   </si>
   <si>
     <t>KB증권</t>
@@ -678,16 +684,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -698,16 +704,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -718,16 +724,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -738,13 +744,13 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -758,16 +764,16 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -775,19 +781,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -795,19 +801,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -815,19 +821,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -835,19 +841,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -855,19 +861,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -875,7 +881,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -884,10 +890,10 @@
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -895,19 +901,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -915,19 +921,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -935,7 +941,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
@@ -944,10 +950,10 @@
         <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -955,19 +961,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -975,19 +981,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -995,19 +1001,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1015,19 +1021,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1035,19 +1041,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1055,19 +1061,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
   <si>
     <t>종목명</t>
   </si>
@@ -34,15 +34,24 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>하이젠알앤엠</t>
+  </si>
+  <si>
     <t>이노그리드</t>
   </si>
   <si>
+    <t>디비금융스팩12호</t>
+  </si>
+  <si>
     <t>씨어스테크놀로지</t>
   </si>
   <si>
     <t>미래에셋비전스팩5호</t>
   </si>
   <si>
+    <t>에이치브이엠(구.한국진공야금)</t>
+  </si>
+  <si>
     <t>에스오에스랩</t>
   </si>
   <si>
@@ -85,24 +94,24 @@
     <t>제일엠앤에스(구.제일기공)</t>
   </si>
   <si>
-    <t>신한스팩13호</t>
-  </si>
-  <si>
-    <t>신한스팩12호</t>
-  </si>
-  <si>
-    <t>아이엠비디엑스</t>
+    <t>2024.06.07~06.13</t>
   </si>
   <si>
     <t>2024.05.31~06.07</t>
   </si>
   <si>
+    <t>2024.05.28~05.29</t>
+  </si>
+  <si>
     <t>2024.05.23~05.29</t>
   </si>
   <si>
     <t>2024.05.23~05.24</t>
   </si>
   <si>
+    <t>2024.05.22~05.28</t>
+  </si>
+  <si>
     <t>2024.05.20~05.24</t>
   </si>
   <si>
@@ -142,22 +151,19 @@
     <t>2024.04.05~04.12</t>
   </si>
   <si>
-    <t>2024.04.04~04.05</t>
-  </si>
-  <si>
-    <t>2024.03.27~03.28</t>
-  </si>
-  <si>
-    <t>2024.03.14~03.20</t>
+    <t>4,500~5,500</t>
   </si>
   <si>
     <t>29,000~35,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>10,500~14,000</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
+    <t>11,000~14,200</t>
   </si>
   <si>
     <t>7,500~9,000</t>
@@ -187,9 +193,6 @@
     <t>15,000~18,000</t>
   </si>
   <si>
-    <t>7,700~9,900</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -211,18 +214,24 @@
     <t>22000</t>
   </si>
   <si>
-    <t>13000</t>
+    <t>15300</t>
   </si>
   <si>
     <t>17400</t>
   </si>
   <si>
+    <t>10000</t>
+  </si>
+  <si>
     <t>13650</t>
   </si>
   <si>
     <t>9500</t>
   </si>
   <si>
+    <t>26400</t>
+  </si>
+  <si>
     <t>15000</t>
   </si>
   <si>
@@ -232,9 +241,6 @@
     <t>10440</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>25610</t>
   </si>
   <si>
@@ -262,24 +268,24 @@
     <t>36000</t>
   </si>
   <si>
-    <t>19250</t>
-  </si>
-  <si>
     <t>한국투자증권</t>
   </si>
   <si>
+    <t>DB금융투자</t>
+  </si>
+  <si>
     <t>미래에셋증권</t>
   </si>
   <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
     <t>삼성증권</t>
   </si>
   <si>
     <t>KB증권</t>
   </si>
   <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
     <t>SK증권</t>
   </si>
   <si>
@@ -290,9 +296,6 @@
   </si>
   <si>
     <t>하나증권</t>
-  </si>
-  <si>
-    <t>신한투자증권</t>
   </si>
 </sst>
 </file>
@@ -687,13 +690,13 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -707,13 +710,13 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -727,13 +730,13 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -747,13 +750,13 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -764,16 +767,16 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -784,16 +787,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -807,13 +810,13 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -824,16 +827,16 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -844,16 +847,16 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -864,7 +867,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
@@ -884,13 +887,13 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
         <v>89</v>
@@ -907,13 +910,13 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -927,10 +930,10 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -947,13 +950,13 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -961,19 +964,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -981,19 +984,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1001,19 +1004,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1024,16 +1027,16 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1047,13 +1050,13 @@
         <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1064,16 +1067,16 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
         <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>하이젠알앤엠</t>
   </si>
   <si>
+    <t>한국스팩14호</t>
+  </si>
+  <si>
     <t>이노그리드</t>
   </si>
   <si>
@@ -49,6 +52,12 @@
     <t>미래에셋비전스팩5호</t>
   </si>
   <si>
+    <t>그리드위즈</t>
+  </si>
+  <si>
+    <t>이노스페이스</t>
+  </si>
+  <si>
     <t>에이치브이엠(구.한국진공야금)</t>
   </si>
   <si>
@@ -85,30 +94,27 @@
     <t>민테크</t>
   </si>
   <si>
-    <t>디앤디파마텍</t>
-  </si>
-  <si>
-    <t>하나스팩33호</t>
-  </si>
-  <si>
-    <t>제일엠앤에스(구.제일기공)</t>
-  </si>
-  <si>
     <t>2024.06.07~06.13</t>
   </si>
   <si>
+    <t>2024.06.03~06.04</t>
+  </si>
+  <si>
     <t>2024.05.31~06.07</t>
   </si>
   <si>
     <t>2024.05.28~05.29</t>
   </si>
   <si>
+    <t>2024.05.27~05.31</t>
+  </si>
+  <si>
+    <t>2024.05.23~05.24</t>
+  </si>
+  <si>
     <t>2024.05.23~05.29</t>
   </si>
   <si>
-    <t>2024.05.23~05.24</t>
-  </si>
-  <si>
     <t>2024.05.22~05.28</t>
   </si>
   <si>
@@ -145,24 +151,24 @@
     <t>2024.04.12~04.18</t>
   </si>
   <si>
-    <t>2024.04.08~04.09</t>
-  </si>
-  <si>
-    <t>2024.04.05~04.12</t>
-  </si>
-  <si>
     <t>4,500~5,500</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>29,000~35,000</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>10,500~14,000</t>
   </si>
   <si>
+    <t>34,000~40,000</t>
+  </si>
+  <si>
+    <t>36,400~45,600</t>
+  </si>
+  <si>
     <t>11,000~14,200</t>
   </si>
   <si>
@@ -187,18 +193,15 @@
     <t>6,500~8,500</t>
   </si>
   <si>
-    <t>22,000~26,000</t>
-  </si>
-  <si>
-    <t>15,000~18,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
+    <t>20000</t>
+  </si>
+  <si>
     <t>83400</t>
   </si>
   <si>
@@ -208,15 +211,12 @@
     <t>10500</t>
   </si>
   <si>
-    <t>33000</t>
-  </si>
-  <si>
-    <t>22000</t>
-  </si>
-  <si>
     <t>15300</t>
   </si>
   <si>
+    <t>8000</t>
+  </si>
+  <si>
     <t>17400</t>
   </si>
   <si>
@@ -229,6 +229,12 @@
     <t>9500</t>
   </si>
   <si>
+    <t>47600</t>
+  </si>
+  <si>
+    <t>48412</t>
+  </si>
+  <si>
     <t>26400</t>
   </si>
   <si>
@@ -259,15 +265,6 @@
     <t>19500</t>
   </si>
   <si>
-    <t>24200</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>36000</t>
-  </si>
-  <si>
     <t>한국투자증권</t>
   </si>
   <si>
@@ -277,12 +274,15 @@
     <t>미래에셋증권</t>
   </si>
   <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
+    <t>미래에셋증권,신한투자증권</t>
+  </si>
+  <si>
     <t>NH투자증권</t>
   </si>
   <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
     <t>KB증권</t>
   </si>
   <si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>유안타증권</t>
-  </si>
-  <si>
-    <t>하나증권</t>
   </si>
 </sst>
 </file>
@@ -693,10 +690,10 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -713,10 +710,10 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -733,10 +730,10 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -747,13 +744,13 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
         <v>84</v>
@@ -767,16 +764,16 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -787,16 +784,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -807,16 +804,16 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -824,19 +821,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -844,19 +841,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -864,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -876,7 +873,7 @@
         <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -884,19 +881,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -904,19 +901,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -924,19 +921,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
         <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -944,19 +941,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -964,19 +961,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -984,19 +981,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1004,19 +1001,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1030,13 +1027,13 @@
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1047,16 +1044,16 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1070,10 +1067,10 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
         <v>89</v>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>종목명</t>
   </si>
@@ -43,12 +43,18 @@
     <t>이노그리드</t>
   </si>
   <si>
+    <t>에스오에스랩</t>
+  </si>
+  <si>
     <t>디비금융스팩12호</t>
   </si>
   <si>
     <t>씨어스테크놀로지</t>
   </si>
   <si>
+    <t>라메디텍</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩5호</t>
   </si>
   <si>
@@ -61,9 +67,6 @@
     <t>에이치브이엠(구.한국진공야금)</t>
   </si>
   <si>
-    <t>에스오에스랩</t>
-  </si>
-  <si>
     <t>하스</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>유안타스팩16호</t>
   </si>
   <si>
-    <t>민테크</t>
-  </si>
-  <si>
     <t>2024.06.07~06.13</t>
   </si>
   <si>
@@ -103,6 +103,9 @@
     <t>2024.05.31~06.07</t>
   </si>
   <si>
+    <t>2024.05.28~06.03</t>
+  </si>
+  <si>
     <t>2024.05.28~05.29</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t>2024.05.22~05.28</t>
   </si>
   <si>
-    <t>2024.05.20~05.24</t>
-  </si>
-  <si>
     <t>2024.05.16~05.22</t>
   </si>
   <si>
@@ -148,9 +148,6 @@
     <t>2024.04.15~04.16</t>
   </si>
   <si>
-    <t>2024.04.12~04.18</t>
-  </si>
-  <si>
     <t>4,500~5,500</t>
   </si>
   <si>
@@ -160,9 +157,15 @@
     <t>29,000~35,000</t>
   </si>
   <si>
+    <t>7,500~9,000</t>
+  </si>
+  <si>
     <t>10,500~14,000</t>
   </si>
   <si>
+    <t>10,400~12,700</t>
+  </si>
+  <si>
     <t>34,000~40,000</t>
   </si>
   <si>
@@ -172,9 +175,6 @@
     <t>11,000~14,200</t>
   </si>
   <si>
-    <t>7,500~9,000</t>
-  </si>
-  <si>
     <t>9,000~12,000</t>
   </si>
   <si>
@@ -190,9 +190,6 @@
     <t>11,000~14,000</t>
   </si>
   <si>
-    <t>6,500~8,500</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>18000</t>
   </si>
   <si>
-    <t>10500</t>
-  </si>
-  <si>
     <t>15300</t>
   </si>
   <si>
@@ -220,12 +214,18 @@
     <t>17400</t>
   </si>
   <si>
+    <t>15000</t>
+  </si>
+  <si>
     <t>10000</t>
   </si>
   <si>
     <t>13650</t>
   </si>
   <si>
+    <t>13499</t>
+  </si>
+  <si>
     <t>9500</t>
   </si>
   <si>
@@ -238,9 +238,6 @@
     <t>26400</t>
   </si>
   <si>
-    <t>15000</t>
-  </si>
-  <si>
     <t>16290</t>
   </si>
   <si>
@@ -262,13 +259,13 @@
     <t>10300</t>
   </si>
   <si>
-    <t>19500</t>
-  </si>
-  <si>
     <t>한국투자증권</t>
   </si>
   <si>
     <t>DB금융투자</t>
+  </si>
+  <si>
+    <t>대신증권</t>
   </si>
   <si>
     <t>미래에셋증권</t>
@@ -684,16 +681,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -704,16 +701,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -724,16 +721,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -744,16 +741,16 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -764,16 +761,16 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -784,16 +781,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -801,19 +798,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -824,16 +821,16 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -844,16 +841,16 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -861,19 +858,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -881,19 +878,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -901,16 +898,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -921,19 +918,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -941,19 +938,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -961,16 +958,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -981,19 +978,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1001,19 +998,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1021,19 +1018,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1041,19 +1038,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
         <v>81</v>
-      </c>
-      <c r="F20" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1061,19 +1058,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>하이젠알앤엠</t>
   </si>
   <si>
+    <t>미래에셋비전스팩5호</t>
+  </si>
+  <si>
     <t>한국스팩14호</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>라메디텍</t>
   </si>
   <si>
-    <t>미래에셋비전스팩5호</t>
-  </si>
-  <si>
     <t>그리드위즈</t>
   </si>
   <si>
@@ -112,9 +112,6 @@
     <t>2024.05.27~05.31</t>
   </si>
   <si>
-    <t>2024.05.23~05.24</t>
-  </si>
-  <si>
     <t>2024.05.23~05.29</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
     <t>15300</t>
   </si>
   <si>
+    <t>9500</t>
+  </si>
+  <si>
     <t>8000</t>
   </si>
   <si>
@@ -226,9 +226,6 @@
     <t>13499</t>
   </si>
   <si>
-    <t>9500</t>
-  </si>
-  <si>
     <t>47600</t>
   </si>
   <si>
@@ -262,13 +259,13 @@
     <t>한국투자증권</t>
   </si>
   <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
     <t>DB금융투자</t>
   </si>
   <si>
     <t>대신증권</t>
-  </si>
-  <si>
-    <t>미래에셋증권</t>
   </si>
   <si>
     <t>삼성증권</t>
@@ -681,16 +678,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -701,13 +698,13 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
         <v>81</v>
@@ -718,19 +715,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -738,19 +735,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -758,19 +755,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -778,19 +775,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -801,16 +798,16 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -818,19 +815,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -838,19 +835,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -858,19 +855,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -878,19 +875,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -898,19 +895,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -918,19 +915,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -938,19 +935,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -958,19 +955,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -978,19 +975,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -998,19 +995,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1018,19 +1015,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1038,19 +1035,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1058,19 +1055,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>종목명</t>
   </si>
@@ -190,6 +190,9 @@
     <t>-</t>
   </si>
   <si>
+    <t>14000</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
@@ -238,7 +241,7 @@
     <t>16290</t>
   </si>
   <si>
-    <t>10440</t>
+    <t>16800</t>
   </si>
   <si>
     <t>25610</t>
@@ -684,10 +687,10 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -704,10 +707,10 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -724,10 +727,10 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -744,10 +747,10 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -764,10 +767,10 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -784,10 +787,10 @@
         <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -804,10 +807,10 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -824,10 +827,10 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -844,10 +847,10 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -864,10 +867,10 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -884,10 +887,10 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -904,10 +907,10 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -927,7 +930,7 @@
         <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -941,13 +944,13 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -961,13 +964,13 @@
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -981,13 +984,13 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1001,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1021,13 +1024,13 @@
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1041,13 +1044,13 @@
         <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1061,13 +1064,13 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,12 @@
     <t>하이젠알앤엠</t>
   </si>
   <si>
+    <t>KB스팩29호</t>
+  </si>
+  <si>
+    <t>에이치엠씨아이비스팩7호</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩5호</t>
   </si>
   <si>
@@ -88,15 +94,12 @@
     <t>HD현대마린솔루션(구.HD현대글로벌서비스)(유가)</t>
   </si>
   <si>
-    <t>코칩</t>
-  </si>
-  <si>
-    <t>유안타스팩16호</t>
-  </si>
-  <si>
     <t>2024.06.07~06.13</t>
   </si>
   <si>
+    <t>2024.06.04~06.05</t>
+  </si>
+  <si>
     <t>2024.06.03~06.04</t>
   </si>
   <si>
@@ -139,12 +142,6 @@
     <t>2024.04.16~04.22</t>
   </si>
   <si>
-    <t>2024.04.15~04.19</t>
-  </si>
-  <si>
-    <t>2024.04.15~04.16</t>
-  </si>
-  <si>
     <t>4,500~5,500</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>73,300~83,400</t>
   </si>
   <si>
-    <t>11,000~14,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -202,12 +196,12 @@
     <t>83400</t>
   </si>
   <si>
-    <t>18000</t>
-  </si>
-  <si>
     <t>15300</t>
   </si>
   <si>
+    <t>12000</t>
+  </si>
+  <si>
     <t>9500</t>
   </si>
   <si>
@@ -253,15 +247,15 @@
     <t>652370</t>
   </si>
   <si>
-    <t>16500</t>
-  </si>
-  <si>
-    <t>10300</t>
-  </si>
-  <si>
     <t>한국투자증권</t>
   </si>
   <si>
+    <t>KB증권</t>
+  </si>
+  <si>
+    <t>현대차증권</t>
+  </si>
+  <si>
     <t>미래에셋증권</t>
   </si>
   <si>
@@ -280,16 +274,10 @@
     <t>NH투자증권</t>
   </si>
   <si>
-    <t>KB증권</t>
-  </si>
-  <si>
     <t>SK증권</t>
   </si>
   <si>
     <t>KB증권,신한투자증권,하나증권,대신증권,삼성증권</t>
-  </si>
-  <si>
-    <t>유안타증권</t>
   </si>
 </sst>
 </file>
@@ -681,16 +669,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -701,16 +689,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -721,16 +709,16 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -741,16 +729,16 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -758,19 +746,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -778,19 +766,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -798,19 +786,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -821,16 +809,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -841,16 +829,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -861,16 +849,16 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -881,16 +869,16 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -898,19 +886,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -918,19 +906,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -938,19 +926,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -958,19 +946,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -978,19 +966,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -998,19 +986,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1018,19 +1006,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1038,19 +1026,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1058,19 +1046,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>하이젠알앤엠</t>
   </si>
   <si>
+    <t>미래에셋비전스팩6호</t>
+  </si>
+  <si>
     <t>KB스팩29호</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>한국스팩14호</t>
   </si>
   <si>
+    <t>엑셀세라퓨틱스</t>
+  </si>
+  <si>
     <t>이노그리드</t>
   </si>
   <si>
@@ -88,21 +94,21 @@
     <t>아이씨티케이</t>
   </si>
   <si>
-    <t>SK증권스팩12호</t>
-  </si>
-  <si>
-    <t>HD현대마린솔루션(구.HD현대글로벌서비스)(유가)</t>
-  </si>
-  <si>
     <t>2024.06.07~06.13</t>
   </si>
   <si>
+    <t>2024.06.05~06.07</t>
+  </si>
+  <si>
     <t>2024.06.04~06.05</t>
   </si>
   <si>
     <t>2024.06.03~06.04</t>
   </si>
   <si>
+    <t>2024.06.03~06.10</t>
+  </si>
+  <si>
     <t>2024.05.31~06.07</t>
   </si>
   <si>
@@ -136,18 +142,15 @@
     <t>2024.04.24~04.30</t>
   </si>
   <si>
-    <t>2024.04.17~04.18</t>
-  </si>
-  <si>
-    <t>2024.04.16~04.22</t>
-  </si>
-  <si>
     <t>4,500~5,500</t>
   </si>
   <si>
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>6,200~7,700</t>
+  </si>
+  <si>
     <t>29,000~35,000</t>
   </si>
   <si>
@@ -178,9 +181,6 @@
     <t>13,000~16,000</t>
   </si>
   <si>
-    <t>73,300~83,400</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -193,12 +193,12 @@
     <t>20000</t>
   </si>
   <si>
-    <t>83400</t>
-  </si>
-  <si>
     <t>15300</t>
   </si>
   <si>
+    <t>12900</t>
+  </si>
+  <si>
     <t>12000</t>
   </si>
   <si>
@@ -208,6 +208,9 @@
     <t>8000</t>
   </si>
   <si>
+    <t>10032</t>
+  </si>
+  <si>
     <t>17400</t>
   </si>
   <si>
@@ -241,30 +244,24 @@
     <t>25610</t>
   </si>
   <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>652370</t>
-  </si>
-  <si>
     <t>한국투자증권</t>
   </si>
   <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
     <t>KB증권</t>
   </si>
   <si>
     <t>현대차증권</t>
   </si>
   <si>
-    <t>미래에셋증권</t>
+    <t>대신증권</t>
   </si>
   <si>
     <t>DB금융투자</t>
   </si>
   <si>
-    <t>대신증권</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
@@ -272,12 +269,6 @@
   </si>
   <si>
     <t>NH투자증권</t>
-  </si>
-  <si>
-    <t>SK증권</t>
-  </si>
-  <si>
-    <t>KB증권,신한투자증권,하나증권,대신증권,삼성증권</t>
   </si>
 </sst>
 </file>
@@ -675,10 +666,10 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -695,10 +686,10 @@
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -706,7 +697,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -715,10 +706,10 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -735,10 +726,10 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -746,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -755,7 +746,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
         <v>77</v>
@@ -769,16 +760,16 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -789,16 +780,16 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -809,16 +800,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -835,10 +826,10 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -846,19 +837,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -866,19 +857,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -886,19 +877,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -906,19 +897,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -929,13 +920,13 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -949,16 +940,16 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -972,13 +963,13 @@
         <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
         <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -992,13 +983,13 @@
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1012,13 +1003,13 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1035,10 +1026,10 @@
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1052,13 +1043,13 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t>종목명</t>
   </si>
@@ -34,6 +34,12 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>하스</t>
+  </si>
+  <si>
+    <t>한국스팩15호</t>
+  </si>
+  <si>
     <t>하이젠알앤엠</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>에이치엠씨아이비스팩7호</t>
   </si>
   <si>
+    <t>에스오에스랩</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩5호</t>
   </si>
   <si>
@@ -58,9 +67,6 @@
     <t>이노그리드</t>
   </si>
   <si>
-    <t>에스오에스랩</t>
-  </si>
-  <si>
     <t>디비금융스팩12호</t>
   </si>
   <si>
@@ -79,9 +85,6 @@
     <t>에이치브이엠(구.한국진공야금)</t>
   </si>
   <si>
-    <t>하스</t>
-  </si>
-  <si>
     <t>미래에셋비전스팩4호</t>
   </si>
   <si>
@@ -91,7 +94,10 @@
     <t>KB스팩28호</t>
   </si>
   <si>
-    <t>아이씨티케이</t>
+    <t>2024.06.13~06.19</t>
+  </si>
+  <si>
+    <t>2024.06.10~06.11</t>
   </si>
   <si>
     <t>2024.06.07~06.13</t>
@@ -103,18 +109,15 @@
     <t>2024.06.04~06.05</t>
   </si>
   <si>
+    <t>2024.06.03~06.10</t>
+  </si>
+  <si>
     <t>2024.06.03~06.04</t>
   </si>
   <si>
-    <t>2024.06.03~06.10</t>
-  </si>
-  <si>
     <t>2024.05.31~06.07</t>
   </si>
   <si>
-    <t>2024.05.28~06.03</t>
-  </si>
-  <si>
     <t>2024.05.28~05.29</t>
   </si>
   <si>
@@ -127,9 +130,6 @@
     <t>2024.05.22~05.28</t>
   </si>
   <si>
-    <t>2024.05.16~05.22</t>
-  </si>
-  <si>
     <t>2024.05.13~05.14</t>
   </si>
   <si>
@@ -139,13 +139,16 @@
     <t>2024.04.29~04.30</t>
   </si>
   <si>
-    <t>2024.04.24~04.30</t>
+    <t>9,000~12,000</t>
+  </si>
+  <si>
+    <t>2,000~2,000</t>
   </si>
   <si>
     <t>4,500~5,500</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
+    <t>7,500~9,000</t>
   </si>
   <si>
     <t>6,200~7,700</t>
@@ -154,9 +157,6 @@
     <t>29,000~35,000</t>
   </si>
   <si>
-    <t>7,500~9,000</t>
-  </si>
-  <si>
     <t>10,500~14,000</t>
   </si>
   <si>
@@ -172,15 +172,9 @@
     <t>11,000~14,200</t>
   </si>
   <si>
-    <t>9,000~12,000</t>
-  </si>
-  <si>
     <t>8,700~11,000</t>
   </si>
   <si>
-    <t>13,000~16,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -190,7 +184,10 @@
     <t>2000</t>
   </si>
   <si>
-    <t>20000</t>
+    <t>16290</t>
+  </si>
+  <si>
+    <t>12500</t>
   </si>
   <si>
     <t>15300</t>
@@ -202,6 +199,9 @@
     <t>12000</t>
   </si>
   <si>
+    <t>15000</t>
+  </si>
+  <si>
     <t>9500</t>
   </si>
   <si>
@@ -214,9 +214,6 @@
     <t>17400</t>
   </si>
   <si>
-    <t>15000</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -235,13 +232,10 @@
     <t>26400</t>
   </si>
   <si>
-    <t>16290</t>
-  </si>
-  <si>
     <t>16800</t>
   </si>
   <si>
-    <t>25610</t>
+    <t>삼성증권</t>
   </si>
   <si>
     <t>한국투자증권</t>
@@ -260,9 +254,6 @@
   </si>
   <si>
     <t>DB금융투자</t>
-  </si>
-  <si>
-    <t>삼성증권</t>
   </si>
   <si>
     <t>미래에셋증권,신한투자증권</t>
@@ -660,16 +651,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -680,16 +671,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -703,13 +694,13 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -717,19 +708,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -737,19 +728,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -757,19 +748,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -777,19 +768,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -797,19 +788,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -820,16 +811,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -837,19 +828,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -857,19 +848,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -880,16 +871,16 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -900,16 +891,16 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -920,16 +911,16 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -940,16 +931,16 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -957,19 +948,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -977,19 +968,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -997,19 +988,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1017,19 +1008,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1037,19 +1028,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -178,10 +178,10 @@
     <t>-</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>14000</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>16290</t>
@@ -757,7 +757,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -994,7 +994,7 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>53</v>
@@ -1014,7 +1014,7 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>72</v>
@@ -1034,7 +1034,7 @@
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
         <v>66</v>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>종목명</t>
   </si>
@@ -64,6 +64,9 @@
     <t>엑셀세라퓨틱스</t>
   </si>
   <si>
+    <t>시프트업</t>
+  </si>
+  <si>
     <t>이노그리드</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>노브랜드</t>
   </si>
   <si>
-    <t>KB스팩28호</t>
-  </si>
-  <si>
     <t>2024.06.13~06.19</t>
   </si>
   <si>
@@ -115,6 +115,9 @@
     <t>2024.06.03~06.04</t>
   </si>
   <si>
+    <t>2024.06.03~06.13</t>
+  </si>
+  <si>
     <t>2024.05.31~06.07</t>
   </si>
   <si>
@@ -136,9 +139,6 @@
     <t>2024.04.30~05.08</t>
   </si>
   <si>
-    <t>2024.04.29~04.30</t>
-  </si>
-  <si>
     <t>9,000~12,000</t>
   </si>
   <si>
@@ -154,6 +154,9 @@
     <t>6,200~7,700</t>
   </si>
   <si>
+    <t>47,000~60,000</t>
+  </si>
+  <si>
     <t>29,000~35,000</t>
   </si>
   <si>
@@ -211,6 +214,9 @@
     <t>10032</t>
   </si>
   <si>
+    <t>340750</t>
+  </si>
+  <si>
     <t>17400</t>
   </si>
   <si>
@@ -251,6 +257,9 @@
   </si>
   <si>
     <t>대신증권</t>
+  </si>
+  <si>
+    <t>한국투자증권,NH투자증권,신한투자증권</t>
   </si>
   <si>
     <t>DB금융투자</t>
@@ -654,13 +663,13 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -674,13 +683,13 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -694,13 +703,13 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -714,13 +723,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -734,13 +743,13 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -754,13 +763,13 @@
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -774,13 +783,13 @@
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -794,13 +803,13 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -814,13 +823,13 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -834,13 +843,13 @@
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -854,13 +863,13 @@
         <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -871,16 +880,16 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -891,16 +900,16 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -908,19 +917,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -934,13 +943,13 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -948,19 +957,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -974,13 +983,13 @@
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -991,16 +1000,16 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1011,16 +1020,16 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1031,16 +1040,16 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -34,6 +34,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>이엔셀</t>
+  </si>
+  <si>
     <t>하스</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>미래에셋비전스팩4호</t>
   </si>
   <si>
-    <t>노브랜드</t>
+    <t>2024.06.17~06.21</t>
   </si>
   <si>
     <t>2024.06.13~06.19</t>
@@ -136,7 +139,7 @@
     <t>2024.05.13~05.14</t>
   </si>
   <si>
-    <t>2024.04.30~05.08</t>
+    <t>13,600~15,300</t>
   </si>
   <si>
     <t>9,000~12,000</t>
@@ -175,33 +178,33 @@
     <t>11,000~14,200</t>
   </si>
   <si>
-    <t>8,700~11,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
+    <t>21308</t>
+  </si>
+  <si>
+    <t>16290</t>
+  </si>
+  <si>
+    <t>12500</t>
+  </si>
+  <si>
+    <t>15300</t>
+  </si>
+  <si>
+    <t>12900</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
     <t>14000</t>
   </si>
   <si>
-    <t>16290</t>
-  </si>
-  <si>
-    <t>12500</t>
-  </si>
-  <si>
-    <t>15300</t>
-  </si>
-  <si>
-    <t>12900</t>
-  </si>
-  <si>
-    <t>12000</t>
-  </si>
-  <si>
     <t>15000</t>
   </si>
   <si>
@@ -238,7 +241,7 @@
     <t>26400</t>
   </si>
   <si>
-    <t>16800</t>
+    <t>NH투자증권</t>
   </si>
   <si>
     <t>삼성증권</t>
@@ -266,9 +269,6 @@
   </si>
   <si>
     <t>미래에셋증권,신한투자증권</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,7 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>75</v>
@@ -686,7 +686,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
         <v>76</v>
@@ -706,10 +706,10 @@
         <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -720,13 +720,13 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
         <v>77</v>
@@ -740,13 +740,13 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
         <v>78</v>
@@ -757,16 +757,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
         <v>79</v>
@@ -780,7 +780,7 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -789,7 +789,7 @@
         <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -800,7 +800,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
@@ -817,10 +817,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
@@ -829,7 +829,7 @@
         <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -837,10 +837,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
@@ -849,7 +849,7 @@
         <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -857,7 +857,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -889,7 +889,7 @@
         <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -900,7 +900,7 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -909,7 +909,7 @@
         <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -920,7 +920,7 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
@@ -929,7 +929,7 @@
         <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -937,7 +937,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
@@ -949,7 +949,7 @@
         <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -969,7 +969,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -977,7 +977,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
@@ -989,7 +989,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1020,16 +1020,16 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1040,16 +1040,16 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -40,6 +40,12 @@
     <t>하스</t>
   </si>
   <si>
+    <t>에이치브이엠(구.한국진공야금)</t>
+  </si>
+  <si>
+    <t>이노스페이스</t>
+  </si>
+  <si>
     <t>한국스팩15호</t>
   </si>
   <si>
@@ -85,12 +91,6 @@
     <t>그리드위즈</t>
   </si>
   <si>
-    <t>이노스페이스</t>
-  </si>
-  <si>
-    <t>에이치브이엠(구.한국진공야금)</t>
-  </si>
-  <si>
     <t>미래에셋비전스팩4호</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
     <t>2024.06.13~06.19</t>
   </si>
   <si>
+    <t>2024.06.11~06.17</t>
+  </si>
+  <si>
     <t>2024.06.10~06.11</t>
   </si>
   <si>
@@ -133,9 +136,6 @@
     <t>2024.05.23~05.29</t>
   </si>
   <si>
-    <t>2024.05.22~05.28</t>
-  </si>
-  <si>
     <t>2024.05.13~05.14</t>
   </si>
   <si>
@@ -145,6 +145,12 @@
     <t>9,000~12,000</t>
   </si>
   <si>
+    <t>11,000~14,200</t>
+  </si>
+  <si>
+    <t>36,400~43,300</t>
+  </si>
+  <si>
     <t>2,000~2,000</t>
   </si>
   <si>
@@ -172,12 +178,6 @@
     <t>34,000~40,000</t>
   </si>
   <si>
-    <t>36,400~45,600</t>
-  </si>
-  <si>
-    <t>11,000~14,200</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -190,6 +190,12 @@
     <t>16290</t>
   </si>
   <si>
+    <t>26400</t>
+  </si>
+  <si>
+    <t>48412</t>
+  </si>
+  <si>
     <t>12500</t>
   </si>
   <si>
@@ -235,18 +241,15 @@
     <t>47600</t>
   </si>
   <si>
-    <t>48412</t>
-  </si>
-  <si>
-    <t>26400</t>
-  </si>
-  <si>
     <t>NH투자증권</t>
   </si>
   <si>
     <t>삼성증권</t>
   </si>
   <si>
+    <t>미래에셋증권,신한투자증권</t>
+  </si>
+  <si>
     <t>한국투자증권</t>
   </si>
   <si>
@@ -266,9 +269,6 @@
   </si>
   <si>
     <t>DB금융투자</t>
-  </si>
-  <si>
-    <t>미래에셋증권,신한투자증권</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -717,7 +717,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -737,10 +737,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -757,10 +757,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -769,7 +769,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -780,7 +780,7 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -789,7 +789,7 @@
         <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -809,7 +809,7 @@
         <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -817,10 +817,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
@@ -829,7 +829,7 @@
         <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -840,7 +840,7 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
@@ -849,7 +849,7 @@
         <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -857,10 +857,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
@@ -869,7 +869,7 @@
         <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -880,7 +880,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -889,7 +889,7 @@
         <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -897,7 +897,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
@@ -909,7 +909,7 @@
         <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -917,10 +917,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
@@ -937,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
@@ -949,7 +949,7 @@
         <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -960,7 +960,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>54</v>
@@ -969,7 +969,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -989,7 +989,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1009,7 +1009,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1029,7 +1029,7 @@
         <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1040,7 +1040,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>55</v>
@@ -1049,7 +1049,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>종목명</t>
   </si>
@@ -34,6 +34,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>이베스트스팩6호</t>
+  </si>
+  <si>
     <t>이엔셀</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>이노그리드</t>
   </si>
   <si>
+    <t>한중엔시에스</t>
+  </si>
+  <si>
     <t>디비금융스팩12호</t>
   </si>
   <si>
@@ -88,10 +94,7 @@
     <t>라메디텍</t>
   </si>
   <si>
-    <t>그리드위즈</t>
-  </si>
-  <si>
-    <t>미래에셋비전스팩4호</t>
+    <t>2024.06.27~06.28</t>
   </si>
   <si>
     <t>2024.06.17~06.21</t>
@@ -127,16 +130,16 @@
     <t>2024.05.31~06.07</t>
   </si>
   <si>
+    <t>2024.05.30~06.05</t>
+  </si>
+  <si>
     <t>2024.05.28~05.29</t>
   </si>
   <si>
     <t>2024.05.27~05.31</t>
   </si>
   <si>
-    <t>2024.05.23~05.29</t>
-  </si>
-  <si>
-    <t>2024.05.13~05.14</t>
+    <t>2,000~2,000</t>
   </si>
   <si>
     <t>13,600~15,300</t>
@@ -151,9 +154,6 @@
     <t>36,400~43,300</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>4,500~5,500</t>
   </si>
   <si>
@@ -169,76 +169,19 @@
     <t>29,000~35,000</t>
   </si>
   <si>
+    <t>20,000~23,500</t>
+  </si>
+  <si>
     <t>10,500~14,000</t>
   </si>
   <si>
     <t>10,400~12,700</t>
   </si>
   <si>
-    <t>34,000~40,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>21308</t>
-  </si>
-  <si>
-    <t>16290</t>
-  </si>
-  <si>
-    <t>26400</t>
-  </si>
-  <si>
-    <t>48412</t>
-  </si>
-  <si>
-    <t>12500</t>
-  </si>
-  <si>
-    <t>15300</t>
-  </si>
-  <si>
-    <t>12900</t>
-  </si>
-  <si>
-    <t>12000</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>9500</t>
-  </si>
-  <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>10032</t>
-  </si>
-  <si>
-    <t>340750</t>
-  </si>
-  <si>
-    <t>17400</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>13650</t>
-  </si>
-  <si>
-    <t>13499</t>
-  </si>
-  <si>
-    <t>47600</t>
+    <t>이베스트 투자증권</t>
   </si>
   <si>
     <t>NH투자증권</t>
@@ -266,6 +209,9 @@
   </si>
   <si>
     <t>한국투자증권,NH투자증권,신한투자증권</t>
+  </si>
+  <si>
+    <t>IBK투자증권</t>
   </si>
   <si>
     <t>DB금융투자</t>
@@ -665,11 +611,11 @@
       <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
-        <v>56</v>
+      <c r="E2">
+        <v>8000</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -685,11 +631,11 @@
       <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
-        <v>57</v>
+      <c r="E3">
+        <v>21308</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -705,11 +651,11 @@
       <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
-        <v>58</v>
+      <c r="E4">
+        <v>16290</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -717,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -725,11 +671,11 @@
       <c r="D5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
-        <v>59</v>
+      <c r="E5">
+        <v>26400</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -745,11 +691,11 @@
       <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" t="s">
-        <v>60</v>
+      <c r="E6">
+        <v>48412</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -760,16 +706,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
-        <v>61</v>
+      <c r="E7">
+        <v>12500</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -780,16 +726,16 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
-        <v>62</v>
+      <c r="E8">
+        <v>15300</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -800,16 +746,16 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
-        <v>63</v>
+      <c r="E9">
+        <v>12900</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -817,19 +763,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
-        <v>64</v>
+      <c r="E10">
+        <v>12000</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -840,16 +786,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" t="s">
-        <v>65</v>
+      <c r="E11">
+        <v>14000</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -860,16 +806,16 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>66</v>
+      <c r="E12">
+        <v>15000</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -877,19 +823,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
-        <v>67</v>
+      <c r="E13">
+        <v>9500</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -897,19 +843,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
-        <v>68</v>
+      <c r="E14">
+        <v>8000</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -917,19 +863,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
-        <v>69</v>
+      <c r="E15">
+        <v>10032</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -940,16 +886,16 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
-        <v>70</v>
+      <c r="E16">
+        <v>340750</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -960,16 +906,16 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
-        <v>71</v>
+      <c r="E17">
+        <v>17400</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -985,11 +931,11 @@
       <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
-        <v>72</v>
+      <c r="E18">
+        <v>32000</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -997,19 +943,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="E19" t="s">
-        <v>73</v>
+      <c r="E19">
+        <v>10000</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1017,19 +963,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s">
-        <v>74</v>
+      <c r="E20">
+        <v>13650</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1040,16 +986,16 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>13499</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>종목명</t>
   </si>
@@ -40,6 +40,9 @@
     <t>이엔셀</t>
   </si>
   <si>
+    <t>이노그리드</t>
+  </si>
+  <si>
     <t>하스</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
     <t>시프트업</t>
   </si>
   <si>
-    <t>이노그리드</t>
-  </si>
-  <si>
     <t>한중엔시에스</t>
   </si>
   <si>
@@ -127,9 +127,6 @@
     <t>2024.06.03~06.13</t>
   </si>
   <si>
-    <t>2024.05.31~06.07</t>
-  </si>
-  <si>
     <t>2024.05.30~06.05</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
     <t>13,600~15,300</t>
   </si>
   <si>
+    <t>29,000~35,000</t>
+  </si>
+  <si>
     <t>9,000~12,000</t>
   </si>
   <si>
@@ -166,9 +166,6 @@
     <t>47,000~60,000</t>
   </si>
   <si>
-    <t>29,000~35,000</t>
-  </si>
-  <si>
     <t>20,000~23,500</t>
   </si>
   <si>
@@ -187,13 +184,13 @@
     <t>NH투자증권</t>
   </si>
   <si>
+    <t>한국투자증권</t>
+  </si>
+  <si>
     <t>삼성증권</t>
   </si>
   <si>
     <t>미래에셋증권,신한투자증권</t>
-  </si>
-  <si>
-    <t>한국투자증권</t>
   </si>
   <si>
     <t>미래에셋증권</t>
@@ -606,16 +603,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>8000</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -626,16 +623,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>21308</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -646,16 +643,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>16290</v>
+        <v>17400</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -663,19 +660,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5">
-        <v>26400</v>
+        <v>16290</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -686,16 +683,16 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>48412</v>
+        <v>26400</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -703,19 +700,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7">
-        <v>12500</v>
+        <v>48412</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -723,19 +720,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8">
-        <v>15300</v>
+        <v>12500</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -743,19 +740,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9">
-        <v>12900</v>
+        <v>15300</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -763,19 +760,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10">
-        <v>12000</v>
+        <v>12900</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -786,16 +783,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -803,19 +800,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -823,19 +820,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -846,13 +843,13 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -863,19 +860,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15">
-        <v>10032</v>
+        <v>8000</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -883,19 +880,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16">
-        <v>340750</v>
+        <v>10032</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -903,19 +900,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17">
-        <v>17400</v>
+        <v>340750</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -923,19 +920,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>32000</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -943,19 +940,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>10000</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -963,19 +960,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20">
         <v>13650</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -983,19 +980,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>13499</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>종목명</t>
   </si>
@@ -82,6 +82,9 @@
     <t>시프트업</t>
   </si>
   <si>
+    <t>신한글로벌액티브</t>
+  </si>
+  <si>
     <t>한중엔시에스</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>씨어스테크놀로지</t>
   </si>
   <si>
-    <t>라메디텍</t>
-  </si>
-  <si>
     <t>2024.06.27~06.28</t>
   </si>
   <si>
@@ -127,6 +127,9 @@
     <t>2024.06.03~06.13</t>
   </si>
   <si>
+    <t>2024.06.03~06.05</t>
+  </si>
+  <si>
     <t>2024.05.30~06.05</t>
   </si>
   <si>
@@ -166,15 +169,15 @@
     <t>47,000~60,000</t>
   </si>
   <si>
+    <t>3,000~3,800</t>
+  </si>
+  <si>
     <t>20,000~23,500</t>
   </si>
   <si>
     <t>10,500~14,000</t>
   </si>
   <si>
-    <t>10,400~12,700</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>한국투자증권,NH투자증권,신한투자증권</t>
+  </si>
+  <si>
+    <t>신한투자증권,한국투자증권</t>
   </si>
   <si>
     <t>IBK투자증권</t>
@@ -603,16 +609,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>8000</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -623,16 +629,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>21308</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -643,16 +649,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>17400</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -663,16 +669,16 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>16290</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -683,16 +689,16 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>26400</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -703,16 +709,16 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>48412</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -723,16 +729,16 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>12500</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -743,16 +749,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>15300</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -763,16 +769,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>12900</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -783,16 +789,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>12000</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -803,16 +809,16 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>14000</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -823,16 +829,16 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>15000</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -843,16 +849,16 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>9500</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -863,16 +869,16 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>8000</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -883,16 +889,16 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>10032</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -903,16 +909,16 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>340750</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -923,16 +929,16 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18">
-        <v>32000</v>
+        <v>70000</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -943,16 +949,16 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -963,16 +969,16 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
-        <v>13650</v>
+        <v>10000</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -980,19 +986,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21">
-        <v>13499</v>
+        <v>13650</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
   <si>
     <t>종목명</t>
   </si>
@@ -79,7 +79,7 @@
     <t>엑셀세라퓨틱스</t>
   </si>
   <si>
-    <t>시프트업</t>
+    <t>시프트업(유가)</t>
   </si>
   <si>
     <t>신한글로벌액티브</t>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
   <si>
     <t>이베스트 투자증권</t>
@@ -618,7 +621,7 @@
         <v>8000</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -638,7 +641,7 @@
         <v>21308</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -658,7 +661,7 @@
         <v>17400</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -678,7 +681,7 @@
         <v>16290</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -698,7 +701,7 @@
         <v>26400</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -718,7 +721,7 @@
         <v>48412</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -738,7 +741,7 @@
         <v>12500</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -758,7 +761,7 @@
         <v>15300</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -778,7 +781,7 @@
         <v>12900</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -798,7 +801,7 @@
         <v>12000</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -818,7 +821,7 @@
         <v>14000</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -838,7 +841,7 @@
         <v>15000</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -858,7 +861,7 @@
         <v>9500</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -878,7 +881,7 @@
         <v>8000</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -898,7 +901,7 @@
         <v>10032</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +921,7 @@
         <v>340750</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +941,7 @@
         <v>70000</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +961,7 @@
         <v>32000</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,13 +975,13 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>10000</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,7 +1001,7 @@
         <v>13650</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -34,6 +34,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>아이빔테크놀로지</t>
+  </si>
+  <si>
     <t>이베스트스팩6호</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>디비금융스팩12호</t>
   </si>
   <si>
-    <t>씨어스테크놀로지</t>
+    <t>2024.07.15~07.19</t>
   </si>
   <si>
     <t>2024.06.27~06.28</t>
@@ -136,7 +139,7 @@
     <t>2024.05.28~05.29</t>
   </si>
   <si>
-    <t>2024.05.27~05.31</t>
+    <t>7,300~8,500</t>
   </si>
   <si>
     <t>2,000~2,000</t>
@@ -175,15 +178,15 @@
     <t>20,000~23,500</t>
   </si>
   <si>
-    <t>10,500~14,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
     <t>이베스트 투자증권</t>
   </si>
   <si>
@@ -191,9 +194,6 @@
   </si>
   <si>
     <t>한국투자증권</t>
-  </si>
-  <si>
-    <t>삼성증권</t>
   </si>
   <si>
     <t>미래에셋증권,신한투자증권</t>
@@ -618,7 +618,7 @@
         <v>54</v>
       </c>
       <c r="E2">
-        <v>8000</v>
+        <v>16308</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -638,7 +638,7 @@
         <v>54</v>
       </c>
       <c r="E3">
-        <v>21308</v>
+        <v>8000</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
@@ -658,7 +658,7 @@
         <v>54</v>
       </c>
       <c r="E4">
-        <v>17400</v>
+        <v>21308</v>
       </c>
       <c r="F4" t="s">
         <v>58</v>
@@ -669,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -678,7 +678,7 @@
         <v>54</v>
       </c>
       <c r="E5">
-        <v>16290</v>
+        <v>17400</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -698,10 +698,10 @@
         <v>54</v>
       </c>
       <c r="E6">
-        <v>26400</v>
+        <v>16290</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -709,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -718,10 +718,10 @@
         <v>54</v>
       </c>
       <c r="E7">
-        <v>48412</v>
+        <v>26400</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -732,16 +732,16 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
       </c>
       <c r="E8">
-        <v>12500</v>
+        <v>48412</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -752,16 +752,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
       <c r="E9">
-        <v>15300</v>
+        <v>12500</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -772,16 +772,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
       </c>
       <c r="E10">
-        <v>12900</v>
+        <v>15300</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -792,16 +792,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
       </c>
       <c r="E11">
-        <v>12000</v>
+        <v>12900</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -809,19 +809,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
       </c>
       <c r="E12">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -832,16 +832,16 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
       </c>
       <c r="E13">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -852,16 +852,16 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -869,19 +869,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
       </c>
       <c r="E15">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -889,19 +889,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
       </c>
       <c r="E16">
-        <v>10032</v>
+        <v>8000</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +909,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -918,10 +918,10 @@
         <v>54</v>
       </c>
       <c r="E17">
-        <v>340750</v>
+        <v>10032</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,10 +938,10 @@
         <v>54</v>
       </c>
       <c r="E18">
-        <v>70000</v>
+        <v>340750</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,10 +958,10 @@
         <v>54</v>
       </c>
       <c r="E19">
-        <v>32000</v>
+        <v>70000</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,16 +972,16 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -992,16 +992,16 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
-        <v>13650</v>
+        <v>10000</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -187,7 +187,7 @@
     <t>삼성증권</t>
   </si>
   <si>
-    <t>이베스트 투자증권</t>
+    <t>엘에스증권</t>
   </si>
   <si>
     <t>NH투자증권</t>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>종목명</t>
   </si>
@@ -40,6 +40,12 @@
     <t>이베스트스팩6호</t>
   </si>
   <si>
+    <t>엑셀세라퓨틱스</t>
+  </si>
+  <si>
+    <t>피앤에스미캐닉스</t>
+  </si>
+  <si>
     <t>이엔셀</t>
   </si>
   <si>
@@ -79,9 +85,6 @@
     <t>한국스팩14호</t>
   </si>
   <si>
-    <t>엑셀세라퓨틱스</t>
-  </si>
-  <si>
     <t>시프트업(유가)</t>
   </si>
   <si>
@@ -91,15 +94,15 @@
     <t>한중엔시에스</t>
   </si>
   <si>
-    <t>디비금융스팩12호</t>
-  </si>
-  <si>
     <t>2024.07.15~07.19</t>
   </si>
   <si>
     <t>2024.06.27~06.28</t>
   </si>
   <si>
+    <t>2024.06.24~06.28</t>
+  </si>
+  <si>
     <t>2024.06.17~06.21</t>
   </si>
   <si>
@@ -127,7 +130,7 @@
     <t>2024.06.03~06.04</t>
   </si>
   <si>
-    <t>2024.06.03~06.13</t>
+    <t>2024.06.03~06.27</t>
   </si>
   <si>
     <t>2024.06.03~06.05</t>
@@ -136,15 +139,18 @@
     <t>2024.05.30~06.05</t>
   </si>
   <si>
-    <t>2024.05.28~05.29</t>
-  </si>
-  <si>
     <t>7,300~8,500</t>
   </si>
   <si>
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>6,200~7,700</t>
+  </si>
+  <si>
+    <t>14,000~17,000</t>
+  </si>
+  <si>
     <t>13,600~15,300</t>
   </si>
   <si>
@@ -166,9 +172,6 @@
     <t>7,500~9,000</t>
   </si>
   <si>
-    <t>6,200~7,700</t>
-  </si>
-  <si>
     <t>47,000~60,000</t>
   </si>
   <si>
@@ -190,6 +193,12 @@
     <t>엘에스증권</t>
   </si>
   <si>
+    <t>대신증권</t>
+  </si>
+  <si>
+    <t>키움증권</t>
+  </si>
+  <si>
     <t>NH투자증권</t>
   </si>
   <si>
@@ -208,9 +217,6 @@
     <t>현대차증권</t>
   </si>
   <si>
-    <t>대신증권</t>
-  </si>
-  <si>
     <t>한국투자증권,NH투자증권,신한투자증권</t>
   </si>
   <si>
@@ -218,9 +224,6 @@
   </si>
   <si>
     <t>IBK투자증권</t>
-  </si>
-  <si>
-    <t>DB금융투자</t>
   </si>
 </sst>
 </file>
@@ -615,13 +618,13 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>16308</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -635,13 +638,13 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>8000</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -655,13 +658,13 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>21308</v>
+        <v>10032</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -669,19 +672,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>17400</v>
+        <v>18900</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -695,13 +698,13 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>16290</v>
+        <v>21308</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -715,13 +718,13 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>26400</v>
+        <v>17400</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -735,13 +738,13 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>48412</v>
+        <v>16290</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -752,16 +755,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>12500</v>
+        <v>26400</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -769,19 +772,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>15300</v>
+        <v>48412</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -789,19 +792,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -809,16 +812,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12">
-        <v>12000</v>
+        <v>15300</v>
       </c>
       <c r="F12" t="s">
         <v>62</v>
@@ -835,13 +838,13 @@
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13">
-        <v>14000</v>
+        <v>12900</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -852,16 +855,16 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -869,19 +872,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -892,16 +895,16 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17">
-        <v>10032</v>
+        <v>9500</v>
       </c>
       <c r="F17" t="s">
         <v>64</v>
@@ -932,16 +935,16 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E18">
-        <v>340750</v>
+        <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,13 +958,13 @@
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19">
-        <v>70000</v>
+        <v>340750</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,13 +978,13 @@
         <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20">
-        <v>32000</v>
+        <v>70000</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -992,16 +995,16 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>55</v>
       </c>
       <c r="E21">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t>종목명</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>30000</t>
   </si>
   <si>
     <t>삼성증권</t>
@@ -624,7 +627,7 @@
         <v>16308</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -644,7 +647,7 @@
         <v>8000</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -664,7 +667,7 @@
         <v>10032</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -684,7 +687,7 @@
         <v>18900</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -704,7 +707,7 @@
         <v>21308</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -724,7 +727,7 @@
         <v>17400</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -744,7 +747,7 @@
         <v>16290</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -764,7 +767,7 @@
         <v>26400</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -784,7 +787,7 @@
         <v>48412</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -804,7 +807,7 @@
         <v>12500</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -824,7 +827,7 @@
         <v>15300</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -844,7 +847,7 @@
         <v>12900</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -864,7 +867,7 @@
         <v>12000</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -878,13 +881,13 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>14000</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -904,7 +907,7 @@
         <v>15000</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,13 +921,13 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>9500</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,7 +947,7 @@
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,7 +967,7 @@
         <v>340750</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,7 +987,7 @@
         <v>70000</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,13 +1001,13 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>32000</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>종목명</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>3000</t>
   </si>
   <si>
     <t>30000</t>
@@ -627,7 +630,7 @@
         <v>16308</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -647,7 +650,7 @@
         <v>8000</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -667,7 +670,7 @@
         <v>10032</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -687,7 +690,7 @@
         <v>18900</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -707,7 +710,7 @@
         <v>21308</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -727,7 +730,7 @@
         <v>17400</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -747,7 +750,7 @@
         <v>16290</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -767,7 +770,7 @@
         <v>26400</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -787,7 +790,7 @@
         <v>48412</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -807,7 +810,7 @@
         <v>12500</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -827,7 +830,7 @@
         <v>15300</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -847,7 +850,7 @@
         <v>12900</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -861,13 +864,13 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>12000</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -887,7 +890,7 @@
         <v>14000</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -907,7 +910,7 @@
         <v>15000</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,7 +930,7 @@
         <v>9500</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,7 +950,7 @@
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,7 +970,7 @@
         <v>340750</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,13 +984,13 @@
         <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>70000</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,13 +1004,13 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>32000</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,12 @@
     <t>아이빔테크놀로지</t>
   </si>
   <si>
+    <t>키움스팩9호</t>
+  </si>
+  <si>
+    <t>넥스트바이오메디컬</t>
+  </si>
+  <si>
     <t>이베스트스팩6호</t>
   </si>
   <si>
@@ -88,15 +94,15 @@
     <t>시프트업(유가)</t>
   </si>
   <si>
-    <t>신한글로벌액티브</t>
-  </si>
-  <si>
-    <t>한중엔시에스</t>
-  </si>
-  <si>
     <t>2024.07.15~07.19</t>
   </si>
   <si>
+    <t>2024.07.02~07.03</t>
+  </si>
+  <si>
+    <t>2024.07.01~07.05</t>
+  </si>
+  <si>
     <t>2024.06.27~06.28</t>
   </si>
   <si>
@@ -133,18 +139,15 @@
     <t>2024.06.03~06.27</t>
   </si>
   <si>
-    <t>2024.06.03~06.05</t>
-  </si>
-  <si>
-    <t>2024.05.30~06.05</t>
-  </si>
-  <si>
     <t>7,300~8,500</t>
   </si>
   <si>
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>24,000~29,000</t>
+  </si>
+  <si>
     <t>6,200~7,700</t>
   </si>
   <si>
@@ -175,42 +178,30 @@
     <t>47,000~60,000</t>
   </si>
   <si>
-    <t>3,000~3,800</t>
-  </si>
-  <si>
-    <t>20,000~23,500</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
+    <t>키움증권</t>
+  </si>
+  <si>
+    <t>한국투자증권</t>
+  </si>
+  <si>
     <t>엘에스증권</t>
   </si>
   <si>
     <t>대신증권</t>
   </si>
   <si>
-    <t>키움증권</t>
-  </si>
-  <si>
     <t>NH투자증권</t>
   </si>
   <si>
-    <t>한국투자증권</t>
-  </si>
-  <si>
     <t>미래에셋증권,신한투자증권</t>
   </si>
   <si>
@@ -224,12 +215,6 @@
   </si>
   <si>
     <t>한국투자증권,NH투자증권,신한투자증권</t>
-  </si>
-  <si>
-    <t>신한투자증권,한국투자증권</t>
-  </si>
-  <si>
-    <t>IBK투자증권</t>
   </si>
 </sst>
 </file>
@@ -624,13 +609,13 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>16308</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -644,13 +629,13 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -664,13 +649,13 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4">
-        <v>10032</v>
+        <v>24000</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -678,19 +663,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5">
-        <v>18900</v>
+        <v>8000</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -698,19 +683,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6">
-        <v>21308</v>
+        <v>10032</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -721,16 +706,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7">
-        <v>17400</v>
+        <v>18900</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -738,19 +723,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8">
-        <v>16290</v>
+        <v>21308</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -758,19 +743,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9">
-        <v>26400</v>
+        <v>17400</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -778,19 +763,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10">
-        <v>48412</v>
+        <v>16290</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -798,19 +783,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11">
-        <v>12500</v>
+        <v>26400</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -824,13 +809,13 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12">
-        <v>15300</v>
+        <v>48412</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -844,13 +829,13 @@
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -861,16 +846,16 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14">
-        <v>12000</v>
+        <v>15300</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -878,19 +863,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>14000</v>
+        <v>12900</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -898,16 +883,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
       </c>
       <c r="E16">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="F16" t="s">
         <v>64</v>
@@ -924,13 +909,13 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,19 +923,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,19 +943,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
       </c>
       <c r="E19">
-        <v>340750</v>
+        <v>9500</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,16 +966,16 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20">
-        <v>70000</v>
+        <v>8000</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,16 +986,16 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E21">
-        <v>32000</v>
+        <v>340750</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>종목명</t>
   </si>
@@ -184,6 +184,9 @@
     <t>2000</t>
   </si>
   <si>
+    <t>11500</t>
+  </si>
+  <si>
     <t>삼성증권</t>
   </si>
   <si>
@@ -214,7 +217,7 @@
     <t>현대차증권</t>
   </si>
   <si>
-    <t>한국투자증권,NH투자증권,신한투자증권</t>
+    <t>한국투자.NH투자.신한투자증권</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
         <v>16308</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -635,7 +638,7 @@
         <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -655,7 +658,7 @@
         <v>24000</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -675,7 +678,7 @@
         <v>8000</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -695,7 +698,7 @@
         <v>10032</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -715,7 +718,7 @@
         <v>18900</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -735,7 +738,7 @@
         <v>21308</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -755,7 +758,7 @@
         <v>17400</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -775,7 +778,7 @@
         <v>16290</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -795,7 +798,7 @@
         <v>26400</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -815,7 +818,7 @@
         <v>48412</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -835,7 +838,7 @@
         <v>12500</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -855,7 +858,7 @@
         <v>15300</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -875,7 +878,7 @@
         <v>12900</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -895,7 +898,7 @@
         <v>12000</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,7 +918,7 @@
         <v>14000</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,13 +932,13 @@
         <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E18">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,7 +958,7 @@
         <v>9500</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,7 +978,7 @@
         <v>8000</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,7 +998,7 @@
         <v>340750</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>아이빔테크놀로지</t>
   </si>
   <si>
+    <t>뱅크웨어글로벌</t>
+  </si>
+  <si>
     <t>키움스팩9호</t>
   </si>
   <si>
@@ -91,12 +94,12 @@
     <t>한국스팩14호</t>
   </si>
   <si>
-    <t>시프트업(유가)</t>
-  </si>
-  <si>
     <t>2024.07.15~07.19</t>
   </si>
   <si>
+    <t>2024.07.08~07.12</t>
+  </si>
+  <si>
     <t>2024.07.02~07.03</t>
   </si>
   <si>
@@ -136,12 +139,12 @@
     <t>2024.06.03~06.04</t>
   </si>
   <si>
-    <t>2024.06.03~06.27</t>
-  </si>
-  <si>
     <t>7,300~8,500</t>
   </si>
   <si>
+    <t>16,000~19,000</t>
+  </si>
+  <si>
     <t>2,000~2,000</t>
   </si>
   <si>
@@ -175,9 +178,6 @@
     <t>7,500~9,000</t>
   </si>
   <si>
-    <t>47,000~60,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -190,6 +190,9 @@
     <t>삼성증권</t>
   </si>
   <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
     <t>키움증권</t>
   </si>
   <si>
@@ -208,16 +211,10 @@
     <t>미래에셋증권,신한투자증권</t>
   </si>
   <si>
-    <t>미래에셋증권</t>
-  </si>
-  <si>
     <t>KB증권</t>
   </si>
   <si>
     <t>현대차증권</t>
-  </si>
-  <si>
-    <t>한국투자.NH투자.신한투자증권</t>
   </si>
 </sst>
 </file>
@@ -635,7 +632,7 @@
         <v>54</v>
       </c>
       <c r="E3">
-        <v>6000</v>
+        <v>22400</v>
       </c>
       <c r="F3" t="s">
         <v>58</v>
@@ -655,7 +652,7 @@
         <v>54</v>
       </c>
       <c r="E4">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -669,13 +666,13 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
       </c>
       <c r="E5">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="F5" t="s">
         <v>60</v>
@@ -689,13 +686,13 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
       </c>
       <c r="E6">
-        <v>10032</v>
+        <v>8000</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -706,7 +703,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -715,10 +712,10 @@
         <v>54</v>
       </c>
       <c r="E7">
-        <v>18900</v>
+        <v>10032</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -735,10 +732,10 @@
         <v>54</v>
       </c>
       <c r="E8">
-        <v>21308</v>
+        <v>18900</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -755,10 +752,10 @@
         <v>54</v>
       </c>
       <c r="E9">
-        <v>17400</v>
+        <v>21308</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -766,7 +763,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>48</v>
@@ -775,10 +772,10 @@
         <v>54</v>
       </c>
       <c r="E10">
-        <v>16290</v>
+        <v>17400</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -795,10 +792,10 @@
         <v>54</v>
       </c>
       <c r="E11">
-        <v>26400</v>
+        <v>16290</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -806,7 +803,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -815,7 +812,7 @@
         <v>54</v>
       </c>
       <c r="E12">
-        <v>48412</v>
+        <v>26400</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -829,16 +826,16 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
       </c>
       <c r="E13">
-        <v>12500</v>
+        <v>48412</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -849,16 +846,16 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14">
-        <v>15300</v>
+        <v>12500</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -869,16 +866,16 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15">
-        <v>12900</v>
+        <v>15300</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -889,16 +886,16 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
       </c>
       <c r="E16">
-        <v>12000</v>
+        <v>12900</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -906,19 +903,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>55</v>
       </c>
       <c r="E17">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,16 +926,16 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,16 +946,16 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19">
-        <v>9500</v>
+        <v>23000</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -966,19 +963,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>55</v>
       </c>
       <c r="E20">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,16 +986,16 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
-        <v>340750</v>
+        <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,12 @@
     <t>아이빔테크놀로지</t>
   </si>
   <si>
+    <t>NH스팩31호</t>
+  </si>
+  <si>
+    <t>SK증권스팩13호</t>
+  </si>
+  <si>
     <t>뱅크웨어글로벌</t>
   </si>
   <si>
@@ -88,15 +94,12 @@
     <t>에스오에스랩</t>
   </si>
   <si>
-    <t>미래에셋비전스팩5호</t>
-  </si>
-  <si>
-    <t>한국스팩14호</t>
-  </si>
-  <si>
     <t>2024.07.15~07.19</t>
   </si>
   <si>
+    <t>2024.07.09~07.10</t>
+  </si>
+  <si>
     <t>2024.07.08~07.12</t>
   </si>
   <si>
@@ -136,18 +139,15 @@
     <t>2024.06.03~06.10</t>
   </si>
   <si>
-    <t>2024.06.03~06.04</t>
-  </si>
-  <si>
     <t>7,300~8,500</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>16,000~19,000</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>24,000~29,000</t>
   </si>
   <si>
@@ -181,6 +181,9 @@
     <t>-</t>
   </si>
   <si>
+    <t>7000</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
@@ -190,6 +193,12 @@
     <t>삼성증권</t>
   </si>
   <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
+    <t>SK증권</t>
+  </si>
+  <si>
     <t>미래에셋증권</t>
   </si>
   <si>
@@ -203,9 +212,6 @@
   </si>
   <si>
     <t>대신증권</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
   </si>
   <si>
     <t>미래에셋증권,신한투자증권</t>
@@ -615,7 +621,7 @@
         <v>16308</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -632,10 +638,10 @@
         <v>54</v>
       </c>
       <c r="E3">
-        <v>22400</v>
+        <v>12000</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -643,19 +649,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
       </c>
       <c r="E4">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -663,19 +669,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
       </c>
       <c r="E5">
-        <v>24000</v>
+        <v>22400</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -683,19 +689,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
       </c>
       <c r="E6">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -703,19 +709,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
       </c>
       <c r="E7">
-        <v>10032</v>
+        <v>24000</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -726,16 +732,16 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
       </c>
       <c r="E8">
-        <v>18900</v>
+        <v>8000</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -746,16 +752,16 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
       <c r="E9">
-        <v>21308</v>
+        <v>10032</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -763,19 +769,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
       </c>
       <c r="E10">
-        <v>17400</v>
+        <v>18900</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -786,16 +792,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
       </c>
       <c r="E11">
-        <v>16290</v>
+        <v>21308</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -806,13 +812,13 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
       </c>
       <c r="E12">
-        <v>26400</v>
+        <v>17400</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
@@ -826,16 +832,16 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
       </c>
       <c r="E13">
-        <v>48412</v>
+        <v>16290</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -846,16 +852,16 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
       </c>
       <c r="E14">
-        <v>12500</v>
+        <v>26400</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -863,19 +869,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
       </c>
       <c r="E15">
-        <v>15300</v>
+        <v>48412</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -883,19 +889,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -903,19 +909,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>55</v>
       </c>
       <c r="E17">
-        <v>12000</v>
+        <v>15300</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -926,16 +932,16 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18">
-        <v>14000</v>
+        <v>12900</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -946,16 +952,16 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
       </c>
       <c r="E19">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -963,19 +969,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -986,16 +992,16 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E21">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>종목명</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>18000</t>
   </si>
   <si>
     <t>7000</t>
@@ -621,7 +624,7 @@
         <v>16308</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -641,7 +644,7 @@
         <v>12000</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -661,7 +664,7 @@
         <v>8000</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -681,7 +684,7 @@
         <v>22400</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -701,7 +704,7 @@
         <v>6000</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -721,7 +724,7 @@
         <v>24000</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -741,7 +744,7 @@
         <v>8000</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -761,7 +764,7 @@
         <v>10032</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -781,7 +784,7 @@
         <v>18900</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -801,7 +804,7 @@
         <v>21308</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -821,7 +824,7 @@
         <v>17400</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -841,7 +844,7 @@
         <v>16290</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -855,13 +858,13 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>26400</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -881,7 +884,7 @@
         <v>48412</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -901,7 +904,7 @@
         <v>12500</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,13 +918,13 @@
         <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>15300</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -935,13 +938,13 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>12900</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,13 +958,13 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>12000</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,13 +978,13 @@
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>14000</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,13 +998,13 @@
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>23000</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t>종목명</t>
   </si>
@@ -64,9 +64,6 @@
     <t>이엔셀</t>
   </si>
   <si>
-    <t>이노그리드</t>
-  </si>
-  <si>
     <t>하스</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
     <t>에스오에스랩</t>
   </si>
   <si>
+    <t>미래에셋비전스팩5호</t>
+  </si>
+  <si>
     <t>2024.07.15~07.19</t>
   </si>
   <si>
@@ -139,6 +139,9 @@
     <t>2024.06.03~06.10</t>
   </si>
   <si>
+    <t>2024.06.03~06.04</t>
+  </si>
+  <si>
     <t>7,300~8,500</t>
   </si>
   <si>
@@ -160,9 +163,6 @@
     <t>13,600~15,300</t>
   </si>
   <si>
-    <t>29,000~35,000</t>
-  </si>
-  <si>
     <t>9,000~12,000</t>
   </si>
   <si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>18000</t>
+  </si>
+  <si>
+    <t>43300</t>
   </si>
   <si>
     <t>7000</t>
@@ -615,7 +618,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -624,7 +627,7 @@
         <v>16308</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -635,7 +638,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -644,7 +647,7 @@
         <v>12000</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -655,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
@@ -664,7 +667,7 @@
         <v>8000</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -675,7 +678,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
@@ -684,7 +687,7 @@
         <v>22400</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -695,7 +698,7 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -704,7 +707,7 @@
         <v>6000</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -715,7 +718,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -724,7 +727,7 @@
         <v>24000</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -735,7 +738,7 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -744,7 +747,7 @@
         <v>8000</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -755,7 +758,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
@@ -764,7 +767,7 @@
         <v>10032</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -775,7 +778,7 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
@@ -784,7 +787,7 @@
         <v>18900</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -795,7 +798,7 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
@@ -804,7 +807,7 @@
         <v>21308</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -815,16 +818,16 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
       </c>
       <c r="E12">
-        <v>17400</v>
+        <v>16290</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -832,19 +835,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13">
-        <v>16290</v>
+        <v>26400</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -855,16 +858,16 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14">
-        <v>26400</v>
+        <v>48412</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -872,19 +875,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
       </c>
       <c r="E15">
-        <v>48412</v>
+        <v>12500</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -892,19 +895,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E16">
-        <v>12500</v>
+        <v>15300</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -912,19 +915,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17">
-        <v>15300</v>
+        <v>12900</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -932,19 +935,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18">
-        <v>12900</v>
+        <v>12000</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,16 +958,16 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,19 +975,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -992,19 +995,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
         <v>58</v>
       </c>
       <c r="E21">
-        <v>23000</v>
+        <v>9500</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>아이빔테크놀로지</t>
   </si>
   <si>
+    <t>티디에스팜</t>
+  </si>
+  <si>
     <t>NH스팩31호</t>
   </si>
   <si>
@@ -91,12 +94,12 @@
     <t>에스오에스랩</t>
   </si>
   <si>
-    <t>미래에셋비전스팩5호</t>
-  </si>
-  <si>
     <t>2024.07.15~07.19</t>
   </si>
   <si>
+    <t>2024.07.10~07.16</t>
+  </si>
+  <si>
     <t>2024.07.09~07.10</t>
   </si>
   <si>
@@ -139,12 +142,12 @@
     <t>2024.06.03~06.10</t>
   </si>
   <si>
-    <t>2024.06.03~06.04</t>
-  </si>
-  <si>
     <t>7,300~8,500</t>
   </si>
   <si>
+    <t>9,500~10,700</t>
+  </si>
+  <si>
     <t>2,000~2,000</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
     <t>-</t>
   </si>
   <si>
+    <t>16000</t>
+  </si>
+  <si>
     <t>18000</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
     <t>삼성증권</t>
   </si>
   <si>
+    <t>한국투자증권</t>
+  </si>
+  <si>
     <t>NH투자증권</t>
   </si>
   <si>
@@ -209,9 +218,6 @@
   </si>
   <si>
     <t>키움증권</t>
-  </si>
-  <si>
-    <t>한국투자증권</t>
   </si>
   <si>
     <t>엘에스증권</t>
@@ -621,13 +627,13 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>16308</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -641,13 +647,13 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -655,19 +661,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -681,13 +687,13 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>22400</v>
+        <v>8000</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -698,16 +704,16 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>6000</v>
+        <v>22400</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -718,16 +724,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -738,16 +744,16 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -758,16 +764,16 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>10032</v>
+        <v>8000</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -775,19 +781,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>18900</v>
+        <v>10032</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -801,13 +807,13 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11">
-        <v>21308</v>
+        <v>18900</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -821,13 +827,13 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12">
-        <v>16290</v>
+        <v>21308</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -841,13 +847,13 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13">
-        <v>26400</v>
+        <v>16290</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -855,19 +861,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14">
-        <v>48412</v>
+        <v>26400</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -878,16 +884,16 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15">
-        <v>12500</v>
+        <v>48412</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -898,16 +904,16 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16">
-        <v>15300</v>
+        <v>12500</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,13 +924,13 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17">
-        <v>12900</v>
+        <v>15300</v>
       </c>
       <c r="F17" t="s">
         <v>63</v>
@@ -938,16 +944,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E18">
-        <v>12000</v>
+        <v>12900</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,19 +961,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E19">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,16 +984,16 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,13 +1004,13 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E21">
-        <v>9500</v>
+        <v>23000</v>
       </c>
       <c r="F21" t="s">
         <v>63</v>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>종목명</t>
   </si>
@@ -37,15 +37,24 @@
     <t>아이빔테크놀로지</t>
   </si>
   <si>
+    <t>피앤에스미캐닉스</t>
+  </si>
+  <si>
     <t>티디에스팜</t>
   </si>
   <si>
+    <t>케이쓰리아이</t>
+  </si>
+  <si>
     <t>NH스팩31호</t>
   </si>
   <si>
     <t>SK증권스팩13호</t>
   </si>
   <si>
+    <t>산일전기(유가)</t>
+  </si>
+  <si>
     <t>뱅크웨어글로벌</t>
   </si>
   <si>
@@ -61,9 +70,6 @@
     <t>엑셀세라퓨틱스</t>
   </si>
   <si>
-    <t>피앤에스미캐닉스</t>
-  </si>
-  <si>
     <t>이엔셀</t>
   </si>
   <si>
@@ -88,21 +94,21 @@
     <t>KB스팩29호</t>
   </si>
   <si>
-    <t>에이치엠씨아이비스팩7호</t>
-  </si>
-  <si>
-    <t>에스오에스랩</t>
-  </si>
-  <si>
     <t>2024.07.15~07.19</t>
   </si>
   <si>
+    <t>2024.07.11~07.17</t>
+  </si>
+  <si>
     <t>2024.07.10~07.16</t>
   </si>
   <si>
     <t>2024.07.09~07.10</t>
   </si>
   <si>
+    <t>2024.07.09~07.15</t>
+  </si>
+  <si>
     <t>2024.07.08~07.12</t>
   </si>
   <si>
@@ -139,18 +145,24 @@
     <t>2024.06.04~06.05</t>
   </si>
   <si>
-    <t>2024.06.03~06.10</t>
-  </si>
-  <si>
     <t>7,300~8,500</t>
   </si>
   <si>
+    <t>14,000~17,000</t>
+  </si>
+  <si>
     <t>9,500~10,700</t>
   </si>
   <si>
+    <t>12,500~15,500</t>
+  </si>
+  <si>
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>24,000~30,000</t>
+  </si>
+  <si>
     <t>16,000~19,000</t>
   </si>
   <si>
@@ -160,9 +172,6 @@
     <t>6,200~7,700</t>
   </si>
   <si>
-    <t>14,000~17,000</t>
-  </si>
-  <si>
     <t>13,600~15,300</t>
   </si>
   <si>
@@ -178,9 +187,6 @@
     <t>4,500~5,500</t>
   </si>
   <si>
-    <t>7,500~9,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -199,27 +205,30 @@
     <t>2000</t>
   </si>
   <si>
-    <t>11500</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
+    <t>키움증권</t>
+  </si>
+  <si>
     <t>한국투자증권</t>
   </si>
   <si>
+    <t>하나증권</t>
+  </si>
+  <si>
     <t>NH투자증권</t>
   </si>
   <si>
     <t>SK증권</t>
   </si>
   <si>
+    <t>미래에셋증권,삼성증권</t>
+  </si>
+  <si>
     <t>미래에셋증권</t>
   </si>
   <si>
-    <t>키움증권</t>
-  </si>
-  <si>
     <t>엘에스증권</t>
   </si>
   <si>
@@ -230,9 +239,6 @@
   </si>
   <si>
     <t>KB증권</t>
-  </si>
-  <si>
-    <t>현대차증권</t>
   </si>
 </sst>
 </file>
@@ -624,16 +630,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>16308</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -644,16 +650,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>9500</v>
+        <v>18900</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -664,16 +670,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -684,16 +690,16 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>8000</v>
+        <v>17500</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -704,16 +710,16 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>22400</v>
+        <v>12000</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -721,19 +727,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -741,19 +747,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8">
-        <v>24000</v>
+        <v>182400</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -761,19 +767,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9">
-        <v>8000</v>
+        <v>22400</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -781,19 +787,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>10032</v>
+        <v>6000</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -804,16 +810,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11">
-        <v>18900</v>
+        <v>24000</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -824,16 +830,16 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12">
-        <v>21308</v>
+        <v>8000</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -844,16 +850,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13">
-        <v>16290</v>
+        <v>10032</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -864,16 +870,16 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
       </c>
       <c r="E14">
-        <v>26400</v>
+        <v>21308</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -881,19 +887,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
       </c>
       <c r="E15">
-        <v>48412</v>
+        <v>16290</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -901,19 +907,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E16">
-        <v>12500</v>
+        <v>26400</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,16 +930,16 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17">
-        <v>15300</v>
+        <v>48412</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,16 +950,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,16 +970,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19">
-        <v>12000</v>
+        <v>15300</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,19 +987,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E20">
-        <v>14000</v>
+        <v>12900</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,19 +1007,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>아이빔테크놀로지</t>
   </si>
   <si>
+    <t>넥스트바이오메디컬</t>
+  </si>
+  <si>
     <t>피앤에스미캐닉스</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>키움스팩9호</t>
   </si>
   <si>
-    <t>넥스트바이오메디컬</t>
-  </si>
-  <si>
     <t>이베스트스팩6호</t>
   </si>
   <si>
@@ -115,9 +115,6 @@
     <t>2024.07.02~07.03</t>
   </si>
   <si>
-    <t>2024.07.01~07.05</t>
-  </si>
-  <si>
     <t>2024.06.27~06.28</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
     <t>7,300~8,500</t>
   </si>
   <si>
+    <t>24,000~29,000</t>
+  </si>
+  <si>
     <t>14,000~17,000</t>
   </si>
   <si>
@@ -166,9 +166,6 @@
     <t>16,000~19,000</t>
   </si>
   <si>
-    <t>24,000~29,000</t>
-  </si>
-  <si>
     <t>6,200~7,700</t>
   </si>
   <si>
@@ -199,19 +196,19 @@
     <t>43300</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>7000</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
+    <t>한국투자증권</t>
+  </si>
+  <si>
     <t>키움증권</t>
-  </si>
-  <si>
-    <t>한국투자증권</t>
   </si>
   <si>
     <t>하나증권</t>
@@ -630,16 +627,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>16308</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -647,19 +644,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>18900</v>
+        <v>24000</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -667,19 +664,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>9500</v>
+        <v>18900</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -690,16 +687,16 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -707,19 +704,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -733,13 +730,13 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -747,19 +744,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8">
-        <v>182400</v>
+        <v>8000</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -767,19 +764,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>22400</v>
+        <v>182400</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -787,19 +784,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10">
-        <v>6000</v>
+        <v>22400</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -807,19 +804,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -827,19 +824,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>8000</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -847,19 +844,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>10032</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -867,19 +864,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>21308</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -887,19 +884,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>16290</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -907,19 +904,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>26400</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,19 +924,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>48412</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,19 +944,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>12500</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,10 +964,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -979,7 +976,7 @@
         <v>15300</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,19 +984,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>12900</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,19 +1004,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>12000</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -34,6 +34,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>키움스팩9호</t>
+  </si>
+  <si>
     <t>아이빔테크놀로지</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>뱅크웨어글로벌</t>
   </si>
   <si>
-    <t>키움스팩9호</t>
-  </si>
-  <si>
     <t>이베스트스팩6호</t>
   </si>
   <si>
@@ -94,6 +94,9 @@
     <t>KB스팩29호</t>
   </si>
   <si>
+    <t>2024.07.23~07.24</t>
+  </si>
+  <si>
     <t>2024.07.15~07.19</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
     <t>2024.07.08~07.12</t>
   </si>
   <si>
-    <t>2024.07.02~07.03</t>
-  </si>
-  <si>
     <t>2024.06.27~06.28</t>
   </si>
   <si>
@@ -142,6 +142,9 @@
     <t>2024.06.04~06.05</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>7,300~8,500</t>
   </si>
   <si>
@@ -157,9 +160,6 @@
     <t>12,500~15,500</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>24,000~30,000</t>
   </si>
   <si>
@@ -187,6 +187,9 @@
     <t>-</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>16000</t>
   </si>
   <si>
@@ -196,19 +199,16 @@
     <t>43300</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>7000</t>
   </si>
   <si>
+    <t>키움증권</t>
+  </si>
+  <si>
     <t>삼성증권</t>
   </si>
   <si>
     <t>한국투자증권</t>
-  </si>
-  <si>
-    <t>키움증권</t>
   </si>
   <si>
     <t>하나증권</t>
@@ -633,7 +633,7 @@
         <v>56</v>
       </c>
       <c r="E2">
-        <v>16308</v>
+        <v>6000</v>
       </c>
       <c r="F2" t="s">
         <v>62</v>
@@ -644,7 +644,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -653,7 +653,7 @@
         <v>56</v>
       </c>
       <c r="E3">
-        <v>24000</v>
+        <v>16308</v>
       </c>
       <c r="F3" t="s">
         <v>63</v>
@@ -673,7 +673,7 @@
         <v>56</v>
       </c>
       <c r="E4">
-        <v>18900</v>
+        <v>24000</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -693,10 +693,10 @@
         <v>56</v>
       </c>
       <c r="E5">
-        <v>9500</v>
+        <v>18900</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -704,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -713,10 +713,10 @@
         <v>56</v>
       </c>
       <c r="E6">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -733,10 +733,10 @@
         <v>56</v>
       </c>
       <c r="E7">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -744,19 +744,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
       </c>
       <c r="E8">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -767,16 +767,16 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
       </c>
       <c r="E9">
-        <v>182400</v>
+        <v>8000</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -787,16 +787,16 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
       </c>
       <c r="E10">
-        <v>22400</v>
+        <v>182400</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -807,16 +807,16 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
       </c>
       <c r="E11">
-        <v>6000</v>
+        <v>22400</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -827,10 +827,10 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>8000</v>
@@ -890,13 +890,13 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>16290</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -910,7 +910,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>26400</v>
@@ -930,7 +930,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>48412</v>
@@ -947,16 +947,16 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>12500</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -976,7 +976,7 @@
         <v>15300</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,10 +987,10 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>12900</v>
@@ -1007,10 +1007,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>12000</v>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>종목명</t>
   </si>
@@ -34,9 +34,15 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>교보스팩16호</t>
+  </si>
+  <si>
     <t>키움스팩9호</t>
   </si>
   <si>
+    <t>티디에스팜</t>
+  </si>
+  <si>
     <t>아이빔테크놀로지</t>
   </si>
   <si>
@@ -46,9 +52,6 @@
     <t>피앤에스미캐닉스</t>
   </si>
   <si>
-    <t>티디에스팜</t>
-  </si>
-  <si>
     <t>케이쓰리아이</t>
   </si>
   <si>
@@ -91,12 +94,15 @@
     <t>미래에셋비전스팩6호</t>
   </si>
   <si>
-    <t>KB스팩29호</t>
+    <t>2024.07.29~07.30</t>
   </si>
   <si>
     <t>2024.07.23~07.24</t>
   </si>
   <si>
+    <t>2024.07.18~07.24</t>
+  </si>
+  <si>
     <t>2024.07.15~07.19</t>
   </si>
   <si>
@@ -139,12 +145,12 @@
     <t>2024.06.05~06.07</t>
   </si>
   <si>
-    <t>2024.06.04~06.05</t>
-  </si>
-  <si>
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>9,500~10,700</t>
+  </si>
+  <si>
     <t>7,300~8,500</t>
   </si>
   <si>
@@ -154,9 +160,6 @@
     <t>14,000~17,000</t>
   </si>
   <si>
-    <t>9,500~10,700</t>
-  </si>
-  <si>
     <t>12,500~15,500</t>
   </si>
   <si>
@@ -190,6 +193,9 @@
     <t>2000</t>
   </si>
   <si>
+    <t>10000</t>
+  </si>
+  <si>
     <t>16000</t>
   </si>
   <si>
@@ -202,15 +208,18 @@
     <t>7000</t>
   </si>
   <si>
+    <t>교보증권</t>
+  </si>
+  <si>
     <t>키움증권</t>
   </si>
   <si>
+    <t>한국투자증권</t>
+  </si>
+  <si>
     <t>삼성증권</t>
   </si>
   <si>
-    <t>한국투자증권</t>
-  </si>
-  <si>
     <t>하나증권</t>
   </si>
   <si>
@@ -233,9 +242,6 @@
   </si>
   <si>
     <t>미래에셋증권,신한투자증권</t>
-  </si>
-  <si>
-    <t>KB증권</t>
   </si>
 </sst>
 </file>
@@ -627,16 +633,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2">
-        <v>6000</v>
+        <v>11600</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -650,13 +656,13 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>16308</v>
+        <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -664,19 +670,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>24000</v>
+        <v>9500</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -684,19 +690,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>18900</v>
+        <v>16308</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -710,13 +716,13 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>9500</v>
+        <v>24000</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -724,16 +730,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>17500</v>
+        <v>18900</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
@@ -744,19 +750,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -764,19 +770,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -784,19 +790,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>182400</v>
+        <v>8000</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -804,19 +810,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11">
-        <v>22400</v>
+        <v>182400</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -824,19 +830,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>57</v>
       </c>
       <c r="E12">
-        <v>8000</v>
+        <v>22400</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -844,19 +850,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13">
-        <v>10032</v>
+        <v>8000</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -864,19 +870,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E14">
-        <v>21308</v>
+        <v>10032</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -884,19 +890,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15">
-        <v>16290</v>
+        <v>21308</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -904,19 +910,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>26400</v>
+        <v>16290</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,19 +930,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17">
-        <v>48412</v>
+        <v>26400</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,19 +950,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E18">
-        <v>12500</v>
+        <v>48412</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,19 +970,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E19">
-        <v>15300</v>
+        <v>12500</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,19 +990,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E20">
-        <v>12900</v>
+        <v>15300</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,19 +1010,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21">
-        <v>12000</v>
+        <v>12900</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -37,6 +37,9 @@
     <t>교보스팩16호</t>
   </si>
   <si>
+    <t>이엔셀</t>
+  </si>
+  <si>
     <t>키움스팩9호</t>
   </si>
   <si>
@@ -73,9 +76,6 @@
     <t>엑셀세라퓨틱스</t>
   </si>
   <si>
-    <t>이엔셀</t>
-  </si>
-  <si>
     <t>하스</t>
   </si>
   <si>
@@ -97,6 +97,9 @@
     <t>2024.07.29~07.30</t>
   </si>
   <si>
+    <t>2024.07.23~07.29</t>
+  </si>
+  <si>
     <t>2024.07.23~07.24</t>
   </si>
   <si>
@@ -127,9 +130,6 @@
     <t>2024.06.24~06.28</t>
   </si>
   <si>
-    <t>2024.06.17~06.21</t>
-  </si>
-  <si>
     <t>2024.06.13~06.19</t>
   </si>
   <si>
@@ -148,6 +148,9 @@
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>13,600~15,300</t>
+  </si>
+  <si>
     <t>9,500~10,700</t>
   </si>
   <si>
@@ -172,9 +175,6 @@
     <t>6,200~7,700</t>
   </si>
   <si>
-    <t>13,600~15,300</t>
-  </si>
-  <si>
     <t>9,000~12,000</t>
   </si>
   <si>
@@ -211,6 +211,9 @@
     <t>교보증권</t>
   </si>
   <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
     <t>키움증권</t>
   </si>
   <si>
@@ -221,9 +224,6 @@
   </si>
   <si>
     <t>하나증권</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
   </si>
   <si>
     <t>SK증권</t>
@@ -653,13 +653,13 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
       </c>
       <c r="E3">
-        <v>6000</v>
+        <v>21308</v>
       </c>
       <c r="F3" t="s">
         <v>65</v>
@@ -673,13 +673,13 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
       </c>
       <c r="E4">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="F4" t="s">
         <v>66</v>
@@ -699,7 +699,7 @@
         <v>57</v>
       </c>
       <c r="E5">
-        <v>16308</v>
+        <v>9500</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -710,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -719,10 +719,10 @@
         <v>57</v>
       </c>
       <c r="E6">
-        <v>24000</v>
+        <v>16308</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -739,10 +739,10 @@
         <v>57</v>
       </c>
       <c r="E7">
-        <v>18900</v>
+        <v>24000</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -759,10 +759,10 @@
         <v>57</v>
       </c>
       <c r="E8">
-        <v>17500</v>
+        <v>18900</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -773,13 +773,13 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
       </c>
       <c r="E9">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="F9" t="s">
         <v>69</v>
@@ -790,7 +790,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -799,10 +799,10 @@
         <v>57</v>
       </c>
       <c r="E10">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -813,16 +813,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
       </c>
       <c r="E11">
-        <v>182400</v>
+        <v>8000</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -839,10 +839,10 @@
         <v>57</v>
       </c>
       <c r="E12">
-        <v>22400</v>
+        <v>182400</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -853,16 +853,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13">
-        <v>8000</v>
+        <v>22400</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -873,16 +873,16 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14">
-        <v>10032</v>
+        <v>8000</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -896,13 +896,13 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15">
-        <v>21308</v>
+        <v>10032</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -922,7 +922,7 @@
         <v>16290</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -942,7 +942,7 @@
         <v>26400</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -982,7 +982,7 @@
         <v>12500</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1002,7 +1002,7 @@
         <v>15300</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>종목명</t>
   </si>
@@ -43,6 +43,9 @@
     <t>키움스팩9호</t>
   </si>
   <si>
+    <t>뱅크웨어글로벌</t>
+  </si>
+  <si>
     <t>티디에스팜</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
     <t>산일전기(유가)</t>
   </si>
   <si>
-    <t>뱅크웨어글로벌</t>
-  </si>
-  <si>
     <t>이베스트스팩6호</t>
   </si>
   <si>
@@ -121,9 +121,6 @@
     <t>2024.07.09~07.15</t>
   </si>
   <si>
-    <t>2024.07.08~07.12</t>
-  </si>
-  <si>
     <t>2024.06.27~06.28</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
     <t>13,600~15,300</t>
   </si>
   <si>
+    <t>16,000~19,000</t>
+  </si>
+  <si>
     <t>9,500~10,700</t>
   </si>
   <si>
@@ -169,9 +169,6 @@
     <t>24,000~30,000</t>
   </si>
   <si>
-    <t>16,000~19,000</t>
-  </si>
-  <si>
     <t>6,200~7,700</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
     <t>키움증권</t>
   </si>
   <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
     <t>한국투자증권</t>
   </si>
   <si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>미래에셋증권,삼성증권</t>
-  </si>
-  <si>
-    <t>미래에셋증권</t>
   </si>
   <si>
     <t>엘에스증권</t>
@@ -633,16 +630,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>11600</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -653,16 +650,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>21308</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -673,16 +670,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>6000</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -690,19 +687,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>9500</v>
+        <v>22400</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -710,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>16308</v>
+        <v>9500</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -733,16 +730,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7">
-        <v>24000</v>
+        <v>16308</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -750,19 +747,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8">
-        <v>18900</v>
+        <v>24000</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -770,19 +767,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>17500</v>
+        <v>18900</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -790,19 +787,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -813,16 +810,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -830,19 +827,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12">
-        <v>182400</v>
+        <v>8000</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -850,19 +847,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13">
-        <v>22400</v>
+        <v>182400</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -870,19 +867,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>8000</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -890,19 +887,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>10032</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -910,13 +907,13 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>16290</v>
@@ -930,19 +927,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>26400</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,19 +947,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>48412</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,13 +967,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>12500</v>
@@ -990,13 +987,13 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20">
         <v>15300</v>
@@ -1010,19 +1007,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>12900</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>종목명</t>
   </si>
@@ -34,6 +34,9 @@
     <t>주간사</t>
   </si>
   <si>
+    <t>에이치이엠파마(구.에이치이엠)</t>
+  </si>
+  <si>
     <t>교보스팩16호</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>하이젠알앤엠</t>
   </si>
   <si>
-    <t>미래에셋비전스팩6호</t>
+    <t>2024.08.26~08.30</t>
   </si>
   <si>
     <t>2024.07.29~07.30</t>
@@ -139,7 +142,7 @@
     <t>2024.06.07~06.13</t>
   </si>
   <si>
-    <t>2024.06.05~06.07</t>
+    <t>18,000~21,000</t>
   </si>
   <si>
     <t>2,000~2,000</t>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t>7000</t>
+  </si>
+  <si>
+    <t>신한투자증권</t>
   </si>
   <si>
     <t>교보증권</t>
@@ -633,13 +639,13 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2">
-        <v>11600</v>
+        <v>12546</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -653,13 +659,13 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>21308</v>
+        <v>11600</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -670,16 +676,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>6000</v>
+        <v>21308</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -687,19 +693,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>22400</v>
+        <v>6000</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -707,19 +713,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>9500</v>
+        <v>22400</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -733,13 +739,13 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>16308</v>
+        <v>9500</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -747,19 +753,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8">
-        <v>24000</v>
+        <v>16308</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -773,13 +779,13 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9">
-        <v>18900</v>
+        <v>24000</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -793,13 +799,13 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>17500</v>
+        <v>18900</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -810,16 +816,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -827,19 +833,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -850,16 +856,16 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13">
-        <v>182400</v>
+        <v>8000</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -870,16 +876,16 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
       </c>
       <c r="E14">
-        <v>8000</v>
+        <v>182400</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -890,16 +896,16 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
       </c>
       <c r="E15">
-        <v>10032</v>
+        <v>8000</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -916,10 +922,10 @@
         <v>59</v>
       </c>
       <c r="E16">
-        <v>16290</v>
+        <v>10032</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -936,10 +942,10 @@
         <v>60</v>
       </c>
       <c r="E17">
-        <v>26400</v>
+        <v>16290</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,7 +953,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
@@ -956,10 +962,10 @@
         <v>61</v>
       </c>
       <c r="E18">
-        <v>48412</v>
+        <v>26400</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,16 +976,16 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E19">
-        <v>12500</v>
+        <v>48412</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,16 +996,16 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E20">
-        <v>15300</v>
+        <v>12500</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1010,16 +1016,16 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E21">
-        <v>12900</v>
+        <v>15300</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>종목명</t>
   </si>
@@ -46,9 +46,15 @@
     <t>교보스팩16호</t>
   </si>
   <si>
+    <t>넥스트바이오메디컬</t>
+  </si>
+  <si>
     <t>아이언디바이스</t>
   </si>
   <si>
+    <t>유라클</t>
+  </si>
+  <si>
     <t>이엔셀</t>
   </si>
   <si>
@@ -64,9 +70,6 @@
     <t>아이빔테크놀로지</t>
   </si>
   <si>
-    <t>넥스트바이오메디컬</t>
-  </si>
-  <si>
     <t>피앤에스미캐닉스</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>에이치브이엠(구.한국진공야금)</t>
   </si>
   <si>
-    <t>이노스페이스</t>
-  </si>
-  <si>
     <t>2024.08.26~08.30</t>
   </si>
   <si>
@@ -151,6 +151,9 @@
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>24,000~29,000</t>
+  </si>
+  <si>
     <t>4,900~5,700</t>
   </si>
   <si>
@@ -166,9 +169,6 @@
     <t>7,300~8,500</t>
   </si>
   <si>
-    <t>24,000~29,000</t>
-  </si>
-  <si>
     <t>14,000~17,000</t>
   </si>
   <si>
@@ -184,9 +184,6 @@
     <t>11,000~14,200</t>
   </si>
   <si>
-    <t>36,400~43,300</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>18000</t>
   </si>
   <si>
-    <t>43300</t>
-  </si>
-  <si>
     <t>신한투자증권</t>
   </si>
   <si>
@@ -217,18 +211,18 @@
     <t>교보증권</t>
   </si>
   <si>
+    <t>한국투자증권</t>
+  </si>
+  <si>
     <t>대신증권</t>
   </si>
   <si>
+    <t>키움증권</t>
+  </si>
+  <si>
     <t>NH투자증권</t>
   </si>
   <si>
-    <t>키움증권</t>
-  </si>
-  <si>
-    <t>한국투자증권</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
@@ -239,9 +233,6 @@
   </si>
   <si>
     <t>엘에스증권</t>
-  </si>
-  <si>
-    <t>미래에셋증권,신한투자증권</t>
   </si>
 </sst>
 </file>
@@ -636,13 +627,13 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>12546</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -656,13 +647,13 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>17500</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -676,13 +667,13 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>42471</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -696,13 +687,13 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>11600</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -716,13 +707,13 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>14700</v>
+        <v>24000</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -730,19 +721,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7">
-        <v>21308</v>
+        <v>14700</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -750,19 +741,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8">
-        <v>6000</v>
+        <v>13518</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -776,13 +767,13 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>22400</v>
+        <v>21308</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -790,19 +781,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -810,19 +801,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11">
-        <v>16308</v>
+        <v>22400</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -830,19 +821,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12">
-        <v>24000</v>
+        <v>9500</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -850,16 +841,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13">
-        <v>18900</v>
+        <v>16308</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>
@@ -870,19 +861,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14">
-        <v>12000</v>
+        <v>18900</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -896,13 +887,13 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -910,19 +901,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16">
-        <v>182400</v>
+        <v>8000</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,19 +921,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17">
-        <v>8000</v>
+        <v>182400</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,19 +941,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18">
-        <v>10032</v>
+        <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,19 +961,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19">
-        <v>16290</v>
+        <v>10032</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,19 +981,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20">
-        <v>26400</v>
+        <v>16290</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1013,16 +1004,16 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21">
-        <v>48412</v>
+        <v>26400</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>에이치이엠파마(구.에이치이엠)</t>
   </si>
   <si>
+    <t>아이스크림미디어(구.시공미디어)</t>
+  </si>
+  <si>
     <t>케이쓰리아이</t>
   </si>
   <si>
@@ -91,12 +94,12 @@
     <t>하스</t>
   </si>
   <si>
-    <t>에이치브이엠(구.한국진공야금)</t>
-  </si>
-  <si>
     <t>2024.08.26~08.30</t>
   </si>
   <si>
+    <t>2024.07.31~08.06</t>
+  </si>
+  <si>
     <t>2024.07.30~08.05</t>
   </si>
   <si>
@@ -136,12 +139,12 @@
     <t>2024.06.13~06.19</t>
   </si>
   <si>
-    <t>2024.06.11~06.17</t>
-  </si>
-  <si>
     <t>18,000~21,000</t>
   </si>
   <si>
+    <t>32,000~40,200</t>
+  </si>
+  <si>
     <t>12,500~15,500</t>
   </si>
   <si>
@@ -181,9 +184,6 @@
     <t>9,000~12,000</t>
   </si>
   <si>
-    <t>11,000~14,200</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>16000</t>
   </si>
   <si>
-    <t>18000</t>
-  </si>
-  <si>
     <t>신한투자증권</t>
   </si>
   <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
     <t>하나증권</t>
   </si>
   <si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>NH투자증권</t>
-  </si>
-  <si>
-    <t>삼성증권</t>
   </si>
   <si>
     <t>SK증권</t>
@@ -633,7 +630,7 @@
         <v>12546</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -650,10 +647,10 @@
         <v>56</v>
       </c>
       <c r="E3">
-        <v>17500</v>
+        <v>78720</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -661,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -670,10 +667,10 @@
         <v>56</v>
       </c>
       <c r="E4">
-        <v>42471</v>
+        <v>17500</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -690,10 +687,10 @@
         <v>56</v>
       </c>
       <c r="E5">
-        <v>11600</v>
+        <v>42471</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -710,10 +707,10 @@
         <v>56</v>
       </c>
       <c r="E6">
-        <v>24000</v>
+        <v>11600</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -721,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -730,10 +727,10 @@
         <v>56</v>
       </c>
       <c r="E7">
-        <v>14700</v>
+        <v>24000</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -741,19 +738,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
       </c>
       <c r="E8">
-        <v>13518</v>
+        <v>14700</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -764,16 +761,16 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
       </c>
       <c r="E9">
-        <v>21308</v>
+        <v>13518</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -784,16 +781,16 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
       </c>
       <c r="E10">
-        <v>6000</v>
+        <v>21308</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -801,19 +798,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
       </c>
       <c r="E11">
-        <v>22400</v>
+        <v>6000</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -821,7 +818,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
@@ -830,10 +827,10 @@
         <v>56</v>
       </c>
       <c r="E12">
-        <v>9500</v>
+        <v>22400</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -850,10 +847,10 @@
         <v>56</v>
       </c>
       <c r="E13">
-        <v>16308</v>
+        <v>9500</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -870,10 +867,10 @@
         <v>56</v>
       </c>
       <c r="E14">
-        <v>18900</v>
+        <v>16308</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -884,16 +881,16 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
       </c>
       <c r="E15">
-        <v>12000</v>
+        <v>18900</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -901,19 +898,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>56</v>
       </c>
       <c r="E16">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,16 +921,16 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17">
-        <v>182400</v>
+        <v>8000</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,16 +941,16 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18">
-        <v>8000</v>
+        <v>182400</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,16 +961,16 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19">
-        <v>10032</v>
+        <v>8000</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,13 +984,13 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20">
-        <v>16290</v>
+        <v>10032</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,13 +1004,13 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21">
-        <v>26400</v>
+        <v>16290</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -904,7 +904,7 @@
         <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>12000</v>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -37,6 +37,9 @@
     <t>에이치이엠파마(구.에이치이엠)</t>
   </si>
   <si>
+    <t>엠83</t>
+  </si>
+  <si>
     <t>아이스크림미디어(구.시공미디어)</t>
   </si>
   <si>
@@ -91,12 +94,12 @@
     <t>엑셀세라퓨틱스</t>
   </si>
   <si>
-    <t>하스</t>
-  </si>
-  <si>
     <t>2024.08.26~08.30</t>
   </si>
   <si>
+    <t>2024.08.01~08.07</t>
+  </si>
+  <si>
     <t>2024.07.31~08.06</t>
   </si>
   <si>
@@ -136,12 +139,12 @@
     <t>2024.06.24~06.28</t>
   </si>
   <si>
-    <t>2024.06.13~06.19</t>
-  </si>
-  <si>
     <t>18,000~21,000</t>
   </si>
   <si>
+    <t>11,000~13,000</t>
+  </si>
+  <si>
     <t>32,000~40,200</t>
   </si>
   <si>
@@ -181,9 +184,6 @@
     <t>6,200~7,700</t>
   </si>
   <si>
-    <t>9,000~12,000</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -193,10 +193,10 @@
     <t>10000</t>
   </si>
   <si>
-    <t>16000</t>
-  </si>
-  <si>
     <t>신한투자증권</t>
+  </si>
+  <si>
+    <t>신영증권,유진투자증권</t>
   </si>
   <si>
     <t>삼성증권</t>
@@ -630,7 +630,7 @@
         <v>12546</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -647,10 +647,10 @@
         <v>56</v>
       </c>
       <c r="E3">
-        <v>78720</v>
+        <v>16500</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -667,10 +667,10 @@
         <v>56</v>
       </c>
       <c r="E4">
-        <v>17500</v>
+        <v>78720</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -678,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -687,10 +687,10 @@
         <v>56</v>
       </c>
       <c r="E5">
-        <v>42471</v>
+        <v>17500</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -707,10 +707,10 @@
         <v>56</v>
       </c>
       <c r="E6">
-        <v>11600</v>
+        <v>42471</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -727,10 +727,10 @@
         <v>56</v>
       </c>
       <c r="E7">
-        <v>24000</v>
+        <v>11600</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -738,7 +738,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -747,10 +747,10 @@
         <v>56</v>
       </c>
       <c r="E8">
-        <v>14700</v>
+        <v>24000</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -758,19 +758,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
       </c>
       <c r="E9">
-        <v>13518</v>
+        <v>14700</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -781,16 +781,16 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
       </c>
       <c r="E10">
-        <v>21308</v>
+        <v>13518</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -801,16 +801,16 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
       </c>
       <c r="E11">
-        <v>6000</v>
+        <v>21308</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -818,19 +818,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>56</v>
       </c>
       <c r="E12">
-        <v>22400</v>
+        <v>6000</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -838,7 +838,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -847,10 +847,10 @@
         <v>56</v>
       </c>
       <c r="E13">
-        <v>9500</v>
+        <v>22400</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -867,10 +867,10 @@
         <v>56</v>
       </c>
       <c r="E14">
-        <v>16308</v>
+        <v>9500</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -887,10 +887,10 @@
         <v>56</v>
       </c>
       <c r="E15">
-        <v>18900</v>
+        <v>16308</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -901,16 +901,16 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16">
-        <v>12000</v>
+        <v>18900</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,19 +918,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
       </c>
       <c r="E17">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,16 +941,16 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18">
-        <v>182400</v>
+        <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,16 +961,16 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19">
-        <v>8000</v>
+        <v>182400</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,16 +981,16 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20">
-        <v>10032</v>
+        <v>8000</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,13 +1004,13 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21">
-        <v>16290</v>
+        <v>10032</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>에이치이엠파마(구.에이치이엠)</t>
   </si>
   <si>
+    <t>이엔셀</t>
+  </si>
+  <si>
     <t>엠83</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>유라클</t>
   </si>
   <si>
-    <t>이엔셀</t>
-  </si>
-  <si>
     <t>키움스팩9호</t>
   </si>
   <si>
@@ -97,6 +97,9 @@
     <t>2024.08.26~08.30</t>
   </si>
   <si>
+    <t>2024.08.02~08.08</t>
+  </si>
+  <si>
     <t>2024.08.01~08.07</t>
   </si>
   <si>
@@ -112,12 +115,12 @@
     <t>2024.07.29~08.02</t>
   </si>
   <si>
+    <t>2024.07.23~07.24</t>
+  </si>
+  <si>
     <t>2024.07.23~07.29</t>
   </si>
   <si>
-    <t>2024.07.23~07.24</t>
-  </si>
-  <si>
     <t>2024.07.18~07.24</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>18,000~21,000</t>
   </si>
   <si>
+    <t>13,600~15,300</t>
+  </si>
+  <si>
     <t>11,000~13,000</t>
   </si>
   <si>
@@ -163,9 +169,6 @@
     <t>4,900~5,700</t>
   </si>
   <si>
-    <t>13,600~15,300</t>
-  </si>
-  <si>
     <t>16,000~19,000</t>
   </si>
   <si>
@@ -190,12 +193,18 @@
     <t>2000</t>
   </si>
   <si>
+    <t>35000</t>
+  </si>
+  <si>
     <t>10000</t>
   </si>
   <si>
     <t>신한투자증권</t>
   </si>
   <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
     <t>신영증권,유진투자증권</t>
   </si>
   <si>
@@ -218,9 +227,6 @@
   </si>
   <si>
     <t>키움증권</t>
-  </si>
-  <si>
-    <t>NH투자증권</t>
   </si>
   <si>
     <t>SK증권</t>
@@ -621,16 +627,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>12546</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -641,16 +647,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>16500</v>
+        <v>21308</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -661,16 +667,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>78720</v>
+        <v>16500</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -681,16 +687,16 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>17500</v>
+        <v>78720</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -698,19 +704,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>42471</v>
+        <v>17500</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -721,16 +727,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>11600</v>
+        <v>42471</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -741,16 +747,16 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8">
-        <v>24000</v>
+        <v>11600</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -758,19 +764,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9">
-        <v>14700</v>
+        <v>24000</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -778,19 +784,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>13518</v>
+        <v>14700</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -801,16 +807,16 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11">
-        <v>21308</v>
+        <v>13518</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -821,16 +827,16 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>6000</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -838,19 +844,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>22400</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -858,19 +864,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>9500</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -878,19 +884,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>16308</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -898,19 +904,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>18900</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,19 +924,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>12000</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,19 +944,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,19 +964,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>182400</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,19 +984,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>8000</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,19 +1004,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>10032</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>종목명</t>
   </si>
@@ -43,6 +43,9 @@
     <t>엠83</t>
   </si>
   <si>
+    <t>티디에스팜</t>
+  </si>
+  <si>
     <t>아이스크림미디어(구.시공미디어)</t>
   </si>
   <si>
@@ -70,9 +73,6 @@
     <t>뱅크웨어글로벌</t>
   </si>
   <si>
-    <t>티디에스팜</t>
-  </si>
-  <si>
     <t>아이빔테크놀로지</t>
   </si>
   <si>
@@ -121,9 +121,6 @@
     <t>2024.07.23~07.29</t>
   </si>
   <si>
-    <t>2024.07.18~07.24</t>
-  </si>
-  <si>
     <t>2024.07.15~07.19</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
     <t>11,000~13,000</t>
   </si>
   <si>
+    <t>9,500~10,700</t>
+  </si>
+  <si>
     <t>32,000~40,200</t>
   </si>
   <si>
@@ -172,9 +172,6 @@
     <t>16,000~19,000</t>
   </si>
   <si>
-    <t>9,500~10,700</t>
-  </si>
-  <si>
     <t>7,300~8,500</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
     <t>신영증권,유진투자증권</t>
   </si>
   <si>
+    <t>한국투자증권</t>
+  </si>
+  <si>
     <t>삼성증권</t>
   </si>
   <si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>교보증권</t>
-  </si>
-  <si>
-    <t>한국투자증권</t>
   </si>
   <si>
     <t>대신증권</t>
@@ -627,16 +624,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>12546</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -647,16 +644,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>21308</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -667,16 +664,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>16500</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -687,16 +684,16 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>78720</v>
+        <v>9500</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -704,19 +701,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>17500</v>
+        <v>78720</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -727,16 +724,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7">
-        <v>42471</v>
+        <v>17500</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -744,19 +741,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8">
-        <v>11600</v>
+        <v>42471</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -764,19 +761,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>24000</v>
+        <v>11600</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -787,16 +784,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10">
-        <v>14700</v>
+        <v>24000</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -807,16 +804,16 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11">
-        <v>13518</v>
+        <v>14700</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -824,19 +821,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12">
-        <v>6000</v>
+        <v>13518</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -844,19 +841,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13">
-        <v>22400</v>
+        <v>6000</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -864,19 +861,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14">
-        <v>9500</v>
+        <v>22400</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -884,13 +881,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>16308</v>
@@ -904,19 +901,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>18900</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,19 +921,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>12000</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,19 +941,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,19 +961,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>182400</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,19 +981,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>8000</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,19 +1001,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>10032</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>종목명</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>22000</t>
   </si>
   <si>
     <t>2000</t>
@@ -633,7 +636,7 @@
         <v>12546</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -653,7 +656,7 @@
         <v>21308</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -673,7 +676,7 @@
         <v>16500</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -693,7 +696,7 @@
         <v>9500</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -713,7 +716,7 @@
         <v>78720</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -733,7 +736,7 @@
         <v>17500</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -753,7 +756,7 @@
         <v>42471</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -773,7 +776,7 @@
         <v>11600</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -793,7 +796,7 @@
         <v>24000</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -813,7 +816,7 @@
         <v>14700</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -833,7 +836,7 @@
         <v>13518</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -853,7 +856,7 @@
         <v>6000</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -873,7 +876,7 @@
         <v>22400</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -893,7 +896,7 @@
         <v>16308</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -907,13 +910,13 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>18900</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,13 +930,13 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>12000</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,13 +950,13 @@
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,13 +970,13 @@
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>182400</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,13 +990,13 @@
         <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>8000</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,13 +1010,13 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>10032</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>종목명</t>
   </si>
@@ -40,6 +40,9 @@
     <t>키움스팩9호</t>
   </si>
   <si>
+    <t>아이스크림미디어(구.시공미디어)</t>
+  </si>
+  <si>
     <t>이엔셀</t>
   </si>
   <si>
@@ -49,9 +52,6 @@
     <t>티디에스팜</t>
   </si>
   <si>
-    <t>아이스크림미디어(구.시공미디어)</t>
-  </si>
-  <si>
     <t>케이쓰리아이</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
     <t>2024.08.13~08.14</t>
   </si>
   <si>
+    <t>2024.08.09~08.16</t>
+  </si>
+  <si>
     <t>2024.08.02~08.08</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>2,000~2,000</t>
   </si>
   <si>
+    <t>32,000~40,200</t>
+  </si>
+  <si>
     <t>13,600~15,300</t>
   </si>
   <si>
@@ -154,9 +160,6 @@
     <t>9,500~10,700</t>
   </si>
   <si>
-    <t>32,000~40,200</t>
-  </si>
-  <si>
     <t>12,500~15,500</t>
   </si>
   <si>
@@ -205,6 +208,9 @@
     <t>키움증권</t>
   </si>
   <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
     <t>NH투자증권</t>
   </si>
   <si>
@@ -212,9 +218,6 @@
   </si>
   <si>
     <t>한국투자증권</t>
-  </si>
-  <si>
-    <t>삼성증권</t>
   </si>
   <si>
     <t>하나증권</t>
@@ -627,16 +630,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>12546</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -647,16 +650,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>6000</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -667,16 +670,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>21308</v>
+        <v>78720</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -687,16 +690,16 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>16500</v>
+        <v>21308</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -707,16 +710,16 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -724,19 +727,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>78720</v>
+        <v>9500</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -744,19 +747,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>17500</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -764,19 +767,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>42471</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -784,19 +787,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>11600</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -804,19 +807,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>24000</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -824,19 +827,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>14700</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -844,19 +847,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>13518</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -864,19 +867,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>22400</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -884,19 +887,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>16308</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -904,19 +907,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>18900</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,19 +927,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>12000</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,19 +947,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,19 +967,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>182400</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,19 +987,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>8000</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,19 +1007,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>10032</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>에이치이엠파마(구.에이치이엠)</t>
   </si>
   <si>
+    <t>아이언디바이스</t>
+  </si>
+  <si>
     <t>키움스팩9호</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>넥스트바이오메디컬</t>
   </si>
   <si>
-    <t>아이언디바이스</t>
-  </si>
-  <si>
     <t>유라클</t>
   </si>
   <si>
@@ -97,6 +97,9 @@
     <t>2024.08.26~08.30</t>
   </si>
   <si>
+    <t>2024.08.19~08.23</t>
+  </si>
+  <si>
     <t>2024.08.13~08.14</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>18,000~21,000</t>
   </si>
   <si>
+    <t>4,900~5,700</t>
+  </si>
+  <si>
     <t>2,000~2,000</t>
   </si>
   <si>
@@ -169,9 +175,6 @@
     <t>24,000~29,000</t>
   </si>
   <si>
-    <t>4,900~5,700</t>
-  </si>
-  <si>
     <t>16,000~19,000</t>
   </si>
   <si>
@@ -205,6 +208,9 @@
     <t>신한투자증권</t>
   </si>
   <si>
+    <t>대신증권</t>
+  </si>
+  <si>
     <t>키움증권</t>
   </si>
   <si>
@@ -227,9 +233,6 @@
   </si>
   <si>
     <t>교보증권</t>
-  </si>
-  <si>
-    <t>대신증권</t>
   </si>
   <si>
     <t>SK증권</t>
@@ -630,16 +633,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <v>12546</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -650,16 +653,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>6000</v>
+        <v>14700</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -670,16 +673,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4">
-        <v>78720</v>
+        <v>6000</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -690,16 +693,16 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>21308</v>
+        <v>78720</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -710,16 +713,16 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>16500</v>
+        <v>21308</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -730,16 +733,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -750,16 +753,16 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -767,19 +770,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9">
-        <v>42471</v>
+        <v>17500</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -790,16 +793,16 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10">
-        <v>11600</v>
+        <v>42471</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -810,16 +813,16 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>24000</v>
+        <v>11600</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -827,19 +830,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12">
-        <v>14700</v>
+        <v>24000</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -847,19 +850,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>13518</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -867,19 +870,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>22400</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -887,19 +890,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>16308</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -907,19 +910,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>18900</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,19 +930,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17">
         <v>12000</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,19 +950,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,19 +970,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>182400</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,19 +990,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20">
         <v>8000</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,19 +1010,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>10032</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
   <si>
     <t>종목명</t>
   </si>
@@ -37,6 +37,9 @@
     <t>에이치이엠파마(구.에이치이엠)</t>
   </si>
   <si>
+    <t>미래에셋비전스팩7호</t>
+  </si>
+  <si>
     <t>아이언디바이스</t>
   </si>
   <si>
@@ -91,12 +94,12 @@
     <t>이베스트스팩6호</t>
   </si>
   <si>
-    <t>엑셀세라퓨틱스</t>
-  </si>
-  <si>
     <t>2024.08.26~08.30</t>
   </si>
   <si>
+    <t>2024.08.26~08.27</t>
+  </si>
+  <si>
     <t>2024.08.19~08.23</t>
   </si>
   <si>
@@ -142,18 +145,15 @@
     <t>2024.06.27~06.28</t>
   </si>
   <si>
-    <t>2024.06.24~06.28</t>
-  </si>
-  <si>
     <t>18,000~21,000</t>
   </si>
   <si>
+    <t>2,000~2,000</t>
+  </si>
+  <si>
     <t>4,900~5,700</t>
   </si>
   <si>
-    <t>2,000~2,000</t>
-  </si>
-  <si>
     <t>32,000~40,200</t>
   </si>
   <si>
@@ -187,27 +187,84 @@
     <t>24,000~30,000</t>
   </si>
   <si>
-    <t>6,200~7,700</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
     <t>10000</t>
   </si>
   <si>
     <t>22000</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>35000</t>
   </si>
   <si>
+    <t>12546</t>
+  </si>
+  <si>
+    <t>14700</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>78720</t>
+  </si>
+  <si>
+    <t>21308</t>
+  </si>
+  <si>
+    <t>16500</t>
+  </si>
+  <si>
+    <t>9500</t>
+  </si>
+  <si>
+    <t>17500</t>
+  </si>
+  <si>
+    <t>42471</t>
+  </si>
+  <si>
+    <t>11600</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>13518</t>
+  </si>
+  <si>
+    <t>22400</t>
+  </si>
+  <si>
+    <t>16308</t>
+  </si>
+  <si>
+    <t>18900</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>182400</t>
+  </si>
+  <si>
     <t>신한투자증권</t>
   </si>
   <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
     <t>대신증권</t>
   </si>
   <si>
@@ -227,9 +284,6 @@
   </si>
   <si>
     <t>하나증권</t>
-  </si>
-  <si>
-    <t>미래에셋증권</t>
   </si>
   <si>
     <t>교보증권</t>
@@ -636,13 +690,13 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2">
-        <v>12546</v>
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -656,13 +710,13 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3">
-        <v>14700</v>
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -676,13 +730,13 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4">
-        <v>6000</v>
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -693,16 +747,16 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5">
-        <v>78720</v>
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -713,16 +767,16 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6">
-        <v>21308</v>
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -733,16 +787,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7">
-        <v>16500</v>
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -753,16 +807,16 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8">
-        <v>9500</v>
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -773,16 +827,16 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9">
-        <v>17500</v>
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -790,19 +844,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10">
-        <v>42471</v>
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -813,16 +867,16 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11">
-        <v>11600</v>
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -833,16 +887,16 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>58</v>
       </c>
-      <c r="E12">
-        <v>24000</v>
+      <c r="E12" t="s">
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -850,19 +904,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13">
-        <v>13518</v>
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -873,16 +927,16 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14">
-        <v>22400</v>
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -893,16 +947,16 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="E15">
-        <v>16308</v>
+      <c r="E15" t="s">
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -913,16 +967,16 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
       </c>
-      <c r="E16">
-        <v>18900</v>
+      <c r="E16" t="s">
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -933,16 +987,16 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
       </c>
-      <c r="E17">
-        <v>12000</v>
+      <c r="E17" t="s">
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,19 +1004,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18">
-        <v>8000</v>
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -973,16 +1027,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19">
-        <v>182400</v>
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -993,16 +1047,16 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20">
-        <v>8000</v>
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1013,16 +1067,16 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21">
-        <v>10032</v>
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t>종목명</t>
   </si>
@@ -49,6 +49,9 @@
     <t>아이스크림미디어(구.시공미디어)</t>
   </si>
   <si>
+    <t>대신밸런스스팩18호</t>
+  </si>
+  <si>
     <t>이엔셀</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>산일전기(유가)</t>
   </si>
   <si>
-    <t>이베스트스팩6호</t>
-  </si>
-  <si>
     <t>2024.08.26~08.30</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
     <t>2024.08.09~08.16</t>
   </si>
   <si>
+    <t>2024.08.05~08.06</t>
+  </si>
+  <si>
     <t>2024.08.02~08.08</t>
   </si>
   <si>
@@ -142,9 +145,6 @@
     <t>2024.07.09~07.15</t>
   </si>
   <si>
-    <t>2024.06.27~06.28</t>
-  </si>
-  <si>
     <t>18,000~21,000</t>
   </si>
   <si>
@@ -193,6 +193,9 @@
     <t>2000</t>
   </si>
   <si>
+    <t>21000</t>
+  </si>
+  <si>
     <t>16000</t>
   </si>
   <si>
@@ -217,6 +220,9 @@
     <t>78720</t>
   </si>
   <si>
+    <t>13000</t>
+  </si>
+  <si>
     <t>21308</t>
   </si>
   <si>
@@ -238,16 +244,16 @@
     <t>24000</t>
   </si>
   <si>
-    <t>13518</t>
+    <t>15771</t>
   </si>
   <si>
     <t>22400</t>
   </si>
   <si>
-    <t>16308</t>
-  </si>
-  <si>
-    <t>18900</t>
+    <t>22340</t>
+  </si>
+  <si>
+    <t>29700</t>
   </si>
   <si>
     <t>12000</t>
@@ -256,7 +262,7 @@
     <t>8000</t>
   </si>
   <si>
-    <t>182400</t>
+    <t>266000</t>
   </si>
   <si>
     <t>신한투자증권</t>
@@ -293,9 +299,6 @@
   </si>
   <si>
     <t>미래에셋증권,삼성증권</t>
-  </si>
-  <si>
-    <t>엘에스증권</t>
   </si>
 </sst>
 </file>
@@ -693,10 +696,10 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -716,7 +719,7 @@
         <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -733,10 +736,10 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -753,10 +756,10 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -773,10 +776,10 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -787,16 +790,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -807,16 +810,16 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -827,16 +830,16 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -847,16 +850,16 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -864,19 +867,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -887,16 +890,16 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -907,16 +910,16 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -924,19 +927,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -947,16 +950,16 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -967,16 +970,16 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -987,16 +990,16 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1007,13 +1010,13 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
         <v>86</v>
@@ -1024,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -1033,10 +1036,10 @@
         <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1047,16 +1050,16 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1067,16 +1070,16 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>종목명</t>
   </si>
@@ -190,9 +190,18 @@
     <t>-</t>
   </si>
   <si>
+    <t>15500</t>
+  </si>
+  <si>
+    <t>16500</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
+    <t>29000</t>
+  </si>
+  <si>
     <t>21000</t>
   </si>
   <si>
@@ -226,22 +235,16 @@
     <t>21308</t>
   </si>
   <si>
-    <t>16500</t>
-  </si>
-  <si>
     <t>9500</t>
   </si>
   <si>
-    <t>17500</t>
-  </si>
-  <si>
-    <t>42471</t>
+    <t>22351</t>
+  </si>
+  <si>
+    <t>50781</t>
   </si>
   <si>
     <t>11600</t>
-  </si>
-  <si>
-    <t>24000</t>
   </si>
   <si>
     <t>15771</t>
@@ -696,10 +699,10 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -719,7 +722,7 @@
         <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -736,10 +739,10 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -756,10 +759,10 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -776,10 +779,10 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -796,10 +799,10 @@
         <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -816,10 +819,10 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -836,10 +839,10 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -856,10 +859,10 @@
         <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -873,13 +876,13 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -893,13 +896,13 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -913,13 +916,13 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -933,13 +936,13 @@
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -953,13 +956,13 @@
         <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -973,13 +976,13 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -993,13 +996,13 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1013,13 +1016,13 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1033,13 +1036,13 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1053,13 +1056,13 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1073,13 +1076,13 @@
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet2.xlsx
+++ b/datasets/sheet2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t>종목명</t>
   </si>
@@ -190,15 +190,18 @@
     <t>-</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
     <t>15500</t>
   </si>
   <si>
     <t>16500</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>29000</t>
   </si>
   <si>
@@ -229,16 +232,10 @@
     <t>78720</t>
   </si>
   <si>
-    <t>13000</t>
-  </si>
-  <si>
     <t>21308</t>
   </si>
   <si>
-    <t>9500</t>
-  </si>
-  <si>
-    <t>22351</t>
+    <t>21700</t>
   </si>
   <si>
     <t>50781</t>
@@ -699,10 +696,10 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -722,7 +719,7 @@
         <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -739,10 +736,10 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -759,10 +756,10 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -779,10 +776,10 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -796,13 +793,13 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -822,7 +819,7 @@
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -839,10 +836,10 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -856,13 +853,13 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -876,13 +873,13 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -896,13 +893,13 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -916,13 +913,13 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -936,13 +933,13 @@
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -956,13 +953,13 @@
         <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -976,13 +973,13 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -996,13 +993,13 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1016,13 +1013,13 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1036,13 +1033,13 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1056,13 +1053,13 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1076,13 +1073,13 @@
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
